--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,32 +427,7212 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>Received Time</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Received Time</t>
+          <t>Subject</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Subject</t>
+          <t>Sender</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Sender</t>
+          <t>Sender Email Address</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Sender Email Address</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45051.00553607639</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fake Email Awareness </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Maybe you all got the below email, this is a fake email, so please delete this email. Screenshot below for your reference. 
+Note:- I'm request you, if you send any information related email or any other email to many recipients, So please send email using BCC
+Thanks and Regards,
+Sachin Patel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45053.32764640046</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weekly Canteen Menu of All Units_8 May to 14 May 2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find an attached weekly menu of All units canteen for your perusal.
+Note: Please review your meal experience in the canteen review tablet.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45056.40556390047</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Re: Request for New Mouse from Store Room</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adding Lilaji.
+Regards, 
+Sachin Patel
+________________________________
+From: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Sent: Wednesday, May 10, 2023 9:34 AM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Subject: Request for New Mouse from Store Room 
+Dear Sachin Patel
+I am writing to request the issuance of a mouse .  I understand the company's policies and the value of office equipment. Therefore, I will take full responsibility
+Thank you for your time and consideration.
+Manish Verma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45057.72465539352</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FW: Inspection Check List and CoA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FYI.
+Regards,
+Usha Shetty
+From: Parvat Maliwad &lt;qa.pet@skapsindia.com&gt; 
+Sent: 03 March 2023 12:28
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Cc: Sanket Gajjar &lt;sanket.gajjar@skapsindia.com&gt;
+Subject: Inspection Check List and CoA
+Hi,
+As per our Discussion please find the attached Documents.
+Thanks,
+PARVAT
++91 7990106438
+ANJANI UDYOG PRIVATE LIMITED
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45058.58811457176</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P.F. &amp; UAN Number Details</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Manish Bhai, 
+Please find the attached file of the PF Account number for your reference.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45059.76496060185</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Weekly Canteen Menu of All Units_15 May to 21 May 2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find an attached weekly menu of All units canteen for your perusal.
+Note: Please review your meal experience in the canteen review tablet.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45062.72090881944</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Open Points - 2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Nayanbhai,
+Please find attached here with Open points list. 
+Regards,
+Usha Shetty
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45071.55667311342</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NOWTEST SSL URL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dear Team,
+Please find below NOWTEST new URL with HTTPS.
+https://nowtest.skapsindia.com:8443/now/Main.jsp &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fnowtest.skapsindia.com%3A8443%2Fnow%2FMain.jsp&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C1e9872736eba420bfc0408db5cf4db9e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638205978963105616%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=1oxgBu0620nhnc2GWW%2BryAc4MWUWZD9J8YbIQM1PNaA%3D&amp;reserved=0&gt; 
+Old link will be not accessible after this Wednesday.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45071.69716225695</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction and Task Updates</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello All,
+Please join this call to have a word with Nayanbhai.
+Regards,
+Usha Shetty
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_NmNkNmI1ZjItMWU5OS00MzQ3LWI4MGUtOTYzZmU1ODMzMjZm%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%252243afb71d-3387-416c-8a6f-168dfb5f1cda%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76c97a0703a84c1310bf08db5d111f94%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638206100344234085%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=qsuutnSpCBDcPVS7xVHcGrVEWZP0Nu%2FbJegv%2FWJfYG0%3D&amp;reserved=0&gt;  
+Meeting ID: 421 869 090 790 
+Passcode: y8hAxe 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76c97a0703a84c1310bf08db5d111f94%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638206100344234085%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=xkJF6bdzY18yZaE2fuRlM%2BsdFyf6Z85ah3b%2F7u%2BGhIE%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76c97a0703a84c1310bf08db5d111f94%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638206100344234085%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=ex9BkyJzFoVC7kgHtULoTB2GPObcwXN5%2Fm6SzWUtDHY%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76c97a0703a84c1310bf08db5d111f94%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638206100344234085%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=08u8ynViQp9WQWt72eVS1V019Hwb7rwM5wrxHFQ6VEE%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D43afb71d-3387-416c-8a6f-168dfb5f1cda%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_NmNkNmI1ZjItMWU5OS00MzQ3LWI4MGUtOTYzZmU1ODMzMjZm%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76c97a0703a84c1310bf08db5d111f94%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638206100344234085%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=yCm4I1cOkWah667epCUPixZygCiEg4ep6ZDvTJydWoE%3D&amp;reserved=0&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45077.33213079861</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Welcome to your digest</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Welcome to your new digest from Microsoft Viva
+Work smarter with Microsoft Viva Insights
+Explore insights on your work patterns in areas including focus, wellbeing, network, and collaboration.
+Personal and private to you
+Only you can view personal data and insights based on work patterns in emails, meetings, calls, and chats. Viva Insights is designed to protect your privacy. 
+Get insights that help you improve
+Understand and improve your work patterns by reflecting on how you work. 
+Don't want this email? Unsubscribe here. &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=Welcome_117736c7-1fd5-47b2-9075-b04d704608ad&amp;Feature=EmailUnsubscribeFeedback&gt; 
+Get started
+Check your to-dos
+Click Viva Insights in the Outlook ribbon to see your to-dos and more
+Find out where your time goes
+Go to your dashboard &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=Welcome_964ac7ab-675b-4fd4-b0a7-0ac257f39ea4&gt;  to see who's in your network, how much you work after hours, and more
+Stay tuned for digest summaries
+Reflect regularly each time you receive the Digest
+Configure settings
+Update your settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=Welcome_36f0aa17-a0ae-4703-bee4-71c765e44ce1&gt;  for a more personalized experience
+Uniquely yours
+Microsoft Viva Insights is personalized for you using everyday work activities like email and meetings. Viva Insights keeps your data private and personal.
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=Welcome_0ad33dff-d1f7-4a12-b3bf-575e441a1fa7&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=Welcome_2dcc69a5-670d-4608-a969-6aec85653f4f&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=Welcome_c982efbd-c183-495b-8bab-26762e88a016&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45077.17377793982</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Re: Task List</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parevi,
+Please update sheet with target finish date. Let everyone know to update &amp; put this sheet on share mode with google sheet or Microsoft platform. 
+Get Outlook for iOS &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2Fo0ukef&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cadcb0a093f9a43d3b91908db615ed43e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638210832140964784%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=plbmXw1nEOJ%2FMfVFk3sIyH7k48ecS3PpHfRhrwkaSvU%3D&amp;reserved=0&gt; 
+________________________________
+From: Parevi Damani &lt;parevi.damani@skapsindia.com&gt;
+Sent: Tuesday, May 30, 2023 7:29:31 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: Task List 
+Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45076.70836482639</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Task List</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45077.459836875</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at Unit-II Plant</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find attached the introduction letter of Mr. Aviral Kumar Gupta and who has joined the Nonwoven and Fiber line Department at SKAPS Industries.
+He is deputed at Mundra office and is under training.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45077.46322660879</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at Anjani Plant</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find attached the introduction letter of Mr. Sunil Kumar Gupta and who has joined the PET Department at SKAPS Industries.
+He is deputed at Mundra office and is under training.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45077.47845434028</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Parevi Damani shared the folder "TaskList_23" with you.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 	
+Parevi Damani shared a folder with you 
+Here's the folder that Parevi Damani shared with you. 
+&lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2F%3Af%3A%2Fp%2Fparevid%2FEoBVhFG4ooxEtW8zkEg-YfYBfQcCszuH7LWSLLxV0drhWA%3Fe%3D5%253aXUIKy6%26at%3D9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76d9294428d74e80dce408db619c1e8d%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638211095381979289%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=Qzg9lPHQTYBygxk2M%2FdtkdPJomlDVJIIDguOt9DnmCE%3D&amp;reserved=0&gt; 
+ 	TaskList_23 	
+ 	This link only works for the direct recipients of this message. 	
+Open &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2F%3Af%3A%2Fp%2Fparevid%2FEoBVhFG4ooxEtW8zkEg-YfYBfQcCszuH7LWSLLxV0drhWA%3Fe%3D5%253aXUIKy6%26at%3D9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76d9294428d74e80dce408db619c1e8d%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638211095381979289%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=Qzg9lPHQTYBygxk2M%2FdtkdPJomlDVJIIDguOt9DnmCE%3D&amp;reserved=0&gt; 	
+ 	Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwestindiar-notifyp.svc.ms%2Fapi%2Fv2%2Ftracking%2Fmethod%2FClick%3Fmi%3D9i5nykwYA0KqOXUWwHYDqw%26tc%3DPrivacyStatement%26cs1%3Dc82d47811e53b8a5d2df6a9741f7917cd69193e9f4c927d352b0b09586ce4cc6%26cs2%3De904d62807d7d8a08355e9a7a50afb8d836b2e5907b97e0fba743b3318254399%26ru%3Dhttps%253a%252f%252fprivacy.microsoft.com%252fprivacystatement%255c&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C76d9294428d74e80dce408db619c1e8d%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638211095382135503%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=U0OltbInMOAADbKnXqXe01cswsue5GGNRKXdZTp3gU8%3D&amp;reserved=0&gt; 	
+ &lt;https://westindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=9i5nykwYA0KqOXUWwHYDqw&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45077.73281818287</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RE: Task List</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good morning Nayan Bhai , 
+Yes bhai Updated with the Target Date and have shared the link too..
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com&gt; 
+Sent: 31 May 2023 04:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: Re: Task List
+Parevi,
+Please update sheet with target finish date. Let everyone know to update &amp; put this sheet on share mode with google sheet or Microsoft platform. 
+Get Outlook for iOS &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2Fo0ukef&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C1f8a8277002f4cb529fc08db61cf361b%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638211315151075680%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=L%2BQ693iku4ZoYHWpsQlKPisK%2FlDsR8Z8ekTA96zlLJw%3D&amp;reserved=0&gt; 
+________________________________
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Sent: Tuesday, May 30, 2023 7:29:31 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Task List 
+Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45078.43487361111</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at Anjani Plant</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find attached the introduction letter of Mr. Gaurav Suneja and who has joined the Fiber Glass Department at SKAPS Industries.
+He is deputed at Mundra office and is under training.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45082.18948356481</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Your digest email</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Discover trends in your work habits
+An in-depth look at your work patterns in the last four weeks
+Work smarter with Microsoft Viva Insights
+Explore insights on your work patterns in areas including focus, wellbeing, network, and collaboration.
+Personal and private to you
+Only you can view personal data and insights based on work patterns in emails, meetings, calls, and chats. Viva Insights is designed to protect your privacy. 
+Get insights that help you improve
+Understand and improve your work patterns by reflecting on how you work. 
+Don't want this email? Unsubscribe here. &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_4c017e81-0479-4e31-9410-4f77e1718da1&amp;Feature=EmailUnsubscribeFeedback&gt; 
+Explore your insights
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_7b241eb9-14b3-44b4-8161-59980f69e266&gt; 	
+27 days without quiet hours interruptions 
+Days with no significant collaboration outside your working hours
+0% Collaboration time 
+spent in meetings, emails, chats, and calls weekly
+What impacts your quiet hours
+Here's a breakdown of the activities that tend to impact your time outside of regular working hours.
+ 	 	Meetings 	75% 	
+ 	Emails 	25% 	
+ 	Chats and calls 	0% 	
+Explore more &lt;https://insights.viva.office.com/#/PersonalApp/Wellbeing/?Source=MonthlyDigest_b922a197-b1c4-4eae-9694-986d66c4dfab&gt; 	
+Take a deeper look
+Focus 
+100% Time available to focus in a typical week
+Network 
+1 Active collaborator you emailed, met, or chatted with at least a few times
+Learn more &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_021d1b42-fa85-43a6-b9fd-0d54f34c83f7&gt; 
+Get started
+Check your to-dos
+Click Viva Insights in the Outlook ribbon to see your to-dos and more
+Find out where your time goes
+Go to your dashboard &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_73dcb471-6185-4c46-9b96-40fe4b6fba2e&gt;  to see who's in your network, how much you work after hours, and more
+Stay tuned for digest summaries
+Reflect regularly each time you receive the Digest
+Configure settings
+Update your settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_2dcf15b7-13f7-4a20-94f1-cca59b1ac74e&gt;  for a more personalized experience
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_aa1f7986-8d24-41bb-9864-3a0898981bb2&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_0c9270f9-5c0d-43c6-b25a-e95848f58cf2&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_4a34ef3d-1bf7-4dc0-89b8-14e40f1518fc&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45082.71981783565</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D271181&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919296776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=0R0FygjAiDbucLEB8IHwr1gUST3ZEEN3TU42FDywlWw%3D&amp;reserved=0&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fview%3D5%26activityId%3D0fbbb7f9-66e1-45ca-9ffb-657cce37379c&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919296776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=VS3dV8%2BHaod4XZwMoXkz2yoEpfmrqsilZMdDe%2BKOtcY%3D&amp;reserved=0&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D857493&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919452989%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=CYIBpQqaCPTNSeMSE7ISA47y%2Fr9mCwpCkdOc70OFZ3Y%3D&amp;reserved=0&gt; . 	
+Recycle bin &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fview%3D5%26activityId%3D0fbbb7f9-66e1-45ca-9ffb-657cce37379c&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919452989%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=LEq1uDkkD3I123dq5Xl%2B8SURrG53JmUhrGsO2r3IiEs%3D&amp;reserved=0&gt; 	
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D271181&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919452989%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=B5msxAJDdcl75WLUlMhaaRWRC%2B52wUaMflOn1SRZmSc%3D&amp;reserved=0&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D521839&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919452989%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=FPHQBaTOvFY%2B4asS19h3Yk8OXMeNG8XGKJHklP5bGDQ%3D&amp;reserved=0&gt;  | Notification Settings &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fp%3D22&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cbf4b686dd6b34ab9c4ad08db65ba7fd9%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638215623919452989%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=uSZDZc2AT7eVs%2BwTWiDxX3fS%2BwkH91HDvgGEUZlmY0Y%3D&amp;reserved=0&gt; . 	
+ &lt;https://southindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=019LiC3xhUeW5CWT1QfZbQ&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45084.54317429398</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FW: SKAPS Circular|Time Management| Meetings/Discussions not more than 30 mins</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Team,
+Please go through the trailing mail.
+Thanks &amp; Regards,
+Hitesh
+From: Vibhuti Patel &lt;hr.india@skapsindia.com&gt; 
+Sent: 07 June 2023 12:57
+To: Vijay Patel &lt;vijay.patel@skapsindia.com&gt;; Haresh Patel &lt;haresh.patel@skapsindia.com&gt;; Amit Thakkar &lt;amit.thakkar@skaps.com&gt;; Rashmin Devmurari &lt;r.devmurari@skaps.com&gt;; Ashish Bharadwa &lt;ashish@skapsindia.com&gt;; Lalit Khatri &lt;lalit.khatri@skapsindia.com&gt;; Nisarg Vyas &lt;nisarg@skaps.com&gt;; Sumer &lt;sumersingh@skaps.com&gt;; William Almeida &lt;william@skapsindia.com&gt;; Tanmay Vyas &lt;tanmay@skaps.com&gt;; Roshani Gupta &lt;roshani@skapsindia.com&gt;; Mahendra Rajput &lt;mahendra@skapsindia.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Tejas Mashruwala &lt;tejas@skaps.com&gt;; Ramsinh Jadav &lt;ramsinh@skapsindia.com&gt;
+Subject: Re: SKAPS Circular|Time Management| Meetings/Discussions not more than 30 mins
+Dear All,
+A few additions to circular from Pareshbhai;
+Also, make sure if topic requires more time, then please continue or mentioning time will be an hour or whatever.  
+All must be prepared to stay on discussion.  
+Any, one to one discussion they can always discuss offline.
+Make sure all team across SKAPS are aware of this.
+Regards, 
+Vibhuti.
+________________________________
+From: Vibhuti Patel
+Sent: Wednesday, June 7, 2023 12:26 PM
+To: Vijay Patel &lt;vijay.patel@skapsindia.com &lt;mailto:vijay.patel@skapsindia.com&gt; &gt;; Haresh Patel &lt;haresh.patel@skapsindia.com &lt;mailto:haresh.patel@skapsindia.com&gt; &gt;; Amit Thakkar &lt;amit.thakkar@skaps.com &lt;mailto:amit.thakkar@skaps.com&gt; &gt;; Rashmin Devmurari &lt;r.devmurari@skaps.com &lt;mailto:r.devmurari@skaps.com&gt; &gt;; Ashish Bharadwa &lt;ashish@skapsindia.com &lt;mailto:ashish@skapsindia.com&gt; &gt;; Lalit Khatri &lt;lalit.khatri@skapsindia.com &lt;mailto:lalit.khatri@skapsindia.com&gt; &gt;; Nisarg Vyas &lt;nisarg@skaps.com &lt;mailto:nisarg@skaps.com&gt; &gt;; Sumer &lt;sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt; &gt;; William Almeida &lt;william@skapsindia.com &lt;mailto:william@skapsindia.com&gt; &gt;; Tanmay Vyas &lt;tanmay@skaps.com &lt;mailto:tanmay@skaps.com&gt; &gt;; Roshani Gupta &lt;roshani@skapsindia.com &lt;mailto:roshani@skapsindia.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Tejas Mashruwala &lt;tejas@skaps.com &lt;mailto:tejas@skaps.com&gt; &gt;; Ramsinh Jadav &lt;ramsinh@skapsindia.com &lt;mailto:ramsinh@skapsindia.com&gt; &gt;
+Cc: perry vyas &lt;perry@skaps.com &lt;mailto:perry@skaps.com&gt; &gt;
+Subject: SKAPS Circular|Time Management| Meetings/Discussions not more than 30 mins 
+Dear All,
+As a part of SKAPS Culture, we want to make sure that our meetings/ discussions are finished or concluded within 30 minutes of time frame.
+Let us practice this for effective Management working style to conclude critical point with better time management outcomes.
+Magic of 30-Minute Meetings| Time Management.
+The obvious advantages are obvious: everyone saves time and money.
+But here’s what’s less obvious: 
+*	Everyone shows up. 
+*	Everyone is on time. Every minute counts in a 30-minute conversation and they know it. The session gets started more quickly, as the relationship is built on doing good work, not small talk.
+*	People are much more likely to come prepared. There’s no time wasted on tangents and going-nowhere conversations. Everyone knows what they want to cover and has put some thought into it beforehand.
+*	The time pressure enhances focus and attention. People don’t focus on three issues; they tackle the single biggest opportunity or persistent, intractable obstacle. And they move on it. Focus leads to success.
+*	Everyone is more willing to be courageous. In a 30-minute session, one can’t waste time beating around the bush. They get to the point faster and earlier, interrupt more bravely, and ask more provocative questions.
+ Leaders at all levels need to be highly skilled at getting to the point quickly and efficiently. 
+Try it yourself. Transition some of your hour-long meetings to 30 minutes.
+As you do, consider these three steps as a way to make the 30 minutes most powerful:
+1.	Read what you need to beforehand and tell everyone else to do the same. Think about your questions and concerns. Decide what’s important to you and what you can let go of. Ask yourself the most important question: What outcome do you want?
+2.	Decide on the one thing that will make the biggest difference, and spend the 30 minutes on that issue, topic, or opportunity. Get started right on time, no matter who isn’t there, and be bold and disciplined at keeping the conversation on track. Let go of anything that is less critical. 
+3.	The sign of a great meeting isn’t the meeting itself. It’s what happens after that meeting. Save at least the last five minutes to summarize what you learned, articulate what was valuable, commit to what you are going to do as a result of the meeting, and clarify how you will assess the success of your next steps.
+Please pass on this message across SKAPS and your respective departments.
+Regards, 
+Vibhuti.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45085.29864012732</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RE: Task List</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Parevi,
+We can meet Friday this week or Mon/Tue next week around 7:00 pm IST. Let me know.
+Regards
+Nayan
+From: Parevi Damani &lt;parevi.damani@skapsindia.com&gt; 
+Sent: Wednesday, June 7, 2023 10:00 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Please find the attached Sheet for the Work Update.
+Let us know when we can schedule the next meeting.
+Regards
+Parevi Damani
+From: Parevi Damani 
+Sent: 31 May 2023 17:35
+To: 'Nayan Vyas' &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Yes bhai Updated with the Target Date and have shared the link too..
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt; 
+Sent: 31 May 2023 04:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Re: Task List
+Parevi,
+Please update sheet with target finish date. Let everyone know to update &amp; put this sheet on share mode with google sheet or Microsoft platform. 
+Get Outlook for iOS &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2Fo0ukef&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8b22aec62ea1459c5cd408db67c14463%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638217852021312637%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=F%2B8tFv%2BuRCBpnQq2obnneY6KDgQ4VVu%2FndZYZDLRDVg%3D&amp;reserved=0&gt; 
+________________________________
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Sent: Tuesday, May 30, 2023 7:29:31 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Task List 
+Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45084.81281756944</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RE: Task List</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good morning Nayan Bhai , 
+Please find the attached Sheet for the Work Update.
+Let us know when we can schedule the next meeting.
+Regards
+Parevi Damani
+From: Parevi Damani 
+Sent: 31 May 2023 17:35
+To: 'Nayan Vyas' &lt;nayan.vyas@skaps.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Yes bhai Updated with the Target Date and have shared the link too..
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt; 
+Sent: 31 May 2023 04:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Re: Task List
+Parevi,
+Please update sheet with target finish date. Let everyone know to update &amp; put this sheet on share mode with google sheet or Microsoft platform. 
+Get Outlook for iOS &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2Fo0ukef&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8fe86d6754694cfb31ef08db675f81bd%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638217432268120009%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=YGC%2Bgr5wzdTJvWb1tBxUSOeloQoxxyRnWJZ3fnfHvR8%3D&amp;reserved=0&gt; 
+________________________________
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Sent: Tuesday, May 30, 2023 7:29:31 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Task List 
+Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45085.68465516204</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TPM_JH_CLIT color code identification_ Lubrications Colour code should be same in all plants as per standard.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bhushan Bhamkar</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=DB4282526C874C5C8CE7C209DE032ECD-BHUSHAN.BHA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find the attached standard.
+This is to update you that as part of our TPM process we have done TPM - JH CLIT standard in the plant i.e. "5W2H format".
+It is one the key actions of the operator before starting his daily work. 
+CLIT means Cleaning, Lubrication, Inspection and Tightening, if it is done regularly with proper time then breakdown will be minimized.
+The purpose of using a CLIT standard, is to restore deterioration or malfunctions in our equipment which is easy to identify, easy to use and easy to perform.
+This will further encourage &amp; motivate operators to get engage in daily TPM activities.
+In addition to oil &amp; grease Identification of lubrication standard, please find the format for ( grade, method and color code).
+This can be put up on the equipment, it will help us to standardized the visualization across all equipment.   
+Below is the sample of the standard.
+Management recommended that every employee of the organization should follow the same CLIT color code standards in all the plants in SKAPS.
+Let me know If you have any doubt or need training.
+Thanks!
+Best Regards,
+Bhushan Bhamkar
+TPM Coordinator
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45085.61464284722</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RE: Task List</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good morning Nayan Bhai , 
+Yes we can schedule it on Monday 7:00 PM IST.
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com&gt; 
+Sent: 08 June 2023 07:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: RE: Task List
+Hi Parevi,
+We can meet Friday this week or Mon/Tue next week around 7:00 pm IST. Let me know.
+Regards
+Nayan
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: Wednesday, June 7, 2023 10:00 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Please find the attached Sheet for the Work Update.
+Let us know when we can schedule the next meeting.
+Regards
+Parevi Damani
+From: Parevi Damani 
+Sent: 31 May 2023 17:35
+To: 'Nayan Vyas' &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Yes bhai Updated with the Target Date and have shared the link too..
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt; 
+Sent: 31 May 2023 04:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Re: Task List
+Parevi,
+Please update sheet with target finish date. Let everyone know to update &amp; put this sheet on share mode with google sheet or Microsoft platform. 
+Get Outlook for iOS &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2Fo0ukef&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C5dd5be5c510c4d72cb3308db6800d77e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218125047574360%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=d2wzk2ygL2IWit3fCucV8y0XyhnoXaYUfIh5OrPz7hE%3D&amp;reserved=0&gt; 
+________________________________
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Sent: Tuesday, May 30, 2023 7:29:31 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Task List 
+Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45085.83505331018</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RE: Task List</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please schedule meeting on Monday at 7 pm IST.
+Thanks
+Nayan
+From: Parevi Damani &lt;parevi.damani@skapsindia.com&gt; 
+Sent: Thursday, June 8, 2023 5:15 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Yes we can schedule it on Monday 7:00 PM IST.
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt; 
+Sent: 08 June 2023 07:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: RE: Task List
+Hi Parevi,
+We can meet Friday this week or Mon/Tue next week around 7:00 pm IST. Let me know.
+Regards
+Nayan
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: Wednesday, June 7, 2023 10:00 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Please find the attached Sheet for the Work Update.
+Let us know when we can schedule the next meeting.
+Regards
+Parevi Damani
+From: Parevi Damani 
+Sent: 31 May 2023 17:35
+To: 'Nayan Vyas' &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: RE: Task List
+Good morning Nayan Bhai , 
+Yes bhai Updated with the Target Date and have shared the link too..
+Regards
+Parevi Damani
+From: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt; 
+Sent: 31 May 2023 04:10
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Re: Task List
+Parevi,
+Please update sheet with target finish date. Let everyone know to update &amp; put this sheet on share mode with google sheet or Microsoft platform. 
+Get Outlook for iOS &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2Fo0ukef&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C95e87d0cc62d42a31a9308db682d2e1c%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218315483553199%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=sSX6Wl5TJxHd3bH%2BYgaHmvgwaSUEdTwZgXC4SxIIBOc%3D&amp;reserved=0&gt; 
+________________________________
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Sent: Tuesday, May 30, 2023 7:29:31 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: Task List 
+Good morning Nayan Bhai , 
+Please find the attached Sheet of the Task List of all the Members as discussed.
+Regards
+Parevi Damani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45086.41558599537</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Meeting with Nayan Bhai about Work Update</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_MTI5YWQzMDktOTg2NS00MzVhLTg4YTUtZjI2Yjg3ZmNjMGI1%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%25227d0a8a27-59a4-4483-a304-46320cd70c60%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C4170e1d5b99f45332a2708db68a1f73a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218817062234330%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=GUTL%2BiYVTld4jUfeP5MkwpZ%2Fv2nb4%2BsTHGjkdO%2BLTDI%3D&amp;reserved=0&gt;  
+Meeting ID: 474 565 178 272 
+Passcode: AYLM9Z 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C4170e1d5b99f45332a2708db68a1f73a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218817062234330%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=SuQeIPKybnAx3z4TeVffopC9%2BB1t%2F9oebrB30CHKLLI%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C4170e1d5b99f45332a2708db68a1f73a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218817062234330%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=Jgbq7gsDtscJ7mZqe0GGIDlYRLBH0Uco7g7Mrcf%2Fhjo%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C4170e1d5b99f45332a2708db68a1f73a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218817062234330%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=AHMEbuaCJ%2FShiMVB0q%2Ft9AA1MPpuKXFnVyWl9aHST6g%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D7d0a8a27-59a4-4483-a304-46320cd70c60%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_MTI5YWQzMDktOTg2NS00MzVhLTg4YTUtZjI2Yjg3ZmNjMGI1%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C4170e1d5b99f45332a2708db68a1f73a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638218817062234330%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=gp9vKKWz75P0JAPL0yinGyRmU4efb2Zefya%2BgG8%2Fs0k%3D&amp;reserved=0&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45096.70011381945</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Connection Between Exercise and Work Performance
+Source - HBR
+Exercise isn't only good for your physical wellbeing — research finds that it can also vastly improve your ability to perform at work over time. If you're finding yourself sitting more and moving less, as many of us are in this era, how can you become more physically active throughout your workweek? Start by making exercise a daily habit. Remember that some activity is better than none — even just 20 minutes of moderately intense exercise, like a jog or short bike ride, can improve your quality of sleep and lead to cognitive benefits the next day. 
+The WHO recommends that adults ages 18 to 64 years engage in at least 2.5 hours of moderately intense or at least 1.25 hours of highly intense physical activity each week. Finally, make it fun! Try out different classes and routines until you discover the one that works for you. Maybe even consider making exercise a social activity you do with a friend or a partner. When you enjoy exercising, you'll be more likely to develop it as a consistent habit over time. 
+If you’re looking to up your game at work, make an effort to include more physical activity into your days. Your body will thank you, and your mind will reward you with more energy, better task focus, and improved creativity.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45096.67862953704</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Regarding MS Forms &amp; MS Power Automate</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Dipak Chelani</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5FC804E13C5A46B0956DE0AF686CEFC7-DIPAK.CHELA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+Please be available for today’s meeting.
+Thanks &amp; Regards,
+Dipak Chelani
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_OTBmMDRkYWQtOGY1YS00YTRlLThhNDItZmM4OWI0YjlkZjE4%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%25225ee6eafa-85d7-42f2-9469-d250b07ff257%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C2d5998f23f4a432d074908db70b28983%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638227684331250351%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=lF6B%2Bje0UcqSi5tuq33BRdvnWtqbocCnxGEy8tDYRZo%3D&amp;reserved=0&gt;  
+Meeting ID: 476 620 909 126 
+Passcode: jMLbea 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C2d5998f23f4a432d074908db70b28983%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638227684331406565%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=i527et9n3jKNgll2%2Frf7XT%2BMXk7zaJK0MLBnskB3W%2FM%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C2d5998f23f4a432d074908db70b28983%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638227684331406565%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=zIJB0uNGoFQda37GWG132NdgfVpu%2BVBB3e5L3JbPbsM%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C2d5998f23f4a432d074908db70b28983%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638227684331406565%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=H391QE%2BukWS85BXpj8n7UUs7WJ504muwsH3xPfcA%2FrE%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D5ee6eafa-85d7-42f2-9469-d250b07ff257%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_OTBmMDRkYWQtOGY1YS00YTRlLThhNDItZmM4OWI0YjlkZjE4%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C2d5998f23f4a432d074908db70b28983%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638227684331406565%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=lc%2BdV3X%2F700M1%2FksQqoWCNWM9dxCJjPdOJattjU2%2FAA%3D&amp;reserved=0&gt;  
+________________________________________________________________________________ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45096.15848333333</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Your digest email</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Discover trends in your work habits
+An in-depth look at your work patterns in the last four weeks
+Explore your insights
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_64436c53-ad8c-4720-9a7d-dda7ef11e800&gt; 	
+24 days without quiet hours interruptions 
+Days with no significant collaboration outside your working hours
+0% Collaboration time 
+spent in meetings, emails, chats, and calls weekly
+What impacts your quiet hours
+Here's a breakdown of the activities that tend to impact your time outside of regular working hours.
+ 	 	Meetings 	57% 	
+ 	Emails 	24% 	
+ 	Chats and calls 	19% 	
+Explore more &lt;https://insights.viva.office.com/#/PersonalApp/Wellbeing/?Source=MonthlyDigest_9fa9ec26-025d-4797-9f9e-9f2e710bfbcd&gt; 	
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_0920e485-e37c-4737-9b98-ada96d1b7bd3&amp;FocusOn=Focus&gt; 	
+From Headspace | 
+ 	3 mins 
+Start the day calm and focused 
+Breathe in. Breathe out. Try this short meditation from Headspace. 
+Start meditating &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_0920e485-e37c-4737-9b98-ada96d1b7bd3&amp;FocusOn=Focus&gt; 	
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_fa70578e-240f-4644-bcf3-49d2d6147cc4&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_315c471d-3402-4194-b25c-a336bcd77675&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_a9d26e85-fb03-4aac-a53f-03c296ac73df&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45092.63135363426</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Canceled: Team Discussion about Task Performed by each Member</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Everyone , 
+Meeting agenda: Discussing tasks and team members' progress.
+Purpose: To keep everyone informed about individual tasks.
+Monday: Discuss upcoming tasks and target date for each member.
+Thursday: Review completed tasks. If not finished, to understand the hurdles or difficulty facing by the member. If necessary, to escalate further.
+Benefits: Transparency, accountability, effective task allocation, and open communication.
+Remember to document tasks, progress, and changes for reference.
+Make sure to update the Task List/Open Points List before the meeting.
+Thanks and Regards
+Parevi Damani 
+________________________________________________________________________________
+Microsoft Teams meeting
+Join on your computer, mobile app or room device
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_N2JhOWEyOWQtMDA2Ni00OWE1LThiNTMtMzFiMzhmN2Q1ZWY3%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%25227d0a8a27-59a4-4483-a304-46320cd70c60%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C50467352d1b4473b7de508db6d845c6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638224187482067745%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=9MSV0CO832peKi%2Bt56eT2dLF1YE6odi6ATibEzTInXE%3D&amp;reserved=0&gt; 
+Meeting ID: 425 870 589 798 
+Passcode: mE3shf 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C50467352d1b4473b7de508db6d845c6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638224187482067745%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=XtXopoqvZMwNPxYGOBLoNMj2S7sXyhRTuqSxQ7NtuIs%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C50467352d1b4473b7de508db6d845c6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638224187482067745%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=YTSFbrw8S3%2B9la%2BbvblZgo2Wl4%2FBnxRfsHXuW%2FKvdkM%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C50467352d1b4473b7de508db6d845c6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638224187482067745%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=L3EbcivGRS3ViPtl2%2B2T3Zi%2BFi0une2GegCZP%2B17lLs%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D7d0a8a27-59a4-4483-a304-46320cd70c60%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_N2JhOWEyOWQtMDA2Ni00OWE1LThiNTMtMzFiMzhmN2Q1ZWY3%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C50467352d1b4473b7de508db6d845c6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638224187482067745%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=7AZfreD22%2BSDBmfpBUSmyjTog5mW7p98oIHRs2caPF0%3D&amp;reserved=0&gt; 
+________________________________________________________________________________
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45092.48132138889</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at Moraiya Plant</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find attached the introduction letter of Mr. Anup Harne and who has joined the TPM Department at SKAPS Industries.
+He is deputed at our Moraiya plant. He will be driving the TPM activities at Moraiya Plant, Savli Plant and Ahmedabad Office.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45092.47936265046</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at Ahmedabad Office</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find attached the introduction letter of Ms Jyoti Dhobi and Ms Deepika Pawar who has joined the Account &amp; Finance department at SKAPS Industries.
+She is deputed at Ahmedabad office and is under training.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45091.67439604166</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IT Infra down at mundra location</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+This is for your information; We have shut down the servers and other network equipment at our Mundra plant due to the cyclone. This will not affect the work of other places.
+But if something happens, please be prepared for manual work.
+We will let you know when we resume our operations and power up our servers and network.
+Regards,
+Sachin Patel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45090.49753577547</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Team Discussion about Task Performed by each Member</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Everyone , 
+Meeting agenda: Discussing tasks and team members' progress.
+Purpose: To keep everyone informed about individual tasks.
+Monday: Discuss upcoming tasks and target date for each member.
+Thursday: Review completed tasks. If not finished within target date, reassign to another member.
+Benefits: Transparency, accountability, effective task allocation, and open communication.
+Remember to document tasks, progress, and changes for reference.
+Make sure to update the Task List/Open Points List before the meeting.
+Thanks and Regards
+Parevi Damani 
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_N2JhOWEyOWQtMDA2Ni00OWE1LThiNTMtMzFiMzhmN2Q1ZWY3%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%25227d0a8a27-59a4-4483-a304-46320cd70c60%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C6afb4c3015c34dc9576508db6bd71cfd%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638222343867196776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=I81zjkXLWWfQ4VLoHWfwJu%2BilTRpYaLuHOxSDg%2B9peU%3D&amp;reserved=0&gt;  
+Meeting ID: 425 870 589 798 
+Passcode: mE3shf 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C6afb4c3015c34dc9576508db6bd71cfd%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638222343867196776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=MglqiS8F14OKIyVuBM1UPG%2FUF2EeyhH%2F8dAuk%2F8UsgE%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C6afb4c3015c34dc9576508db6bd71cfd%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638222343867196776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=IHPHBuvXl2sjaqUN%2FfHN9FtmET6ttw91EHJov58ws6Y%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C6afb4c3015c34dc9576508db6bd71cfd%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638222343867196776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=4asSnZ1PG1JL0otQsonW5dk53hq9Hpgd%2BbF1jidHKGk%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D7d0a8a27-59a4-4483-a304-46320cd70c60%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_N2JhOWEyOWQtMDA2Ni00OWE1LThiNTMtMzFiMzhmN2Q1ZWY3%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C6afb4c3015c34dc9576508db6bd71cfd%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638222343867196776%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=T2nvJ0UfsRq91b5ZyUiZXGWxZ01mVoNCujJQpAdL1Sg%3D&amp;reserved=0&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45089.83552299769</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Re. Python </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manish,
+Please share your contact information with Ravi. He will reach out to you regarding python and other technology that you have idea.
+Regards
+Nayan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45086.95276364584</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Re. Vacation</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’ll be on vacation from 6/26 to 7/3 and be back on office from 7/5.  Please call or text me during this time, if needed. I’ll be keep checking my emails whenever time permits.
+Regards
+Nayan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45096.91050922454</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Schema</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Dipak Chelani</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5FC804E13C5A46B0956DE0AF686CEFC7-DIPAK.CHELA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PFA.
+Thanks &amp; Regards,
+Dipak Chelani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45097.63586938658</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SKAPS Circular| Work travel</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please make a note that work travel to plants/office or outside kindly update the respective Plant/ Office Heads and HR with visit dates and agenda of travel.
+If any questions or concerns related to circular, please get back to me.
+Connect, Be SKAPS
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45097.77814315973</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bus Rout change as per Mundra municipality and Mundra police instruction</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+As per subject matter we have meeting with Mundra municipality and Mundra police that from 22-06-2023 (Thursday) Morning time all skaps bus will depart from Geeta hospital/Shreeji Nagar.
+Rout will Be : Geeta hospital/Shreeji Nagar  to king plaza to dak bungalow to Gadhasar ground to SKAPS plant same for return trip and last bus point will be Geeta hospital/Shreeji Nagar . 
+Sisumandir pickup/Drop point discontinue by Mundra municipality and Mundra police.
+This is Applicable for all industries and CFS.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45098.61260233796</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FW: Inspection Check List and CoA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Fyi.
+Regards,
+Usha Shetty
+From: Parvat Maliwad &lt;qa.pet@skapsindia.com&gt; 
+Sent: 21 June 2023 14:37
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: Inspection Check List and CoA
+Hello,
+As we discussed please find the attached Invoice, CoA, and all inspection Data that we have put in the CoA.
+Thanks,
+PARVAT
++91 7990106438
+ANJANI UDYOG PRIVATE LIMITED
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45099.42798175926</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Meeting with Nayan Bhai about Work Update</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_ZTQxZTMzMjktNTAwZS00YjdlLWI2NmQtOTMzYTI0NDA1MGYy%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%25227d0a8a27-59a4-4483-a304-46320cd70c60%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf566f5dcee7c47be40a208db72db9cde%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230059772431250%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=5zZoj6N8qGA53HhVpuNgJXwwRfq4Ukm4KkMWbHLULvc%3D&amp;reserved=0&gt;  
+Meeting ID: 418 298 202 018 
+Passcode: 3g7JJQ 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf566f5dcee7c47be40a208db72db9cde%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230059772431250%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=J%2B2NISLamtJwEexdc0WFlWLN3U2JdmF1Phfgg4CycsI%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf566f5dcee7c47be40a208db72db9cde%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230059772431250%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=fFF%2FgknvdSJP8yewn4klrmZOavCCyMjbGok3S2TV9Zg%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf566f5dcee7c47be40a208db72db9cde%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230059772431250%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=RIV9hUPqSquq2nuoLnh3owRftujDd4xlVlw6k8hRMIE%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D7d0a8a27-59a4-4483-a304-46320cd70c60%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_ZTQxZTMzMjktNTAwZS00YjdlLWI2NmQtOTMzYTI0NDA1MGYy%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf566f5dcee7c47be40a208db72db9cde%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230059772431250%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=JK7usPL47At1ZtTvyMBlyhF9ZFXlZXfRV3qTTBw6jV8%3D&amp;reserved=0&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45099.51448092593</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RE: Inspection Check List and CoA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Parvat  Maliwad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=A715905192D44158B6E4ADB543AFAE47-QA.PET</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi,
+Mechanical data
+From: Parvat Maliwad 
+Sent: Wednesday, June 21, 2023 2:37 PM
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: Inspection Check List and CoA
+Hello,
+As we discussed please find the attached Invoice, CoA, and all inspection Data that we have put in the CoA.
+Thanks,
+PARVAT
++91 7990106438
+ANJANI UDYOG PRIVATE LIMITED
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45099.63632400463</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vrushali Ghoghalia has shared a OneDrive for Business file with you. To view it, click the link below.
+Open Points_2023.xlsx &lt;https://ind01.safelinks.protection.outlook.com/ap/x-59584e83/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Flalitp_skapsindia_com%2FDocuments%2F6_Open%2520Points%2FOpen%2520Points_2023.xlsx%3Fweb%3D1&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cc0a60efdf5f84d8cef9d08db730585a6%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230239780891425%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=sp8U2C%2BY9fOo00B6UO0MEnLAjCup4EtD11CUV%2F886uE%3D&amp;reserved=0&gt; 
+Regards,
+Vrushali Ghoghalia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45101.98227498843</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sign in to your Microsoft Learn account for more features</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Learn</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Learn@mails.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Learn with interactive sandboxes, curated collections, and bookmarks.
+View as a webpage &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C10837927%26e%3DcDE9QHFHV3A1Snl4VHUtWXh0N1Z6TDlZcjU1YW9WcUhBS05mekJ5V3V1UmM4UWFZbGZCcFlldkRXcXFwN3pMRjd0ejE5YTlDRlRKQ29WS1NudUQtczZ0QzNoc1NIVDlYdWNOcTdmOUdOMG5raWhFVnlhNU4%26s%3DJhD8_ZLlEYlJzSOEZaIUsL3IAY6r0N5LpyCREj-Lyiw&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682106788%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=PL%2FFAQiQvgf8LG5jO6Ij0NepN6zgmAI0ZwiZD8fzYy4%3D&amp;reserved=0&gt; 
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C10837928&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682106788%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=HFcOHesaVH8qnx5QMpxf4cEfBTqrvwgpNM68OLd2xFI%3D&amp;reserved=0&gt; 	
+Microsoft Learn
+Make learning easier by signing in to Microsoft Learn 
+Build your knowledge more efficiently—sign in to your Microsoft Learn account. When you’re signed in, you gain access to these helpful features:
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_3_TryNewSkills_64x64?scl=1&amp;fmt=png-alpha&gt; 		Try new skills hands-on in free, interactive sandboxes. 
+Build real things in Azure—like virtual machines or functions—to practice what you learn at no cost. Also, most lessons don’t require any local installations.
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_3_DevelopYourOwn_64x64?scl=1&amp;fmt=png-alpha&gt; 		Develop your own learning plans with collections. 
+Create, manage, and share custom groups of modules. Plus, track your progress and access your collections in your profile.
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_3_BookmarkYourFavorite_64x64?scl=1&amp;fmt=png-alpha&gt; 		Bookmark your favorite modules and learning paths for quick access. 
+Find them easily in your profile and pick up where you left off—or revisit them whenever you like.
+Find the “Sign in” link next time you’re building skills on Microsoft Learn &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C10837929&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682106788%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=RWCGN9lnv15giPTgJYXAEHoDGTpoJpr%2FOer0gqK1TtQ%3D&amp;reserved=0&gt;  and streamline your education.
+Learn something new &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C1083792a&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682106788%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=XYLlj%2FnkfP7ueL%2BWSrWLMDlIXDgoWeaBpAGxPrGboxg%3D&amp;reserved=0&gt; 	
+If you need help or want to share feedback, contact us &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C1083792b&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682263008%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=7J935LSSJcWpuZjqjAyi3l%2F69lkyjTfM%2BdJuy%2BmELZc%3D&amp;reserved=0&gt; .
+This email was sent from an unmonitored inbox. 	
+Unsubscribe &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C10837ddb%26e%3DcDE9cHJvZmlsZS91bnN1YnNjcmliZT9DVElEPTAmRUNJRD1DNFczZk5odnpYMm96TXJqaHRWejBHa2kzU2RJMCUyQmlPMVpTc1pvQWwzM0klM0QmSz00YzJhNmRkYi1iYTkyLTRjZjYtYWNmOC0zYTQ1NGJhNTIyYTUmQ01JRD1JcmlzLS01NzUwNDI0MjAmRD02MzgyMzE2MjEwNDc2NTU0OTImUElEPTE4MDE1JlRJRD1iNDFkMzFmNC01MWFiLTRjOTctYjIwZS1iNzI2ZTkxNjNlYzc%26s%3Dt9z9glS7MwhvBQdA7BaxBOez4fKEs588xAPmrX8H5ik&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682263008%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=YBGMqeKp5ds5hEU8cgz6Hx5A54tWTZ5BO6mdCypxpx4%3D&amp;reserved=0&gt;  | Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh50cd831%2C10837925%2C10837e72&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8d75e19c06394ab097b108db74dd644e%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638232266682263008%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000%7C%7C%7C&amp;sdata=hSNa4b9Bi0YbMpiilqdvx%2BjE6MEWxW7QpjhN8Gjdpag%3D&amp;reserved=0&gt;  	
+Microsoft Corporation, One Microsoft Way, Redmond, WA 98052 
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/microsoft%20logo-1?scl=1&amp;fmt=png-alpha&gt; 	
+ &lt;https://t.mails.microsoft.com/r/?id=h50cd831,10837925,1&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45103.62523909722</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SKAPS Circular</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Any SKAPS employee and floor member child have passed last year exam in 10th std  and 12th std with 85% and above percentage please share result copy and respective employee ID to respective plant HR within 2 days.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45103.64126368055</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RE: SKAPS Co-Curricular Activity</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+As per our last survey many staff spouse had voted for computer training program, therefore SKAPS had started employee’s spouse and child ( Age above 10 year ) computer training program at below address. Many of the employee spouse and children have joined and if anyone further willing can join the class in below mentioned address after intimating to Mr. Ravirajsinh Jadeja.
+COURSE NAME 
+BASIC OF COMPUTER
+DURATION
+3 MONTHS 
+COURSE CONTENT
+NOTEPAD,WORDPAD,DESKTOP INFO.,
+WINDOWS FUNDAMENTALS,MS PAINT,MS
+WORD,MS EXCEL, MSPOWERPOINT,GUJARATI TYPING
+Address :
+FAME INSTITUE
+Above Bank of Baroda,
+Near LIC office,
+Mundra-Kutch
+Trainer Name : Umesh Sharma-9638955845     
+Documents required :
+Employee ID card
+Adharcard copy
+2 passport size photograph
+For, any further query feel free to contact HR team.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+From: Dhiren Varia &lt;dhiren.varia@skapsindia.com&gt; 
+Sent: 08 February 2023 18:25
+To: Dhiren Varia &lt;dhiren.varia@skapsindia.com&gt;
+Cc: Amit Thakkar &lt;amit.thakkar@skaps.com&gt;; Rashmin Devmurari &lt;r.devmurari@skaps.com&gt;; Ashish Bharadwa &lt;ashish@skapsindia.com&gt;; Vibhuti Patel &lt;hr.india@skapsindia.com&gt;; Rohit Patel &lt;rohit.patel@skapsindia.com&gt;; Ravirajsinh Jadeja &lt;raviraj.jadeja@skapsindia.com&gt;; Yagnik Gohel &lt;yagnik.gohel@skapsindia.com&gt;; Ajay Jadeja &lt;ajaysinh.jadeja@skapsindia.com&gt;
+Subject: SKAPS Co-Curricular Activity
+Dear All,
+This is to inform you that we have started SKAPS co-curricular activity for your wife and children (Child age should be 10+ Years) at our Anya plant location.
+We are planning to offer three courses, here is a list of courses.
+1.	Computer Class
+2.	Drawing Class
+3.	Dance Class
+The course will be conducted twice a week for 1 hour. 
+Request you all to select one course out of above mentioned courses and according to the majority of selection we shall start one course.
+Kindly fill in the below mentioned link for above mentioned course selection.
+Form Link: CO-CURRICULAR ACTIVITIES &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fdocs.google.com%2Fforms%2Fd%2Fe%2F1FAIpQLSfP29oVD8swFq2Rr5i8ZzlQuVAeQOpynIKfr3RAUBB4hBKsJA%2Fviewform%3Fvc%3D0%26c%3D0%26w%3D1%26flr%3D0%26usp%3Dmail_form_link&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cc5ab8bf355b24b3456db08db762b2d6d%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638233700048598800%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=n8AazozqOtCdvCnppqQmPOt5lsXrlBsMCBqRtk5kbWk%3D&amp;reserved=0&gt; 
+If any questions/concerns, feel free to connect plant HR team.
+Thanks &amp; Regards,
+Dhiren Varia
+HR Executive
+SKAPS Industries India Pvt .Ltd.
+CELL      : +91-9724328356
+E-Mail : dhiren.varia@skapsindia.com &lt;mailto:dhiren.varia@skapsindia.com&gt; 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45103.99171240741</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CAMS Update</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Dear All,
+This is just for your information, Still our JIO network down so we are shifted our VPN link to TATA backup link. 
+So, now all pending CAMS data transfered to NOW and also now CAMS working fine.
+So, please start your pending entry if you have any due to NOW balance or production order.
+Please pass this message to your team.
+Also, I appreciate your support during this trouble. 
+Thank you
+Regards,
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45104.51660033565</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dates distribution extra orders 2023-24 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Greetings of the day!!
+anyone who wants to order an extra Dates box (2 Kg) can provide their details on below attached link.
+Staff and Floor member orders can be placed from below mentioned link.
+The price will be approximately RS 220 per KG.
+Also, note that said quantity order amount will be deducted from your upcoming payroll.
+The link will automatedly deactivate on 30th June 2023 at 8 PM (IND)
+https://forms.office.com/r/NQmYLsY0G9 &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fforms.office.com%2Fr%2FNQmYLsY0G9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cb60ec21533af4b689f2608db76db439a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638234456340388621%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=WDtr%2BT2IotDp3RPjWBpIrsAnaW4YjaRlTb%2BlsKIIaik%3D&amp;reserved=0&gt;  
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45111.53804054398</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GUEST WIFI Network for Security</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Dear All,
+For enhance our network security, we have created one GUEST WIFI which is use for guest user as well as our employee which is authorized for use personal device (Phone and Laptop) on company network.
+We request you please connect your personal device on GUEST WIFI and forget our regular WIFI network.
+Guest or visitor must connect this GUEST WIFI only not our regular WIFI, only company device should be connected on our regular WIFI.
+We will only provide the GUEST WIFI password to authorized individuals who are currently using their personal device. So, please message me, Lilaji or Rohan for GUEST WIFI password.
+Please complete this activity by this Thursday, after that if we find any personal device on our regular company network, we will block that device and not allow it again.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45111.16488712963</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Get inspired with free training and documentation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Learn</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Learn@mails.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keep advancing your knowledge with Microsoft Learn and Microsoft Docs.
+View as a webpage &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956deb%26e%3DcDE9QG5hZTFxYkRwaGZnd2c4UTMyZDItTV9GcjV0NVdCT0dZNTd6Q2h1LVZlYWJGOFo3T1ZDZGc2aUZVa3RnMmZuSVcxMVR0UkcxRVhrdHN1LUh2X1dfNGpWU0IyeDJaRThSYXVfd2ZsX3oteGNkck5pQ2o%26s%3DuIXIX1rkwGKLBdZMG5HE204uZyanXBrUKA5rlQ3DCjY&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=ky2AtL%2FNpNh3U3Tn3T%2BszEloE0UWr3d8lKKj4LEEldM%3D&amp;reserved=0&gt; 
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956dec&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=TEvM5VOYLtG2PkcUwAAogb4zoOppgbLFX5hIO7NRd3A%3D&amp;reserved=0&gt; 	
+Microsoft Learn
+Spark your self-education 
+Here are four ways to use the free training and documentation available to you:
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_1_PickUpA_64x64?scl=1&amp;fmt=png-alpha&gt; 		Pick up a fresh topic. 
+See what’s new and popular on Microsoft Learn.
+Browse learning paths and modules ❯ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956ded&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=AxAM0ER%2Btx93Y4FAor%2FFuzeIQqOZUeCXBXkq5d%2Fqv0U%3D&amp;reserved=0&gt; 	
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_1_DiveIntoThe_64x64?scl=1&amp;fmt=png-alpha&gt; 		Dive into the details. 
+Explore quickstarts, tutorials, API references, and code examples.
+Visit Microsoft Docs ❯ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956dee&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=85KLdykg5Z17%2BKS1uAB1N0HGtURSFjPTpyE50aBcbAo%3D&amp;reserved=0&gt; 	
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_1_GetHelp_64x64?scl=1&amp;fmt=png-alpha&gt; 		Get help. 
+Find answers to questions about Microsoft Learn.
+See FAQs ❯ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956def&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=mVMTzULaG311i7bffMA%2FHDWBWaGGM5StR0KeoWYaXmo%3D&amp;reserved=0&gt; 	
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Icon_Skilling_Onb_Email_1_SaveYourProfile_64x64?scl=1&amp;fmt=png-alpha&gt; 		Get to know your profile. 
+Make it easier to access your modules in progress, bookmarks, and collections.
+Go to your profile ❯ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956df0&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=gwNj94uNJPi93hWDk%2BvRKL2p11sZvZ6mxRT4ek%2BkmRg%3D&amp;reserved=0&gt; 	
+If you need help or want to share feedback, contact us &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956df1&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=YzaOnnXTG4R8HL7dMc0bZakDIcwAacGdKQcrcTUBEjg%3D&amp;reserved=0&gt; .
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956df2&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=%2FbxdpqpNfE0dx4yXU6c0LD%2BmV%2Bknbj%2FnamitlzsgK5Y%3D&amp;reserved=0&gt; 		 &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956df3&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=plPY7Qy7GY6IzNsAnQBgcFcSIWF4Vzkbw8BOp0idkcI%3D&amp;reserved=0&gt; 		 &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956df4&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=0ySLXBM0d2MykeBN1tF0DaQFPxsal7ANoYn9X9O0CiY%3D&amp;reserved=0&gt; 	
+This email was sent from an unmonitored inbox. 
+Unsubscribe &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956ee4%26e%3DcDE9cHJvZmlsZS91bnN1YnNjcmliZT9DVElEPTAmRUNJRD0lMkJ0MXlSQWwyRk54TmN5TmN0RndHVkxpa1ozT0Fza2lhUXJPaUVvZks3JTJCYyUzRCZLPWQyMjJkYTczLTU1MDAtNGFlZS05NWVhLTViMTFiN2VjNmRiYiZDTUlEPUlyaXMtTVNMZWFybi01NzUwNDM1NDkmRD02MzgyMzg5MTU2MDc4NzE4OTkmUElEPTE4MDE1JlRJRD1iNDFkMzFmNC01MWFiLTRjOTctYjIwZS1iNzI2ZTkxNjNlYzc%26s%3DuuPP5mn68msDB9AJIqHWwXT-Z6WHKCPeOHQIZYDSwvg&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=JyWXOQM7UvXMo9jOFyXUC%2BPrVTCbxgppt2KE%2FMzkvMs%3D&amp;reserved=0&gt;  | Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh58038b7%2C11956de9%2C11956ee5&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cff57ae68bbe8415920e608db7c14ac1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638240200458104005%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=x4c5VsFngGiyoYxgk4QzdQ%2F%2BgD6vCzzWICARX6ZcA2E%3D&amp;reserved=0&gt;  	
+Microsoft Corporation, One Microsoft Way, Redmond, WA 98052 
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/microsoft%20logo-1?scl=1&amp;fmt=png-alpha&gt; 	
+ &lt;https://t.mails.microsoft.com/r/?id=h58038b7,11956de9,1&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45110.17067023148</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Your digest email</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Discover trends in your work habits
+An in-depth look at your work patterns in the last four weeks
+Explore your insights
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_b492aacc-bc9c-4275-8ff2-6b8225d4591f&gt; 	
+24 days without quiet hours interruptions 
+Days with no significant collaboration outside your working hours
+1% Collaboration time 
+spent in meetings, emails, chats, and calls weekly
+What are your meeting habits
+From 1 meeting you organized or attended in the last 4 weeks, here are your most common meeting habits.
+100% meetings during working hours
+100% meetings with Skype or Teams link
+100% with no emails or chats
+	Explore more &lt;https://insights.viva.office.com/#/PersonalApp/Productivity/?Source=MonthlyDigest_a7d926e0-18ac-4c72-bdd0-a04919315f36&amp;FocusOn=MeetingHabitsInsightsCard&gt; 	
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_38f3cffc-d63f-4c1a-873e-8cf175e7eec8&amp;FocusOn=LoFiTimes&gt; 	
+From Headspace | 
+ 	90 mins 
+Tune out distractions with Focus music 
+Try this concentration-boosting track from Headspace. 
+Start listening &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_38f3cffc-d63f-4c1a-873e-8cf175e7eec8&amp;FocusOn=LoFiTimes&gt; 	
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_5ab1b22d-e3d4-4bf0-9f60-ffaec0e32f53&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_427d0808-223e-4f75-b891-e31de23d9aba&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_85026ffe-d719-4586-b92e-f7e806c3bded&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45108.57610072917</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RE: Bus Rout change as per Mundra municipality and Mundra police instruction</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+As per trailing mail all SKAPS buses stops are restored to old stops and bus routes will be as below.
+Sisumandir to Shreeji nagar/Geeta hospital to Umiya nagar to king plaza to Dak bunglow to Gadhasar ground to SKAPS plant and the same route for return trips.
+Please contact undersigned for any clarification.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+From: Ravirajsinh Jadeja 
+Sent: 20 June 2023 18:40
+To: Ravirajsinh Jadeja &lt;raviraj.jadeja@skapsindia.com&gt;
+Cc: Amit Thakkar &lt;amit.thakkar@skaps.com&gt;; Rashmin Devmurari &lt;r.devmurari@skaps.com&gt;; Ashish Bharadwa &lt;ashish@skapsindia.com&gt;; Vibhuti Patel &lt;hr.india@skapsindia.com&gt;; Rohit Patel &lt;rohit.patel@skapsindia.com&gt;; Dhiren Varia &lt;dhiren.varia@skapsindia.com&gt;; Ajay Jadeja &lt;ajaysinh.jadeja@skapsindia.com&gt;; Yagnik Gohel &lt;yagnik.gohel@skapsindia.com&gt;
+Subject: Bus Rout change as per Mundra municipality and Mundra police instruction
+Dear All,
+As per subject matter we have meeting with Mundra municipality and Mundra police that from 22-06-2023 (Thursday) Morning time all skaps bus will depart from Geeta hospital/Shreeji Nagar.
+Rout will Be : Geeta hospital/Shreeji Nagar  to king plaza to dak bungalow to Gadhasar ground to SKAPS plant same for return trip and last bus point will be Geeta hospital/Shreeji Nagar . 
+Sisumandir pickup/Drop point discontinue by Mundra municipality and Mundra police.
+This is Applicable for all industries and CFS.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45107.71176103009</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia shared "Training" with you.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 	
+Vrushali Ghoghalia shared a file with you 
+Here's the document that Vrushali Ghoghalia shared with you. 
+&lt;https://ind01.safelinks.protection.outlook.com/ap/x-59584e83/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2F%3Ax%3A%2Fp%2Fvrushalig%2FER1-X1RMvc9EgpXCj8NLUZYBQkvgk2JTf7mesFRcpgZbUQ%3Fe%3D4%253aTCNomi%26at%3D9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C26267a54cc5e4aef5f1b08db795e067c%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638237216958488880%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=ZDsa9t8WDp8Kpc2T4bLjQDFF0chtXvy5u4HoNzegksg%3D&amp;reserved=0&gt; 
+ 	Training 	
+ 	This link only works for the direct recipients of this message. 	
+Open &lt;https://ind01.safelinks.protection.outlook.com/ap/x-59584e83/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2F%3Ax%3A%2Fp%2Fvrushalig%2FER1-X1RMvc9EgpXCj8NLUZYBQkvgk2JTf7mesFRcpgZbUQ%3Fe%3D4%253aTCNomi%26at%3D9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C26267a54cc5e4aef5f1b08db795e067c%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638237216958488880%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=ZDsa9t8WDp8Kpc2T4bLjQDFF0chtXvy5u4HoNzegksg%3D&amp;reserved=0&gt; 	
+ 	Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fcentralindiar-notifyp.svc.ms%2Fapi%2Fv2%2Ftracking%2Fmethod%2FClick%3Fmi%3DhBhBPMiTZkC2aC7tkHxlpQ%26tc%3DPrivacyStatement%26cs1%3Dc82d47811e53b8a5d2df6a9741f7917cd69193e9f4c927d352b0b09586ce4cc6%26cs2%3De904d62807d7d8a08355e9a7a50afb8d836b2e5907b97e0fba743b3318254399%26ru%3Dhttps%253a%252f%252fprivacy.microsoft.com%252fprivacystatement%255c&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C26267a54cc5e4aef5f1b08db795e067c%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638237216958488880%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=VmPt%2Bs9gVuBH9DD6DkdIy3ZxlJlH0MtdigSppsim69Y%3D&amp;reserved=0&gt; 	
+ &lt;https://centralindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=hBhBPMiTZkC2aC7tkHxlpQ&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45107.48257913195</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at ANJANI Plant</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dhiren Varia</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=286AE3B0FEE6400092EA1DCAD8C1FC01-DHIREN.VARI</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please see attached introduction letter for Ms. Yashika K. Lal and who has joined PET Lab Department at SKAPS Industries.
+She is deputed at the Mundra office and is under training.
+Thanks &amp; Regards,
+Dhiren Varia
+HR Executive
+SKAPS Industries India Pvt .Ltd.
+CELL      : +91-9724328356
+E-Mail : dhiren.varia@skapsindia.com &lt;mailto:dhiren.varia@skapsindia.com&gt; 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45107.47858391204</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Accepted: NODE REACT PROJECT INTRODUCTION</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t> 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45107.47415822917</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Introduction - New Joinee at SKAPS Plant</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dhiren Varia</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=286AE3B0FEE6400092EA1DCAD8C1FC01-DHIREN.VARI</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please see attached introduction letter for Mr. Jay Shah and who has joined Loom Department at SKAPS Industries.
+He is deputed at the Mundra office and is under training.
+Thanks &amp; Regards,
+Dhiren Varia
+HR Executive
+SKAPS Industries India Pvt .Ltd.
+CELL      : +91-9724328356
+E-Mail : dhiren.varia@skapsindia.com &lt;mailto:dhiren.varia@skapsindia.com&gt; 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45107.46839736111</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Accepted: NODE REACT PROJECT INTRODUCTION</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t> 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45105.86464606482</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Welcome to Power BI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Power BI</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PowerBI@info.microsoftemail.com</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Find the right resources | Welcome to Microsoft Power BI | You can now connect to your organisation's data, create personalised reports and unlock insights. Whether you're looking to use or build reports, find useful resources to help you get started.
+ &lt;https://click.info.microsoftemail.com/open.aspx?ffcb10-ff3715757465-fec7167274670374-fe3311737364047f731773-ffc912-fec8167274670274-ff5d10757c&amp;d=510004&amp;bmt=0&gt; 
+Find the right resources | View in browser &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fview.info.microsoftemail.com%2F%3Fqs%3D97b09172b28cdf3b3054bed29ab7c2bf5382cd044bf6018a498348cbb8c571df1289f2571c1df61074c4cf692120d50a56aeafae1ba2e9d8104a36dceb08e9863fcb3342a195d3dc&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049234924%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=n0NO89atyr4%2F2QT4sSAZywJ0iDIn2cMZ3wYRwwDOx5Y%3D&amp;reserved=0&gt;  
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b580881174dd8c8245d53fe6fda2f67327ae30842c01e24759d1e8944584f2e1602fff6f07e1a83fd85c14d53372e9626e68c6f48c8f212a123eecb3c&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049234924%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=j9yYRD4MNNTcNHkQZwrrwDi3IQSxaEm03lUlYnA72RU%3D&amp;reserved=0&gt; 	 
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/logo_PowerBI.png&gt; 	
+Welcome to Microsoft Power BI
+You can now connect to your organisation's data, create personalised reports and unlock insights. Whether you're looking to use or build reports, find useful resources to help you get started. 
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_H3_Email1_V1.jpg&gt; 	
+Want to view reports?
+Visit Power BI and get the most out of your experience with these useful tips.
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_S13_Checkmark.png&gt; 	Find your reports, apps and dashboards. Learn more &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b5808811716dba9c90cfe5b4b3fe51b99fbc17051fac3394d477a39e07fb20064b876a58af0fa9d8440c9de86f89ac78b97a1a821e254a946c5de7ada&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049234924%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=wdE%2BZLjpjjGXg1BVdup1TqspGrDUDCKvD7OCO1ANO3o%3D&amp;reserved=0&gt;  
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_S13_Checkmark.png&gt; 	Don't have any reports yet? Get samples &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b5808811749566707bfc1cd361ac00f3bbe63e0519ead881c3ad185b9ce77a26961243fee05f526d0b107b022231318e970309df81b6a1438cbbe2a5d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049234924%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=L7V3JeOi0NkU3bEv%2B%2B%2Fwk2ujmuEbVTaksPmD60Ohf8k%3D&amp;reserved=0&gt;  
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_S13_Checkmark.png&gt; 	Learn to use filters, bookmarks and other useful features. Read more &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b580881170f337a740a5fe0cec080d9eeb9f56cad5818f91de78df9cef4af8b03e7a934bf14a97a8abefb26634c15b59fff11f16e162a32f829ae9e46&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049234924%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=kia7gXvDxPOg%2FSs0gVs3V3q3YyZVl5x0Y8hApW50800%3D&amp;reserved=0&gt;  
+	Go to Power BI &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b58088117b6850de0b153241f957b038b99c4b0cde8ac9023e967693a210ca8a2f122a695adde9e70866ef6d9c430a47b041b17d48a06101f3e7f6c77&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049234924%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=BQjJp89DBtzY5%2BO2UwHElABDlclCwPW9nRaVp9FjG1E%3D&amp;reserved=0&gt; 	 
+Ready to build reports?
+Download the Power BI desktop app and create reports with these next steps.
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_S13_Checkmark.png&gt; 	Connect to your data sources. Learn more &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b5808811759ea4ceefc424c8b1ecd72564561adb24aabf5c7e7d41ef292e35eb39ae766f8ab52a0f1ff9531ec130ecdec48ff4b2624c580d430212e64&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=0kNVqpioRTgSFwfrpGh4xu3KnXTpRKemuBOLZ7tqZoY%3D&amp;reserved=0&gt;  
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_S13_Checkmark.png&gt; 	Add visualisations to your report. Explore visuals &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b5808811736a496fcd700d5f7301329771176caa4c70813b44a4fcc6b2c36ba6610e4ca311b3293bffeb6397e3488dd7eb0f01a75596490bd39933076&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=0Ky0C2BN%2BWUM8%2BckFP7%2FwoU3J4z5PnnKoJdX9C84Xq8%3D&amp;reserved=0&gt;  
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/575492_S13_Checkmark.png&gt; 	Publish your report to the Power BI service. Share your report &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b58088117247ef5caaf9dc0f9e52a8a856feea8392c073b95514a19663b4c90b16fd554a9bbd412b014393d84ff8b91bdfb70c7873c8aaa9925efad06&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=CVCXolmhGlaisqMFZINJTCXxJG4817TT8HDtdgGh9E0%3D&amp;reserved=0&gt;  
+	Download Power BI &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b580881177c45ede28329d2bbfe7acee33628edb771cf078d191843dc37d7e030161a05e4153c1a3f5a81b0d96da087911cac94fa2b66c1de09fa4235&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=OkDdYehdm9FO4EnMYH9kGeGEd0J3jO6xHZrivpcvtvY%3D&amp;reserved=0&gt; 	 
+Get a better understanding of Power BI
+Power BI is made up of visualisations, reports, dashboards, apps and datasets. Get an overview of the concepts behind these building blocks. 
+Learn more &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b580881173beebc379a223e13fbeac5bea94e7ce5850eb92643f1571d7612808f5eea96eb5d63a58973d21fc9890d1216888a589385f2195f34f227f0&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=ber6rP%2FgNPKEV1EUSqswlaE2UmHPK59KZtPbbsW9J54%3D&amp;reserved=0&gt;  	 &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/icon_arrow_coreblue.png&gt; 	
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/icon_utility_support.png&gt; 	
+Want to learn to use Power BI? Explore learning modules &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b580881175f2ebdc3fa0ed553e9308b142d1f9adad9282925b3f10a2083eaf482845392fb5501681134c2a1d133f3ac9918417a7306316237883872ad&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=9HVDm9v4gXCjx2WBMurEw%2FGB%2BXG5hu4SyyIK4OGoRmc%3D&amp;reserved=0&gt;  
+Have a question? Visit the Power BI Community &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b58088117d3ad0ed21bbb92e5d32eeb06db7fa315980191b9f6fa9d4782998aeb41994a848bad9ff9b3b91cb4300a779dbbe47a5cf29503c900e56e68&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=0s1rwgCMtXdMC12aTIyqcs5woLCAmD7dH1ci0YK1tWs%3D&amp;reserved=0&gt;  
+You’re receiving this email because you recently started using Microsoft Power BI. 
+This email was sent from an unmonitored mailbox. 
+Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclick.info.microsoftemail.com%2F%3Fqs%3D5a4e1f5b580881170a4df50f5719e824be34beaea999fd77fd659a9d3c9b319aebef6eb17c76986d38c50eb6d9c0f65661d83665cc948e48c10a26efec1340c0&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C596d002d4a4347d3745908db77ea71c2%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638235621049391149%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=1QkUUhe%2FGu7KdbxOql9NnTkWKwEHM%2BcRtb4WkA6i388%3D&amp;reserved=0&gt;  
+Microsoft Corporation, One Microsoft Way, Redmond, WA 98052 USA 
+ &lt;https://image.info.microsoftemail.com/lib/fe3311737364047f731773/m/1/logo_microsoft.png&gt; 	</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45114.59668694445</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45114.6081197801</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Congratulations on new born !!!!</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dhiren Varia</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=286AE3B0FEE6400092EA1DCAD8C1FC01-DHIREN.VARI</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Bipinbhai,
+Congratulations to you and your family on the arrival of your baby boy !! Wishing you all the best for a long, happy and healthy life together!
+Happy to hear both the mother and baby are doing good.
+Thanks &amp; Regards,
+Dhiren Varia
+HR Executive
+SKAPS Industries India Pvt .Ltd.
+CELL      : +91-9724328356
+E-Mail : dhiren.varia@skapsindia.com &lt;mailto:dhiren.varia@skapsindia.com&gt; 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>45114.61123631945</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DELISTED HOSPITAL-ICICI LOMBARD</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Greetings of the day!!
+Kindly find attached herewith the deleted hospital names list received from ICICI Lombard.
+Please check the hospital name list before going to the Hospital for any medical treatment for reimbursement and caseless claim process.
+ICICI Lombard can’t consider the claim and reimbursement process  and will go into rejection of claims if you visit any of the deleted /rejected list of hospitals for treatment.
+@Gujarat State Hospital is Highlighted for your perusal.
+If any query related to list please contact MS. NISHTHA AND MR SUMIT M:( 9537514514/8155060575).
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>45117.83729174769</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WatchGuard VPN User for Manish</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ravi Shah</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ravi.shah@skaps.com</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Deep,
+Can you please create a VPN user for Manish so he can access our network?
+Best,
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskaps.com%2F&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C888933769ea94a7154d508db8152ee40%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638245965416347786%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=dU0mPh%2BqZJAqmtjEOMWlAnl5YXNi75LvEkdj0faz0O0%3D&amp;reserved=0&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>45118.7359975463</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RE: WatchGuard VPN User for Manish</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Deep Patel</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>deep.patel@skaps.com</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">User-created: skaps\manish
+I will be sharing password to him.
+From: Ravi Shah &lt;ravi.shah@skaps.com&gt; 
+Sent: Monday, July 10, 2023 10:35 AM
+To: Deep Patel &lt;deep.patel@skaps.com&gt;; manish.verma@skapsindia.com
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;
+Subject: WatchGuard VPN User for Manish
+Hello Deep,
+Can you please create a VPN user for Manish so he can access our network?
+Best,
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskaps.com%2F&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Ca28b57db682d480b673b08db8207b7cc%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638246741899455254%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=%2FCS5KdJP%2Bn8pd840aV6jK9NABtimbDsOtkL8tAqcXt8%3D&amp;reserved=0&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>45119.48147894676</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accepted: Certificate of  Analysis Demo </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t> 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>45119.63221851852</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accepted: Certificate of  Analysis Demo </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>45119.70819269676</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D271181&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=SfhJ%2FdDL%2Fr7TiCKRUjnwyvt9KRjQcnyP6GFGLcS2K9Q%3D&amp;reserved=0&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fview%3D5%26activityId%3D132d9867-5651-4b6f-a692-ac3e239db857&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=lmKxkFQ3hCr%2FDZdBTb%2FHk6CboSJVi2mppmIL5Tvvz4c%3D&amp;reserved=0&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D857493&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=LcyqrvrHuoYVT%2F8yDQ8UQlSz43%2FIytISs9Wk1JRljro%3D&amp;reserved=0&gt; . 	
+Recycle bin &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fview%3D5%26activityId%3D132d9867-5651-4b6f-a692-ac3e239db857&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=lmKxkFQ3hCr%2FDZdBTb%2FHk6CboSJVi2mppmIL5Tvvz4c%3D&amp;reserved=0&gt; 	
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D271181&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=SfhJ%2FdDL%2Fr7TiCKRUjnwyvt9KRjQcnyP6GFGLcS2K9Q%3D&amp;reserved=0&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D521839&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=Im3rciA5ecx%2BYKaF8pqLg9jJiuiRB0TzaIIsRpLBoYA%3D&amp;reserved=0&gt;  | Notification Settings &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fp%3D22&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C52ea344ebe4b4dcff7c708db82cb4a6f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247581875070261%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=ulk5yhOn6WlDCsCDNEj3EBCsxUiu8HrG14lK0mq5MgI%3D&amp;reserved=0&gt; . 	
+ &lt;https://centralindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=0PHGFwUL7Uyo9o4-o1eeYA&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>45119.76827357639</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>RE: WatchGuard VPN User for Manish</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Deep Patel</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>deep.patel@skaps.com</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have already share the password yesterday and also forward the email today.
+From: Manish Verma &lt;manish.verma@skapsindia.com&gt; 
+Sent: Wednesday, July 12, 2023 8:12 AM
+To: Deep Patel &lt;deep.patel@skaps.com&gt;
+Cc: Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;
+Subject: RE: WatchGuard VPN User for Manish
+Can you please share the password to access VPN?
+From: Deep Patel &lt;deep.patel@skaps.com &lt;mailto:deep.patel@skaps.com&gt; &gt; 
+Sent: 11 July 2023 17:40
+To: Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;
+Subject: RE: WatchGuard VPN User for Manish
+User-created: skaps\manish
+I will be sharing password to him.
+From: Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt; 
+Sent: Monday, July 10, 2023 10:35 AM
+To: Deep Patel &lt;deep.patel@skaps.com &lt;mailto:deep.patel@skaps.com&gt; &gt;; manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; 
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;
+Subject: WatchGuard VPN User for Manish
+Hello Deep,
+Can you please create a VPN user for Manish so he can access our network?
+Best,
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskaps.com%2F&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C58f05fd3997e447e489d08db82d714ba%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638247633785933839%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=gDED6vWSAiID86T0ZfqVYLeJM3bJJ3%2BGeI1e2j4W5Vs%3D&amp;reserved=0&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>45119.76453791666</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FW: user id</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Deep Patel</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>deep.patel@skaps.com</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+From: Deep Patel 
+Sent: Tuesday, July 11, 2023 8:10 AM
+To: manish.verma@skapsindia.com
+Subject: user id
+Password : Skaps.mv@2023 &lt;mailto:Skaps.mv@2023&gt; !
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>45119.84132487269</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accepted: Certificate of  Analysis Demo </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ravi Shah</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ravi.shah@skaps.com</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>45120.53478725695</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>45121.41744847222</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D271181&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=1LljQtNyFVpQJ8fbCDHpZUISN0v%2FA0TeSxD88DGiplA%3D&amp;reserved=0&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fview%3D5%26activityId%3Db17d252b-0351-4f2d-a180-92c085b1cb12&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=PbgQUAdQfmxEXPFr%2BuuTXKDQo10dFa9CqP647rM7kkA%3D&amp;reserved=0&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D857493&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=EPQr4pXThZTQxnW%2FITsgFlk27h3DjtHPUXS1WF2H%2BUs%3D&amp;reserved=0&gt; . 	
+Recycle bin &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fview%3D5%26activityId%3Db17d252b-0351-4f2d-a180-92c085b1cb12&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=PbgQUAdQfmxEXPFr%2BuuTXKDQo10dFa9CqP647rM7kkA%3D&amp;reserved=0&gt; 	
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D271181&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=1LljQtNyFVpQJ8fbCDHpZUISN0v%2FA0TeSxD88DGiplA%3D&amp;reserved=0&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgo.microsoft.com%2Ffwlink%2F%3FLinkID%3D521839&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=Tvk5e%2BIOwtnZaOO6eopsgm0B80v%2FP8Qc3K3qRrhTKzk%3D&amp;reserved=0&gt;  | Notification Settings &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Fmanishv_skapsindia_com%2F_layouts%2F15%2Fonedrive.aspx%3Fp%3D22&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C94939ea7d39248b3750b08db84232204%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638249058672782669%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=s449US4KbnC7q3VvG4sDQsxU5rQYlSPpWvooCCWWbt4%3D&amp;reserved=0&gt; . 	
+ &lt;https://westindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=90pW9E2wNkiU5TIwiU86LQ&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>45124.18175885417</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Your digest email</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Discover trends in your work habits
+An in-depth look at your work patterns in the last four weeks
+Explore your insights
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_de35dae2-ddb4-4f0c-bd04-c80e4a12170c&gt; 	
+25 days without quiet hours interruptions 
+Days with no significant collaboration outside your working hours
+1% Collaboration time 
+spent in meetings, emails, chats, and calls weekly
+What are your meeting habits
+From 3 meetings you organized or attended in the last 4 weeks, here are your most common meeting habits.
+100% did not overlap with other meetings
+100% meetings with Skype or Teams link
+100% with no emails or chats
+	Explore more &lt;https://insights.viva.office.com/#/PersonalApp/Productivity/?Source=MonthlyDigest_f6f01a75-504a-4b68-94f8-28bf53625421&amp;FocusOn=MeetingHabitsInsightsCard&gt; 	
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_1f32dac4-a0e8-41af-ac93-2953f58451c4&amp;FocusOn=Focus&gt; 	
+From Headspace | 
+ 	3 mins 
+Start the day calm and focused 
+Breathe in. Breathe out. Try this short meditation from Headspace. 
+Start meditating &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_1f32dac4-a0e8-41af-ac93-2953f58451c4&amp;FocusOn=Focus&gt; 	
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_27c32e52-4205-4812-a395-c4911941e7a0&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_203649b1-f131-4f29-9f02-6f248efe324f&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_ee8af2fa-5825-4f14-8b58-9f9bc9f04a1e&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>45125.6118871875</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>New joinee</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please see attached introduction letter, Mr. Kamlesh Prajapati has joined EXIM department.
+He is currently under training at Ahmedabad office.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>45131.45837887732</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>New joinee</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please see attached introduction letter, Mr. Dharmarajan Raman has joined Accounts department.
+He is currently under training at Chennai Plant.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>45131.72117321759</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Aviral Gupta shared "IIoT project" with you.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Aviral Gupta</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=1FF9D869CEED457694BFA3FEB3CF74AF-D459F43E-A4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 	
+Aviral Gupta shared a file with you 
+Here's the document that Aviral Gupta shared with you. 
+&lt;https://ind01.safelinks.protection.outlook.com/ap/p-59584e83/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2F%3Ap%3A%2Fr%2Fpersonal%2Faviralg_skapsindia_com%2FDocuments%2FDesktop%2FTo%2520be%2520deleted%2FIIoT%2520project.pptx%3Fd%3Dwf672e66f5a5648578b3ddd1f4ed6ff23%26e%3D4%253a6d2be05eb21548d49209c75b9257ba4b%26at%3D9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf5f177516b134f1e046208db8c3be490%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638257961090804754%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=vd8YpNuegUP0v8kUy332rSYv6%2Bz5xzYP6fWEvUh5KhU%3D&amp;reserved=0&gt; 
+ 	IIoT project 	
+ 	This link only works for the direct recipients of this message. 	
+Open &lt;https://ind01.safelinks.protection.outlook.com/ap/p-59584e83/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2F%3Ap%3A%2Fr%2Fpersonal%2Faviralg_skapsindia_com%2FDocuments%2FDesktop%2FTo%2520be%2520deleted%2FIIoT%2520project.pptx%3Fd%3Dwf672e66f5a5648578b3ddd1f4ed6ff23%26e%3D4%253a6d2be05eb21548d49209c75b9257ba4b%26at%3D9&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf5f177516b134f1e046208db8c3be490%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638257961090804754%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=vd8YpNuegUP0v8kUy332rSYv6%2Bz5xzYP6fWEvUh5KhU%3D&amp;reserved=0&gt; 	
+ 	Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fprivacy.microsoft.com%2Fprivacystatement%2F&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cf5f177516b134f1e046208db8c3be490%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638257961090804754%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=%2BzEARiIkjX4sP2C8BeRSIFAniTWdAOc%2FHzHQcpA1Mys%3D&amp;reserved=0&gt; 	
+ &lt;https://centralindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=RhbYR6zPxE-JY7ULw-2nag&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>45131.80956613426</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Regarding Vacation.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Parevi Damani</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=284D5AA3CB814E178A32E943F7DCBD04-PAREVI.DAMA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Hello , 
+This email is to inform you all that I will be out of India for Vacation from 1st August 2023 to 4th September 2023.
+Regards 
+Parevi Damani</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>45132.83781061343</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>See what your peers are learning about</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Learn</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Learn@mails.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Find out what’s trending on Microsoft Learn.
+View as a webpage &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a00%26e%3DcDE9QHc3RWJDNjdCZHlVeFhMTzUxc0hESVI5cWJNXzhtOG9iZ1laamtaSzJIQ2pZUTh3VnJ3Ry13THBzVl94OGpnM0dNWUxjRVhkWGc3NnN4REFQd2loRFFKNnYyWkJuMHZBMXJwQ1g1VlhXRDRfaFFZWUY%26s%3D41N_BR8yzapeHdL-L8vwadLO5GlXTs2fIQW823uEEOY&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865426833%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=W16nmL4PAtdITp46mqdQ3OikuLqEUVwTS%2F3CUj8fgfs%3D&amp;reserved=0&gt; 
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a01&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865426833%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=PDC988fVzOlqzR1LfIzyzFylA8CGG41p0uC5o3fmRpU%3D&amp;reserved=0&gt; 	
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/MS_Learn_Photo_Hero_Skilling_Onb_Email_2_Knowledge_660x180?scl=1&amp;fmt=png-alpha&gt; 	
+Microsoft Learn
+Keep seeking new knowledge 
+See which Microsoft Learn paths and modules are getting the most attention from learners like you—plus our own favorites. And, be sure to check back each week for new learning content.
+See what’s trending &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a02&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865426833%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=5oM1Z0G%2Fstx8eurz9BxBNaZgpOPDnTRavXch8FzBJWA%3D&amp;reserved=0&gt; 	
+If you need help or want to share feedback, contact us &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a03&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865426833%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=hdNtIab02I%2FqrCXt2DICWv6xZxlTu%2BWmYzJV56raS7c%3D&amp;reserved=0&gt; .
+ &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a04&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865426833%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=oRHU7g7oBohRSGZVESmkrF%2FNXLbUfRZ2uDWI8iZ%2FJH8%3D&amp;reserved=0&gt; 		 &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a05&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865426833%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=zGxniAznh3SiuuJJ1EpAObrgAYjJp9dwmnv%2F5mEMpbs%3D&amp;reserved=0&gt; 		 &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a06&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865583065%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=pYJP%2BVMN22ifK8fezV%2FuTaMu%2B%2FklJ1N5VSs%2F2Qoxxrw%3D&amp;reserved=0&gt; 	
+This email was sent from an unmonitored inbox. 	
+Unsubscribe &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a24%26e%3DcDE9cHJvZmlsZS91bnN1YnNjcmliZT9DVElEPTAmRUNJRD1YNzgwUzlHaFJQZXZXdlE5cUZGYUVmd3BPekZQM095WGVtVnhlWWIlMkZxQlUlM0QmSz1jMTcxYzRlOS1mYTdjLTQyMDgtYTQwMi0yZGUxMWUyYjNkZmYmQ01JRD1JcmlzLU1TTGVhcm4tNTc1MDQzNTUzJkQ9NjM4MjU1NjE0ODc4NTAyNDgzJlBJRD0xODAxNSZUSUQ9YjQxZDMxZjQtNTFhYi00Yzk3LWIyMGUtYjcyNmU5MTYzZWM3%26s%3DIf15RfHNk7Lu1hmZDQDZneB0ZVbqq4NqMhawrPqvYZ8&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865583065%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=seKaRnnk%2BoBNQ3NpPlrP4N2GD7zJHOFenDmDnbz4bz8%3D&amp;reserved=0&gt;  | Privacy Statement &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Ft.mails.microsoft.com%2Fr%2F%3Fid%3Dh68547af%2C13c539fe%2C13c53a25&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C7e934df9e3a145a51e9408db8d1c854f%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638258925865583065%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=pqlA1ZhzmPKY%2FM5TX32sT%2Bz0m7rWiCqLVaRSlT7P%2FvU%3D&amp;reserved=0&gt;  	
+Microsoft Corporation, One Microsoft Way, Redmond, WA 98052 
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/microsoft%20logo-1?scl=1&amp;fmt=png-alpha&gt; 	
+ &lt;https://t.mails.microsoft.com/r/?id=h68547af,13c539fe,1&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>45132.97040984953</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Re. Today's meeting</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi,
+I’m so sorry for not able to attend today’s meeting at last moment. I had some unexpected call and have to attend. Please schedule for tomorrow.
+Regards
+Nayan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>45133.55124341435</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internal Forms Discussion </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Dipak Chelani</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5FC804E13C5A46B0956DE0AF686CEFC7-DIPAK.CHELA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://ind01.safelinks.protection.outlook.com/ap/t-59584e83/?url=https%3A%2F%2Fteams.microsoft.com%2Fl%2Fmeetup-join%2F19%253ameeting_ZjRlYjJiNjItMjVmMy00ZTI3LTk0ZDgtMjI1MjE0MzQ3OWVi%2540thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%2522429df98a-d4fd-48a4-8b20-f2518a5357ff%2522%252c%2522Oid%2522%253a%25225ee6eafa-85d7-42f2-9469-d250b07ff257%2522%257d&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8edbe034a9da4d912c1f08db8dac0a1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638259542270375786%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=N3KOgL10gxvFX4lqRKqAedwjS8qhKb8eUPXyeeuPiM0%3D&amp;reserved=0&gt;  
+Meeting ID: 460 432 983 026 
+Passcode: 6T7qAd 
+Download Teams &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fen-us%2Fmicrosoft-teams%2Fdownload-app&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8edbe034a9da4d912c1f08db8dac0a1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638259542270375786%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=NLn%2Bs3%2F55k4bL1qMK6baNqT1Fg764ZWpLeohDYxGSVo%3D&amp;reserved=0&gt;  | Join on the web &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.microsoft.com%2Fmicrosoft-teams%2Fjoin-a-meeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8edbe034a9da4d912c1f08db8dac0a1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638259542270375786%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=RZzkKqxB8voNu9IjXqJMCL6Z0OAhXeInPukVIbIzFAI%3D&amp;reserved=0&gt; 
+Learn More &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Faka.ms%2FJoinTeamsMeeting&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8edbe034a9da4d912c1f08db8dac0a1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638259542270375786%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=dtb7Olr0lkyV6tpZ%2BaXMvHUBJphcuX7T%2BxFCk%2Bh%2FdyQ%3D&amp;reserved=0&gt;  | Meeting options &lt;https://ind01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fteams.microsoft.com%2FmeetingOptions%2F%3ForganizerId%3D5ee6eafa-85d7-42f2-9469-d250b07ff257%26tenantId%3D429df98a-d4fd-48a4-8b20-f2518a5357ff%26threadId%3D19_meeting_ZjRlYjJiNjItMjVmMy00ZTI3LTk0ZDgtMjI1MjE0MzQ3OWVi%40thread.v2%26messageId%3D0%26language%3Den-US&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7C8edbe034a9da4d912c1f08db8dac0a1a%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638259542270375786%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=YaCAJrKoTtj1spQA5HgZw1fMNqqidm5xW4t09zwbDQ4%3D&amp;reserved=0&gt;  
+________________________________________________________________________________ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>45134.41072253473</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello , 
+Please find the attached Doc about the training given on 21th of July for the U1 &amp; U2 Plant.
+Topics Included : Creating EQB and GB for Default Parameters.
+Regards,
+Vrushali Ghoghalia
+From: Parevi Damani &lt;parevi.damani@skapsindia.com&gt; 
+Sent: 13 July 2023 12:50
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>45134.44448777778</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pfa.
+Regards,
+Vrushali Ghoghalia
+From: Vrushali Ghoghalia 
+Sent: 27 July 2023 09:51
+To: Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 21th of July for the U1 &amp; U2 Plant.
+Topics Included : Creating EQB and GB for Default Parameters.
+Regards,
+Vrushali Ghoghalia
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: 13 July 2023 12:50
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>45134.7784678588</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FW: TPM Incentive Criteria @ AO</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Team,
+Please go through the trailing mail and attachment carefully.
+We’ll discuss it later.
+Regards,
+Hitesh
+From: Anup Harne &lt;anup.harne@skapsindia.com&gt; 
+Sent: 26 July 2023 22:05
+To: Vibhuti Patel &lt;hr.india@skapsindia.com&gt;; Rohit Patel &lt;rohit.patel@skapsindia.com&gt;; Pranav Shah &lt;pranav.shah@skapsindia.com&gt;; Roshani Gupta &lt;roshani@skapsindia.com&gt;; Mahendra Rajput &lt;mahendra@skapsindia.com&gt;; Dhaval Patel &lt;dhaval@skapsindia.com&gt;; Tanmay Vyas &lt;tanmay@skaps.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; William Almeida &lt;william@skapsindia.com&gt;
+Cc: nisarg.vyas@skaps.com; Sumer &lt;sumersingh@skaps.com&gt;
+Subject: TPM Incentive Criteria @ AO
+Dear Team,
+As a part of self-evaluation for TPM incentive for AO employees, we are going with self-evaluation based on certain criterion.
+As seen in the  trailed mail, team members need to evaluate them self through attached sheet and send it back to me.
+Kindly forward it to your respective team members. 
+ Same way you also need to do your evaluation. 
+Expected to get all the evaluation by 29th July.
+Thanking You
+With Regards
+Anup Harne
+TPM Coordinator
+________________________________
+From: Rikesh Mistry
+Sent: Monday, April 24, 2023 6:28 PM
+To: Vibhuti Patel &lt;hr.india@skapsindia.com &lt;mailto:hr.india@skapsindia.com&gt; &gt;; Rohit Patel &lt;rohit.patel@skapsindia.com &lt;mailto:rohit.patel@skapsindia.com&gt; &gt;; Pranav Shah &lt;pranav.shah@skapsindia.com &lt;mailto:pranav.shah@skapsindia.com&gt; &gt;; Roshani Gupta &lt;roshani@skapsindia.com &lt;mailto:roshani@skapsindia.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Dhaval Patel &lt;dhaval@skapsindia.com &lt;mailto:dhaval@skapsindia.com&gt; &gt;; Tanmay Vyas &lt;tanmay@skaps.com &lt;mailto:tanmay@skaps.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; William Almeida &lt;william@skapsindia.com &lt;mailto:william@skapsindia.com&gt; &gt;
+Cc: Nisarg Vyas &lt;nisarg.vyas@skaps.com &lt;mailto:nisarg.vyas@skaps.com&gt; &gt;; sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt;  &lt;sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt; &gt;
+Subject: TPM Incentive Criteria @ AO 
+Hello Team,
+As of now, we don’t have any measurable criteria for the TPM incentive at AO.
+But at initial stage we have set some criteria for measure the performance and on the basis of that we will release TPM incentive.
+In case of an any amendment in criteria, we will inform you.
+Sr. No.
+Criteria
+Weightage
+01
+KPI’s (Benchmark &amp; Targets are set)
+10%
+02
+Achievement of KPI’s
+15%
+03
+1 no. improvement project per quarter / per person (Completed Project)
+15%
+04
+Kaizen’s Idea Given / Suggested and implemented
+15%
+05
+Kaizen’s Team Member
+10%
+06
+No. of 5s audits conducted (Level-1,2 &amp; 3)
+*	L-1, by team members
+*	L-2, by HOD’s
+*	L-3, by HOD’s or Chairman (But it should be cross department audit)
+10%
+07
+No. of trainings given to team members
+10%
+08
+Involvement in TPM related activities
+05%
+09
+No. of OPL prepared
+10%
+NOTE :- Request you to please share this message with your team.
+Best Regards,
+Rikesh S. Mistry
+TPM Co-ordinator
+SKAPS Industries (I) Pvt. Ltd.
+Mundra – SEZ.
+M.No. +91 90332 52923 / 70162 96564
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45135.40934538194</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Re: Request to Unblock Websites</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">adding lilaji,
+Regards, 
+Sachin Patel
+________________________________
+From: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Sent: Friday, July 28, 2023 9:32 AM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: Request to Unblock Websites 
+Dear Sachin, Bhai                                                                                                                                                                                                                                                                                                             kindly allow the access of these category Website     https://mingw.en.softonic.com/               
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>45135.42909351852</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Re: Request to Unblock Websites</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Done.
+Regards,
+Sachin Patel
+________________________________
+From: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Sent: Friday, July 28, 2023 9:49 AM
+To: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: Re: Request to Unblock Websites 
+adding lilaji,
+Regards, 
+Sachin Patel
+________________________________
+From: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Sent: Friday, July 28, 2023 9:32 AM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: Request to Unblock Websites 
+Dear Sachin, Bhai                                                                                                                                                                                                                                                                                                             kindly allow the access of these category Website     https://mingw.en.softonic.com/               
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>45135.44225981482</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NOW login with AD</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Dear All,
+Today is the last day to test the NOW TEST login using Active Directory.
+So, if you facing any problem, please let me know.
+Next week we try to migrate NOW Live Login with Active Directory.
+Also, please prepare current login user list of NOW LIVE
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45135.57355479167</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Lalit Prajapati</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=C8FBD5D6E16045B4ABB9201B9AD96AD2-LALIT.PRAJA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello all,
+Please find the attached Doc about the training given on 28th of July for the Moraiya, Savli and AO SCM
+Topics Included : Creating Or Copy Product.
+Thanks &amp; Regards
+Lalit Prajapati
+Mo. : +91 7069050687
+Skype id :- live:lalitvprajapati38
+WebSite: www.skaps.com &lt;http://www.skaps.com/&gt; 
+Intercome :- 1279
+From: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt; 
+Sent: Thursday, July 27, 2023 09:51 AM
+To: Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 21th of July for the U1 &amp; U2 Plant.
+Topics Included : Creating EQB and GB for Default Parameters.
+Regards,
+Vrushali Ghoghalia
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: 13 July 2023 12:50
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45138.51306484954</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NOW Live login migration with Active Directory</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Dear All,
+Good morning!
+We are glad to announce to you that,
+We have successfully tested NOW login using Active Directory in the NOW test server.
+Now, we are moving this migration to our NOW Live, after this migration your laptop or system username and password will then be your NOW username and password.
+So, tomorrow (Tuesday) at 11 am we are down our NOW live server for migration purpose, and this activity will be completed before 2 pm.
+Purpose of this migration is to minimize more password. 
+Currently, we have migrated MS365 and NOW with Active Directory, and if possible we will be work for other application also.
+We will inform you once we completed our work, please do not continue follow up during this migration.
+Thank you in advance for your support and co-operation.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45138.7456984838</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Re: NOW Live login migration with Active Directory</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Dear All,
+Please make note that we change Down time for tomorrow activity. 
+We will take down tomorrow (Tuesday) at 5:30 PM for migrate NOW login with Active Directory.
+Note:- After this migration you may facing some rights or some process related problems. So, for that our team will help you and try to resolve your problem ASAP.
+Regards, 
+Sachin Patel
+________________________________
+From: Sachin Patel
+Sent: Monday, July 31, 2023 12:18 PM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Subject: NOW Live login migration with Active Directory 
+Dear All,
+Good morning!
+We are glad to announce to you that,
+We have successfully tested NOW login using Active Directory in the NOW test server.
+Now, we are moving this migration to our NOW Live, after this migration your laptop or system username and password will then be your NOW username and password.
+So, tomorrow (Tuesday) at 11 am we are down our NOW live server for migration purpose, and this activity will be completed before 2 pm.
+Purpose of this migration is to minimize more password. 
+Currently, we have migrated MS365 and NOW with Active Directory, and if possible we will be work for other application also.
+We will inform you once we completed our work, please do not continue follow up during this migration.
+Thank you in advance for your support and co-operation.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45138.74597621528</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Weekly Canteen Menu of All Units_31 July to 6 August 2023</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=447DAA66BA024CD4A623983D20B60CC1-YAGNIK.GOHE</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find an attached weekly menu of all units canteen for your perusal.
+Note: Please review your meal experience in the canteen review tablet.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45139.37209064815</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>New joinee</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find attached the introduction letter of Mr. Maheshwari Kalpesh Kumar and who has joined the  HR Department at SKAPS Industries.
+He is deputed at the Mundra office.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45140.17742922454</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RE: Open Points 2023 </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Harsh Shah</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>harsh.shah@skaps.com</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Please close point# 21, works as expected. (I have not checked whether I have rights to edit the file, but I would recommend 1 person to maintain it for consistency).
+Please split point# 30 for company 10 and 30 respectively. Issue for company 10 is still under observation while below is the issue described for company 30.
+Point# 30: Duplicate allocation on Sales Document upon changing Zone and Location.
+Please use below details to recreate the issue.
+Description of the issue: When any elements are allocated to a sales document (PT) and then Zone and Location are changed, those rolls are allocated again on that sales document. Please see the 1st and 2nd PT attachments for the difference in the total values. The BOL print outs do not show any discrepancies. Additionally, the shipping transactions also goes through perfectly.
+The only issue here is, because of the duplicate allocation showing on the PT, it is confusing the loader whether they have scanned additional material on the PT.
+Sales Order: 31C2300394
+Sales Order Line: 30
+Product: 60-HD-11-BLK-BLK-GRI-STD-24.00
+Release Number: 000000000007663
+PT Number: 301312300857
+Roll Numbers (Zone - Location): 3111006359 (LL - 08B), 3111006365 (LL - 08C), 3111014020 (G01 - Default)
+Allocation Number (Before changing Zone - Location): 000000000013585
+New Zone - Location: LL - 05A
+Allocation Number (After changing Zone - Location): 000000000013586
+Solution: Zone Location JSP should throw an error if the element or container element is already allocated on a sales document.!
+From: Shraddha Sharma &lt;shraddha@skapsindia.com&gt; 
+Sent: Tuesday, August 1, 2023 8:47 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh &lt;hitesh.rawat@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; Usha &lt;usha.shetty@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;
+Subject: Open Points 2023 
+Open Points_2023.xlsx &lt;https://skapsindia-my.sharepoint.com/:x:/r/personal/lalitp_skapsindia_com/Documents/6_Open%20Points/Open%20Points_2023.xlsx?d=w8c41f4f7d2284dcc9f7c14055b93bed5&amp;csf=1&amp;web=1&amp;e=3YjKoY&gt; 
+Regards
+Shraddha</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45139.80478045139</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Re: NOW Live login migration with Active Directory</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Dear All,
+Happy to announce that we have successfully migrated NOW Live with Active Directory. 
+The advantage of this migration is that now your system and NOW passwords are the same.
+If you change your system password, your NOW login password will also change.
+Attached presentation for your reference, from where you can find your system username.
+For Ashni User
+You can use skapsindia domain username and password to access NOW. If you don't remember password of skapsindia domain please send list so that we will change your password and provide to you.
+For that user who have common PC
+We have created your username and password, so contact below person they provide you your username and password.
+If you have any NOW login or rights related problem, please contact the person below. 
+Mundra User = Usha Shetty
+Savli, Moraiya, Ahmedabad Office, Chennai = Shraddha Sharma
+Thank you for your continued support and cooperation.
+Regards, 
+Sachin Patel
+________________________________
+From: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Sent: Monday, July 31, 2023 5:53 PM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Subject: Re: NOW Live login migration with Active Directory 
+Dear All,
+Please make note that we change Down time for tomorrow activity. 
+We will take down tomorrow (Tuesday) at 5:30 PM for migrate NOW login with Active Directory.
+Note:- After this migration you may facing some rights or some process related problems. So, for that our team will help you and try to resolve your problem ASAP.
+Regards, 
+Sachin Patel
+________________________________
+From: Sachin Patel
+Sent: Monday, July 31, 2023 12:18 PM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Subject: NOW Live login migration with Active Directory 
+Dear All,
+Good morning!
+We are glad to announce to you that,
+We have successfully tested NOW login using Active Directory in the NOW test server.
+Now, we are moving this migration to our NOW Live, after this migration your laptop or system username and password will then be your NOW username and password.
+So, tomorrow (Tuesday) at 11 am we are down our NOW live server for migration purpose, and this activity will be completed before 2 pm.
+Purpose of this migration is to minimize more password. 
+Currently, we have migrated MS365 and NOW with Active Directory, and if possible we will be work for other application also.
+We will inform you once we completed our work, please do not continue follow up during this migration.
+Thank you in advance for your support and co-operation.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45139.76190284723</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Open Points 2023 </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Shraddha Sharma</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=930EF8D29E074ACDA13E810E0E9DC5DD-SHRADDHA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Open Points_2023.xlsx &lt;https://skapsindia-my.sharepoint.com/:x:/r/personal/lalitp_skapsindia_com/Documents/6_Open%20Points/Open%20Points_2023.xlsx?d=w8c41f4f7d2284dcc9f7c14055b93bed5&amp;csf=1&amp;web=1&amp;e=3YjKoY&gt; 
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45139.69286541667</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TPM Incentive Criteria @ AO</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please Join on 12:15 IST.
+Regards,
+Hitesh
+_____________________________________________
+From: Hitesh Rawat 
+Sent: 27 July 2023 18:41
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Lilaji Rathod &lt;it.mundra@skapsindia.com&gt;; Rohan Goswami &lt;rohan.goswami@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;
+Subject: FW: TPM Incentive Criteria @ AO
+Dear Team,
+Please go through the trailing mail and attachment carefully.
+We’ll discuss it later.
+Regards,
+Hitesh
+From: Anup Harne &lt;anup.harne@skapsindia.com &lt;mailto:anup.harne@skapsindia.com&gt; &gt; 
+Sent: 26 July 2023 22:05
+To: Vibhuti Patel &lt;hr.india@skapsindia.com &lt;mailto:hr.india@skapsindia.com&gt; &gt;; Rohit Patel &lt;rohit.patel@skapsindia.com &lt;mailto:rohit.patel@skapsindia.com&gt; &gt;; Pranav Shah &lt;pranav.shah@skapsindia.com &lt;mailto:pranav.shah@skapsindia.com&gt; &gt;; Roshani Gupta &lt;roshani@skapsindia.com &lt;mailto:roshani@skapsindia.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Dhaval Patel &lt;dhaval@skapsindia.com &lt;mailto:dhaval@skapsindia.com&gt; &gt;; Tanmay Vyas &lt;tanmay@skaps.com &lt;mailto:tanmay@skaps.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; William Almeida &lt;william@skapsindia.com &lt;mailto:william@skapsindia.com&gt; &gt;
+Cc: nisarg.vyas@skaps.com &lt;mailto:nisarg.vyas@skaps.com&gt; ; Sumer &lt;sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt; &gt;
+Subject: TPM Incentive Criteria @ AO
+Dear Team,
+As a part of self-evaluation for TPM incentive for AO employees, we are going with self-evaluation based on certain criterion.
+As seen in the  trailed mail, team members need to evaluate them self through attached sheet and send it back to me.
+Kindly forward it to your respective team members. 
+ Same way you also need to do your evaluation. 
+Expected to get all the evaluation by 29th July.
+Thanking You
+With Regards
+Anup Harne
+TPM Coordinator
+________________________________
+From: Rikesh Mistry
+Sent: Monday, April 24, 2023 6:28 PM
+To: Vibhuti Patel &lt;hr.india@skapsindia.com &lt;mailto:hr.india@skapsindia.com&gt; &gt;; Rohit Patel &lt;rohit.patel@skapsindia.com &lt;mailto:rohit.patel@skapsindia.com&gt; &gt;; Pranav Shah &lt;pranav.shah@skapsindia.com &lt;mailto:pranav.shah@skapsindia.com&gt; &gt;; Roshani Gupta &lt;roshani@skapsindia.com &lt;mailto:roshani@skapsindia.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Dhaval Patel &lt;dhaval@skapsindia.com &lt;mailto:dhaval@skapsindia.com&gt; &gt;; Tanmay Vyas &lt;tanmay@skaps.com &lt;mailto:tanmay@skaps.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; William Almeida &lt;william@skapsindia.com &lt;mailto:william@skapsindia.com&gt; &gt;
+Cc: Nisarg Vyas &lt;nisarg.vyas@skaps.com &lt;mailto:nisarg.vyas@skaps.com&gt; &gt;; sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt;  &lt;sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt; &gt;
+Subject: TPM Incentive Criteria @ AO 
+Hello Team,
+As of now, we don’t have any measurable criteria for the TPM incentive at AO.
+But at initial stage we have set some criteria for measure the performance and on the basis of that we will release TPM incentive.
+In case of an any amendment in criteria, we will inform you.
+Sr. No.
+Criteria
+Weightage
+01
+KPI’s (Benchmark &amp; Targets are set)
+10%
+02
+Achievement of KPI’s
+15%
+03
+1 no. improvement project per quarter / per person (Completed Project)
+15%
+04
+Kaizen’s Idea Given / Suggested and implemented
+15%
+05
+Kaizen’s Team Member
+10%
+06
+No. of 5s audits conducted (Level-1,2 &amp; 3)
+*	L-1, by team members
+*	L-2, by HOD’s
+*	L-3, by HOD’s or Chairman (But it should be cross department audit)
+10%
+07
+No. of trainings given to team members
+10%
+08
+Involvement in TPM related activities
+05%
+09
+No. of OPL prepared
+10%
+NOTE :- Request you to please share this message with your team.
+Best Regards,
+Rikesh S. Mistry
+TPM Co-ordinator
+SKAPS Industries (I) Pvt. Ltd.
+Mundra – SEZ.
+M.No. +91 90332 52923 / 70162 96564
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_YjE2OGZlZGEtMmMyMi00MWNmLTgyNDctNWI5MGRhZGFiMWRh%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%229aca6dbf-29b1-48b9-9fee-026baac16314%22%7d&gt;  
+Meeting ID: 445 774 583 160 
+Passcode: 34nzuL 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=9aca6dbf-29b1-48b9-9fee-026baac16314&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_YjE2OGZlZGEtMmMyMi00MWNmLTgyNDctNWI5MGRhZGFiMWRh@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45140.60245688658</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>IIoT Project - Unit II</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Nayanbhai,
+Aviral Gupta from Unit II is planning to develop a temperature sensor application in which he needs Manish’s help in coding using Nodejs. Attached is the presentation of same from your reference. 
+Regards,
+Usha Shetty
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45140.62549976852</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Aware about spam Email</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Dear All,
+This is for your information, If you have received any email as per below screenshot then please delete email ASAP.
+This is a spam email.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45141.45149292824</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Congratulations on new born !!!!</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Dhiren Varia</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=286AE3B0FEE6400092EA1DCAD8C1FC01-DHIREN.VARI</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Deepbhai,
+Congratulations to you and your family on the arrival of your baby boy !! Wishing you all the best for a long, happy and healthy life together!
+Happy to hear both the mother and baby are doing good.
+SKAPS Family.
+Thanks &amp; Regards,
+Dhiren Varia
+HR Executive
+SKAPS Industries India Pvt .Ltd.
+CELL      : +91-9724328356
+E-Mail : dhiren.varia@skapsindia.com &lt;mailto:dhiren.varia@skapsindia.com&gt; 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45141.70400052083</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=da05d70e-abfb-496d-a541-ceebad2b3406&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://go.microsoft.com/fwlink/?LinkID=857493&gt; . 	
+Recycle bin &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=da05d70e-abfb-496d-a541-ceebad2b3406&gt; 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://go.microsoft.com/fwlink/?LinkID=521839&gt;  | Notification Settings &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?p=22&gt; . 	
+ &lt;https://centralindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=tMMNTke2qkCbmMfoBVPfCA&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45145.3788686574</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New Joinee </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Greetings of the day!!
+Please find attached the introduction letter of Mr Laxraj Zala and who has joined the Stitching Department at SKAPS Industries.
+He is deputed at the Mundra office.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45143.01431903935</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>RE: IIoT Project - Unit II</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I talked with Tej and he is going to talk with Amit &amp; his team. He already made this project in past.
+From: Usha Shetty &lt;usha.shetty@skapsindia.com&gt; 
+Sent: Wednesday, August 2, 2023 4:57 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh &lt;hitesh.rawat@skapsindia.com&gt;
+Cc: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: IIoT Project - Unit II
+Hello Nayanbhai,
+Aviral Gupta from Unit II is planning to develop a temperature sensor application in which he needs Manish’s help in coding using Nodejs. Attached is the presentation of same from your reference. 
+Regards,
+Usha Shetty
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undeliverable: test</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BN8NAM12FT093.mail.protection.outlook.com rejected your message to the following email addresses:
+manishverma88180@outlook.com (manishverma88180@outlook.com) &lt;mailto:manishverma88180@outlook.com&gt; 
+A communication failure occurred during the delivery of this message. Please try to resend the message later. If the problem continues, contact your email admin.
+BN8NAM12FT093.mail.protection.outlook.com gave this error:
+Requested action not taken: mailbox unavailable (S2017062302). 
+Diagnostic information for administrators:
+Generating server: PN0P287MB1037.INDP287.PROD.OUTLOOK.COM
+Total retry attempts: 1
+manishverma88180@outlook.com
+BN8NAM12FT093.mail.protection.outlook.com
+Remote server returned '550 5.5.0 Requested action not taken: mailbox unavailable (S2017062302).'
+Original message headers:
+ARC-Seal: i=1; a=rsa-sha256; s=arcselector9901; d=microsoft.com; cv=none;
+ b=UtvRPFTQnOG9w/u8YgCIdHav9BwAU8Uur3mOh6YJhI1DGrqQr5whGpLVnC+I+VfbDUxO/6jUXKzjqxvqcxs0sXdiygf87VjbDzFcxmMhBy8YGl2rbsCrujG9adAscolxL7AGrCcX0+ajq0nq2SUoMe+EYqS8SrNO981eNhVt8qeMTkQcvP8sAMd52+TvnIktj0XweIxu9nH1u7E3s3dxOlbV0ocbp/QIfA/ixDnoNbGufVIfvV8L9L/3lMQHhsCgUrcMGIdqNqAPLtu/A3OMf8VnXi931+UbhoEWl1+af08J4PqsCIa6VUUfwD55ptAzLknCStHITTjPy4zlh1ZNIQ==
+ARC-Message-Signature: i=1; a=rsa-sha256; c=relaxed/relaxed; d=microsoft.com;
+ s=arcselector9901;
+ h=From:Date:Subject:Message-ID:Content-Type:MIME-Version:X-MS-Exchange-AntiSpam-MessageData-ChunkCount:X-MS-Exchange-AntiSpam-MessageData-0:X-MS-Exchange-AntiSpam-MessageData-1;
+ bh=KkcIL25o/d5Mol/X3U6dTtctF5pQGOyHlN23IDRtEU0=;
+ b=PPvmB/GPz4+OnWc9sQM2S1D8iYig1gevCJJtU/xPEQ+CQQsOMXbEHw2gxWXaeQhxeV41c9BsS5wv8qcmEKl3WSgWoZOUAHUw75PrRY2Nnn/jrOAuBy9FyAUiI0hY/xpBFfGQKF4082DyP/Lm4+8p+Dh4DrVvbi84SuOTVdrOgj+74xOR7JDqhqrqkZgWTcUigcDoUY8Pl3Dj0BYRk8BswEpdlARe1UnOwICqOvaIQrzXs2DUSxYpOOdPu+UzGIZdIsSiBDD4/ZrDm2gOir1ub4Ymm8himDJB1FFiy3V49+nChb29fNUuH1cia8bDcGT2j7TGv906eJLl/ao+YC37Ng==
+ARC-Authentication-Results: i=1; mx.microsoft.com 1; spf=pass
+ smtp.mailfrom=skapsindia.com; dmarc=pass action=none
+ header.from=skapsindia.com; dkim=pass header.d=skapsindia.com; arc=none
+DKIM-Signature: v=1; a=rsa-sha256; c=relaxed/relaxed;
+ d=skapsindia.onmicrosoft.com; s=selector1-skapsindia-onmicrosoft-com;
+ h=From:Date:Subject:Message-ID:Content-Type:MIME-Version:X-MS-Exchange-SenderADCheck;
+ bh=KkcIL25o/d5Mol/X3U6dTtctF5pQGOyHlN23IDRtEU0=;
+ b=eJcQDDnIehRs2PEm8pXmF0rbwzjsq0BrF2PMX8rPO1nsMjrXP+1ISJs1i2YJCcojiw8gAMudrDqW0m8aTnOFt2DRQjm3YHKgjA4Zs16Ddx5lSFI0eAbapPrOnb2juX35dYXy0OGSekGXpUk9Xqw3lG/4FJaVuPdIiW6xuAh3YYCAWweMgkTOmHw0Qj5JzI5Vg6SZD22wk0OBv9bSTgyrOzXs937QvClfcfRRxgovZW67QzDPhGmMfMv3ImavHPJLVv/PmUOwSR4FI3liQwFbN1fEEIaRbMUGRBeUWaIfy99FXkF202NZJAFIFGB7tXTBybx74v1W7uCd4lg2lAbNjg==
+Received: from MA0P287MB0298.INDP287.PROD.OUTLOOK.COM (2603:1096:a01:b2::14)
+ by PN0P287MB1037.INDP287.PROD.OUTLOOK.COM (2603:1096:c01:144::11) with
+ Microsoft SMTP Server (version=TLS1_2,
+ cipher=TLS_ECDHE_RSA_WITH_AES_256_GCM_SHA384) id 15.20.6652.26; Mon, 7 Aug
+ 2023 06:31:31 +0000
+Received: from MA0P287MB0298.INDP287.PROD.OUTLOOK.COM
+ ([fe80::ac99:ad94:6e7c:48eb]) by MA0P287MB0298.INDP287.PROD.OUTLOOK.COM
+ ([fe80::ac99:ad94:6e7c:48eb%6]) with mapi id 15.20.6652.026; Mon, 7 Aug 2023
+ 06:31:31 +0000
+From: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+To: "manishverma88180@outlook.com" &lt;manishverma88180@outlook.com&gt;
+Subject: test
+Thread-Topic: test
+Thread-Index: AdnI+NGw0oarv0TBRVihgKHIaJyDrA==
+Date: Mon, 7 Aug 2023 06:31:31 +0000
+Message-ID: &lt;MA0P287MB0298B03C29F149FA7837DE32F70CA@MA0P287MB0298.INDP287.PROD.OUTLOOK.COM&gt;
+Accept-Language: en-US
+Content-Language: en-US
+X-MS-Has-Attach:
+X-MS-TNEF-Correlator:
+authentication-results: dkim=none (message not signed)
+ header.d=none;dmarc=none action=none header.from=skapsindia.com;
+x-ms-publictraffictype: Email
+x-ms-traffictypediagnostic: MA0P287MB0298:EE_|PN0P287MB1037:EE_
+x-ms-office365-filtering-correlation-id: dca3b345-8b51-4350-4e8d-08db970ff00d
+x-ms-exchange-senderadcheck: 1
+x-ms-exchange-antispam-relay: 0
+x-microsoft-antispam: BCL:0;
+x-microsoft-antispam-message-info: 45bkJUG5uvAFjE5Di8x9lzbqOa3uk9OCii9vtYwmQwzBMiCBrxOzFiPbyGwejqurhBN0++aRBGgTOXOQwEpzPbPs9pYnXQHTgp7C+iCOjNNjjVLjKMf4oCDlNgvP61EQ2/8q4qHZ5dEIwcLUtyWP1m8OVPRN+rafhH8qUa76KVTPuIr4TxY62jTV2D+aSIBwv6EtabHtk9AQgiZluPrUtwt9n9hqrsDylD2quOsxTXy18d6PZoha+e4VO6JqS9Nt+wrgpJ3RkVjOQouMMzL6lKIZyb+WXCkmMXd+u6V6IDPZMLq0fzHh0RTvL6THTxf019V0G9NMQeJwYrke9EOKv5na8vmiMMVMt5L7t4xuWEijSZ0CZreYhEpLc495bkfIvwh/HvAyKqFg99MrJbbFZRDc4UFDGRjo4FsW7JOyBds=
+x-forefront-antispam-report: CIP:255.255.255.255;CTRY:;LANG:en;SCL:1;SRV:;IPV:NLI;SFV:NSPM;H:MA0P287MB0298.INDP287.PROD.OUTLOOK.COM;PTR:;CAT:NONE;SFS:(13230028)(396003)(366004)(346002)(376002)(136003)(39850400004)(1800799003)(186006)(451199021)(3480700007)(55016003)(2906002)(6916009)(5660300002)(8936002)(7116003)(316002)(38070700005)(52536014)(44832011)(8676002)(76116006)(66946007)(64756008)(66446008)(66556008)(66476007)(38100700002)(86362001)(33656002)(478600001)(122000001)(558084003)(71200400001)(9686003)(7696005)(41300700001)(6506007)(26005)(220243001)(558944008);DIR:OUT;SFP:1101;
+x-ms-exchange-antispam-messagedata-chunkcount: 1
+x-ms-exchange-antispam-messagedata-0: =?us-ascii?Q?AQlqFVwIb/5rA8PF243FQ+uCO7bxbyL/GQ+wesCdDR0rmnkeUHTvjeKM2sWr?=
+ =?us-ascii?Q?VUjBuLBgrb20xi40TBJql30Z4nPLoXllAQqQxucKJJSo6oDl/IlLTgYqt0c4?=
+ =?us-ascii?Q?UAuaHx/Ir8OOHzWPkJjW7NEX+0Jd07psfhbUUS8SkYM/aH90KcdaIOPI5FE6?=
+ =?us-ascii?Q?e+kAC06pq7wBNTU0g6akxTr/6xGqLtTYVBwWundxm56oPeE+Des4NqJaXPMT?=
+ =?us-ascii?Q?K/j5kxPzub4QSu9xL/vquq0D8sXx0y0iNDbdKp6aKwFshKQchsxRJAPqmHqz?=
+ =?us-ascii?Q?9TSw2Y6kwSQx71MN0KASKxil+j/B8wqRml/cp9NyuPyz+/1Ovy4qzMjNlhfV?=
+ =?us-ascii?Q?j3w+wF/d7fiwQWgtxUy+s7eG7oFL5NWG0dSMt7Qv0hwBPjLWdwEQpumxJuVA?=
+ =?us-ascii?Q?Fh8RrPu0nmxH8e/uSndle4OSi5lRbExnBv6gjjpRxcIRqwWyrAjxf1qF58cs?=
+ =?us-ascii?Q?w5aHrVPzGA4mchxq6DNQYszxfCrJ0TdhM3x/pr4nzf24z7lUikQJkjCFy8+3?=
+ =?us-ascii?Q?qFJaoln6WuIV3qY+mXwLnfy8q4rRYxVeCNrmXgVJntb8y487/h4tM2Yu7LIG?=
+ =?us-ascii?Q?nkJloct2PKF9wzcnxtpX+MbCkOfHScldddC6HjwFvhph5qwEfgszlFLpUQ+c?=
+ =?us-ascii?Q?qXd0jGTqP4m5TklabpSYRT/peU/c0FOrlIQop5mdoUsge3HMDRBY5O6ECL2r?=
+ =?us-ascii?Q?9mfeIGhz/vebk72PJFsZ6hQPD0qSCfFTlYucnslqEZj01h8ullvurWzHHvIt?=
+ =?us-ascii?Q?jj7I/MFLE92x0vAKJc0zJyZAjS1cHZU1zszAqCvOyW+svJkrfbB6AuNc5mcr?=
+ =?us-ascii?Q?uBmOgQ91phM00APJy6ZsRP56Y6wRk9gjk6ttb8FP/AkvCR/k6RmbJoWQkrnX?=
+ =?us-ascii?Q?e+goNxtZfSAZJTHRdsvua9ICJNSbqWiogP+8eT4XXfzibe0GKgW+vJ9P4vmP?=
+ =?us-ascii?Q?h7+oSQABweLclT2EK4h5i6eYUEYK9yNb74MECPLnchJhm9AjXjBeCB/E8Gl+?=
+ =?us-ascii?Q?L7AgYsHuKb+Kxs6pcR7ddzCP8SpbwwYjyjiuNWC34rBXP/Lbosoxho6OwXk/?=
+ =?us-ascii?Q?xdPiYCCHYZYtFW5kR0ANzuza7Nttd7yzBNmggPLwmxCDhxreIZSN1WDq+Tvs?=
+ =?us-ascii?Q?K2EidZ/FIYo5ecI0z+JVVgpfUbhapr3ghCIjdSq/wUqMqUqgmJOC7A70p6Ht?=
+ =?us-ascii?Q?ulKdmWG3k05dIzTHOteagL1jvtNtxCO7aVbktNq5DjsRLWsLMuKRwWq6Ouji?=
+ =?us-ascii?Q?4kGTeVOT7pAf5xZxWRLIqZx5VDpWBhlqaDTohAGtFYjPamzPgpdI/hf7qA+0?=
+ =?us-ascii?Q?V8Zw6K3KUU3+peEYnE3y3S06mRdl4/Jx6hsqHEY6U3PFR2pXNjQf57afCLVm?=
+ =?us-ascii?Q?8KXOnYf8XO0cCCyXYnLCqZCgd+iapTuVxkkJhN1x2KulOZYS/edjdcPRmR5Y?=
+ =?us-ascii?Q?zb3m2logQYZC3VqpJHOF3I0Zt2aeml6j1jWkijOWRExOfEuN7cCWuhlHF1Ct?=
+ =?us-ascii?Q?Gb0A/EhM3KMUdAcyeZby/1QYT44FXx5H3nzf3wKOSU9Q5WzRAhSEzPXBeEWj?=
+ =?us-ascii?Q?Wym9Fo57ItVd1W2HQd9dI+05O6hWdaOXg8wLnFmJ?=
+Content-Type: multipart/alternative;
+	boundary="_000_MA0P287MB0298B03C29F149FA7837DE32F70CAMA0P287MB0298INDP_"
+MIME-Version: 1.0
+X-OriginatorOrg: skapsindia.com
+X-MS-Exchange-CrossTenant-AuthAs: Internal
+X-MS-Exchange-CrossTenant-AuthSource: MA0P287MB0298.INDP287.PROD.OUTLOOK.COM
+X-MS-Exchange-CrossTenant-Network-Message-Id: dca3b345-8b51-4350-4e8d-08db970ff00d
+X-MS-Exchange-CrossTenant-originalarrivaltime: 07 Aug 2023 06:31:31.0519
+ (UTC)
+X-MS-Exchange-CrossTenant-fromentityheader: Hosted
+X-MS-Exchange-CrossTenant-id: 429df98a-d4fd-48a4-8b20-f2518a5357ff
+X-MS-Exchange-CrossTenant-mailboxtype: HOSTED
+X-MS-Exchange-CrossTenant-userprincipalname: ypHTj7ddLIpaBrcQmC3w8HA4q6sqe7Ms53X2jj0w1QOTQka18E1pj76qDqqy1Kp6sBjcOk01UsKodL3AG6XA+g==
+X-MS-Exchange-Transport-CrossTenantHeadersStamped: PN0P287MB1037
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45146.4347749537</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Team's Planning</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please Join.
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_MmE0MTM4YjgtMjc0MS00ZGU5LWIxYjktNjdjMDRlNTkxMjRj%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%229aca6dbf-29b1-48b9-9fee-026baac16314%22%7d&gt;  
+Meeting ID: 459 531 967 78 
+Passcode: e2TGLm 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=9aca6dbf-29b1-48b9-9fee-026baac16314&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_MmE0MTM4YjgtMjc0MS00ZGU5LWIxYjktNjdjMDRlNTkxMjRj@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45146.45124172454</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FW: TR Challan Atomization through datatex</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Regards,
+Usha Shetty
+From: Usha Shetty 
+Sent: 07 August 2023 17:08
+To: 'Nayan Vyas' &lt;nayan.vyas@skaps.com&gt;
+Subject: FW: TR Challan Atomization through datatex
+FYI.
+Regards,
+Usha Shetty
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 August 2023 12:19
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;
+Subject: FW: TR Challan Atomization through datatex
+From: Hitesh Rawat 
+Sent: 07 December 2022 11:53
+To: Parth Prajapati &lt;parth.prajapati@skapsindia.com &lt;mailto:parth.prajapati@skapsindia.com&gt; &gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;
+Subject: FW: TR Challan Atomization through datatex
+We need to work on this project.
+Please refer the docs.
+Thanks &amp; Regards,
+Hitesh
+From: Mohan Prajapati &lt;exim.mundra@skapsindia.com &lt;mailto:exim.mundra@skapsindia.com&gt; &gt; 
+Sent: 16 November 2022 19:03
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Cc: Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Amit Thakkar &lt;amit.thakkar@skaps.com &lt;mailto:amit.thakkar@skaps.com&gt; &gt;; Nishita Parmar &lt;nishita.parmar@skapsindia.com &lt;mailto:nishita.parmar@skapsindia.com&gt; &gt;
+Subject: TR Challan Atomization through datatex
+As discussed , Attached field details of TR Challan with Level -01 to Level 05 for atomization through datatex.
+Now, We face the issue of closing the request on time. hopefully, the system will be started from 1st January 2023.
+Thanks for support…..
+From: Mohan Prajapati 
+Sent: 24 August, 2022 2:22 PM
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;
+Subject: FW: Delivery Challan Auto-generated through datatex for TR Challan
+For discussion 
+From: Mohan Prajapati 
+Sent: 25 January 2022 12:29
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Cc: 'Amit Thakkar ' &lt;amit.thakkar@skaps.com &lt;mailto:amit.thakkar@skaps.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Nishita Parmar &lt;nishita.parmar@skapsindia.com &lt;mailto:nishita.parmar@skapsindia.com&gt; &gt;
+Subject: FW: Delivery Challan Auto-generated through datatex for TR Challan
+From: Mohan Prajapati 
+Sent: 25 January 2022 12:29
+To: Hitesh Rawat
+Cc: 'Amit Thakkar '; Mahendra Rajput; Nishita Parmar
+Subject: FW: Delivery Challan Auto-generated through datatex for TR Challan
+FYI
+From: Mohan Prajapati 
+Sent: 20 January 2022 12:09
+To: Mahendra Rajput
+Cc: Nishita Parmar
+Subject: Delivery Challan Auto-generated through datatex for TR Challan
+Yesterday , discussed 
+Thanks &amp; Regards 
+Mohan Prajapati
+SKAPS Industries (i) Pvt. Ltd.
+Mundra SEZ , Kutch -370421 
+M: +91-96876 81356 /7359303181
+Be Organized , Be Proactive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45146.47417811343</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+Please find attached here with Sales Module Training document.
+Training Date: 04th August 2023
+Topics Covered: Sales Order to Invoice Creation.
+Attendees: Shipping Team Mundra
+Regards,
+Usha Shetty
+From: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt; 
+Sent: 28 July 2023 13:46
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Subject: RE: Weekly Training by IT
+Hello all,
+Please find the attached Doc about the training given on 28th of July for the Moraiya, Savli and AO SCM
+Topics Included : Creating Or Copy Product.
+Thanks &amp; Regards
+Lalit Prajapati
+Mo. : +91 7069050687
+Skype id :- live:lalitvprajapati38
+WebSite: www.skaps.com &lt;http://www.skaps.com/&gt; 
+Intercome :- 1279
+From: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt; 
+Sent: Thursday, July 27, 2023 09:51 AM
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 21th of July for the U1 &amp; U2 Plant.
+Topics Included : Creating EQB and GB for Default Parameters.
+Regards,
+Vrushali Ghoghalia
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: 13 July 2023 12:50
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45146.65613313657</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FW: Server maintenance</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FYI.
+Regards,
+Hitesh
+From: Deep Patel &lt;deep.patel@skaps.com&gt; 
+Sent: 08 August 2023 00:40
+To: Anurag Shah &lt;anurag@skaps.com&gt;; Umesh Patel &lt;umesh@skaps.com&gt;; Scott Mauney &lt;scott@skaps.com&gt;; Munjal Patel &lt;munjal.patel@skaps.com&gt;; Kourosh Sabzevari &lt;kourosh@skaps.com&gt;; nancy lugo &lt;nancy.lugo@skaps.com&gt;; Jessica Osorio &lt;jessica.osorio@skaps.com&gt;; Jetal Patel &lt;jetal@skaps.com&gt;; Maribel Menjivar &lt;maribel@skaps.com&gt;; Tarli Patel &lt;tarli@skaps.com&gt;; Reshma Patel &lt;reshma@skaps.com&gt;; Malkesh Patel &lt;malkesh@skaps.com&gt;; Nilay Patel &lt;nilay@skaps.com&gt;; Pamela Smith &lt;Pamela@skaps.com&gt;; Pam Booth &lt;pam@skaps.com&gt;; Tej Patel &lt;tej.patel@skaps.com&gt;; Shasvat Vyas &lt;shasvat.vyas@skaps.com&gt;; Garge Patel &lt;garge.patel@skaps.com&gt;; Nitin Padole &lt;nitin.padole@skaps.com&gt;; Bharti Bhatt &lt;bharti@skaps.com&gt;; JC Carcamo &lt;jc@skaps.com&gt;; Jomar &lt;jomar@skaps.com&gt;; Purvi Patel &lt;purvi@skaps.com&gt;; Janki Patel &lt;janki.patel@skaps.com&gt;; Jonathan Revell &lt;j.revell@skaps.com&gt;; John McCormack &lt;johnmc@skaps.com&gt;; Kushal Shah &lt;kushal.shah@skaps.com&gt;; Kush Vyas &lt;kush.vyas@skaps.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Sadhvi Arora &lt;sadhvi.arora@skaps.com&gt;; Taryn Westmoreland &lt;taryn@skaps.com&gt;; Justin_Swain &lt;justin_swain@skaps.com&gt;; jasmine Comm &lt;jasmine.commerce@skaps.com&gt;
+Cc: Sunil Sinha &lt;sunilsinha@skaps.com&gt;; Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Subject: Server maintenance
+Importance: High
+Hello everyone,
+This is to inform you that Datatex will be down for maintenance from 7:00 AM to 9:00 AM on 8th August 2023, Tuesday.
+Please schedule your work accordingly.
+Please include concerned people if I have missed someone.
+Thank you.
+Deep Patel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45147.54877564815</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Team Weekly Discussion</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Shraddha Sharma</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=930EF8D29E074ACDA13E810E0E9DC5DD-SHRADDHA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_ODJhNjU2NGYtNzAwOC00YzYwLTkxZWUtYzA0YWYzNDZmYzE1%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%2211258d11-1e6d-4a1a-967b-a8bd05881141%22%7d&gt;  
+Meeting ID: 431 639 307 159 
+Passcode: C5h5cV 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=11258d11-1e6d-4a1a-967b-a8bd05881141&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_ODJhNjU2NGYtNzAwOC00YzYwLTkxZWUtYzA0YWYzNDZmYzE1@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45147.68322265046</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RE: Open Points 2023 </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Harsh,
+We’ve made necessary changes, so that validation message appears for allocated rolls.
+At Present, the validation message will appear for 2 Handheld processes only.
+1.	Onion Pallet Zone-Location Transfer
+2.	Onion Rolls Zone-Location Transfer
+The changes are on live.
+Can you please check and confirm these processes ?
+For testing purpose if you want the changes on other handheld process, let us know that too.
+Once confirmed, we’ll apply the changes on all Handheld processes.
+Thanks &amp; Regards,
+Hitesh
+From: Harsh Shah &lt;harsh.shah@skaps.com&gt; 
+Sent: 02 August 2023 04:15
+To: Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;
+Subject: RE: Open Points 2023 
+Please close point# 21, works as expected. (I have not checked whether I have rights to edit the file, but I would recommend 1 person to maintain it for consistency).
+Please split point# 30 for company 10 and 30 respectively. Issue for company 10 is still under observation while below is the issue described for company 30.
+Point# 30: Duplicate allocation on Sales Document upon changing Zone and Location.
+Please use below details to recreate the issue.
+Description of the issue: When any elements are allocated to a sales document (PT) and then Zone and Location are changed, those rolls are allocated again on that sales document. Please see the 1st and 2nd PT attachments for the difference in the total values. The BOL print outs do not show any discrepancies. Additionally, the shipping transactions also goes through perfectly.
+The only issue here is, because of the duplicate allocation showing on the PT, it is confusing the loader whether they have scanned additional material on the PT.
+Sales Order: 31C2300394
+Sales Order Line: 30
+Product: 60-HD-11-BLK-BLK-GRI-STD-24.00
+Release Number: 000000000007663
+PT Number: 301312300857
+Roll Numbers (Zone - Location): 3111006359 (LL - 08B), 3111006365 (LL - 08C), 3111014020 (G01 - Default)
+Allocation Number (Before changing Zone - Location): 000000000013585
+New Zone - Location: LL - 05A
+Allocation Number (After changing Zone - Location): 000000000013586
+Solution: Zone Location JSP should throw an error if the element or container element is already allocated on a sales document.!
+From: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt; 
+Sent: Tuesday, August 1, 2023 8:47 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: Open Points 2023 
+Open Points_2023.xlsx &lt;https://skapsindia-my.sharepoint.com/:x:/r/personal/lalitp_skapsindia_com/Documents/6_Open%20Points/Open%20Points_2023.xlsx?d=w8c41f4f7d2284dcc9f7c14055b93bed5&amp;csf=1&amp;web=1&amp;e=3YjKoY&gt; 
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45147.76232596065</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RE: Open Points 2023 </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Harsh,
+Changes applicable on ‘LNR : Finished Goods Transfer’.
+Regards,
+Hitesh
+From: Harsh Shah &lt;harsh.shah@skaps.com&gt; 
+Sent: 09 August 2023 18:00
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Cc: Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;
+Subject: RE: Open Points 2023 
+Good evening Hiteshbhai,
+Could you please place the necessary changes to LNR jsp transfer process.?
+As we have been facing most of those issue on LNR business, it will make more sense to check on the most troubled points. With these changes done on LNR transfer jsp process, we can ask the end users to check and confirm.
+FYR, the previously attached example was for LNR business.
+Please let us know once these changes are moved to LNR transfer jsp process and will let the ends users know for testing.
+Let me know if you need more information on this from my side.
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: Wednesday, August 9, 2023 6:54 AM
+To: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Shraddha &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: RE: Open Points 2023 
+Hello Harsh,
+We’ve made necessary changes, so that validation message appears for allocated rolls.
+At Present, the validation message will appear for 2 Handheld processes only.
+1.	Onion Pallet Zone-Location Transfer
+2.	Onion Rolls Zone-Location Transfer
+The changes are on live.
+Can you please check and confirm these processes ?
+For testing purpose if you want the changes on other handheld process, let us know that too.
+Once confirmed, we’ll apply the changes on all Handheld processes.
+Thanks &amp; Regards,
+Hitesh
+From: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt; 
+Sent: 02 August 2023 04:15
+To: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: RE: Open Points 2023 
+Please close point# 21, works as expected. (I have not checked whether I have rights to edit the file, but I would recommend 1 person to maintain it for consistency).
+Please split point# 30 for company 10 and 30 respectively. Issue for company 10 is still under observation while below is the issue described for company 30.
+Point# 30: Duplicate allocation on Sales Document upon changing Zone and Location.
+Please use below details to recreate the issue.
+Description of the issue: When any elements are allocated to a sales document (PT) and then Zone and Location are changed, those rolls are allocated again on that sales document. Please see the 1st and 2nd PT attachments for the difference in the total values. The BOL print outs do not show any discrepancies. Additionally, the shipping transactions also goes through perfectly.
+The only issue here is, because of the duplicate allocation showing on the PT, it is confusing the loader whether they have scanned additional material on the PT.
+Sales Order: 31C2300394
+Sales Order Line: 30
+Product: 60-HD-11-BLK-BLK-GRI-STD-24.00
+Release Number: 000000000007663
+PT Number: 301312300857
+Roll Numbers (Zone - Location): 3111006359 (LL - 08B), 3111006365 (LL - 08C), 3111014020 (G01 - Default)
+Allocation Number (Before changing Zone - Location): 000000000013585
+New Zone - Location: LL - 05A
+Allocation Number (After changing Zone - Location): 000000000013586
+Solution: Zone Location JSP should throw an error if the element or container element is already allocated on a sales document.!
+From: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt; 
+Sent: Tuesday, August 1, 2023 8:47 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: Open Points 2023 
+Open Points_2023.xlsx &lt;https://skapsindia-my.sharepoint.com/:x:/r/personal/lalitp_skapsindia_com/Documents/6_Open%20Points/Open%20Points_2023.xlsx?d=w8c41f4f7d2284dcc9f7c14055b93bed5&amp;csf=1&amp;web=1&amp;e=3YjKoY&gt; 
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45147.75043357639</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RE: Open Points 2023 </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Harsh Shah</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>harsh.shah@skaps.com</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good evening Hiteshbhai,
+Could you please place the necessary changes to LNR jsp transfer process.?
+As we have been facing most of those issue on LNR business, it will make more sense to check on the most troubled points. With these changes done on LNR transfer jsp process, we can ask the end users to check and confirm.
+FYR, the previously attached example was for LNR business.
+Please let us know once these changes are moved to LNR transfer jsp process and will let the ends users know for testing.
+Let me know if you need more information on this from my side.
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt; 
+Sent: Wednesday, August 9, 2023 6:54 AM
+To: Harsh Shah &lt;harsh.shah@skaps.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Cc: Shraddha &lt;shraddha@skapsindia.com&gt;; Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Usha &lt;usha.shetty@skapsindia.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;
+Subject: RE: Open Points 2023 
+Hello Harsh,
+We’ve made necessary changes, so that validation message appears for allocated rolls.
+At Present, the validation message will appear for 2 Handheld processes only.
+1.	Onion Pallet Zone-Location Transfer
+2.	Onion Rolls Zone-Location Transfer
+The changes are on live.
+Can you please check and confirm these processes ?
+For testing purpose if you want the changes on other handheld process, let us know that too.
+Once confirmed, we’ll apply the changes on all Handheld processes.
+Thanks &amp; Regards,
+Hitesh
+From: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt; 
+Sent: 02 August 2023 04:15
+To: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: RE: Open Points 2023 
+Please close point# 21, works as expected. (I have not checked whether I have rights to edit the file, but I would recommend 1 person to maintain it for consistency).
+Please split point# 30 for company 10 and 30 respectively. Issue for company 10 is still under observation while below is the issue described for company 30.
+Point# 30: Duplicate allocation on Sales Document upon changing Zone and Location.
+Please use below details to recreate the issue.
+Description of the issue: When any elements are allocated to a sales document (PT) and then Zone and Location are changed, those rolls are allocated again on that sales document. Please see the 1st and 2nd PT attachments for the difference in the total values. The BOL print outs do not show any discrepancies. Additionally, the shipping transactions also goes through perfectly.
+The only issue here is, because of the duplicate allocation showing on the PT, it is confusing the loader whether they have scanned additional material on the PT.
+Sales Order: 31C2300394
+Sales Order Line: 30
+Product: 60-HD-11-BLK-BLK-GRI-STD-24.00
+Release Number: 000000000007663
+PT Number: 301312300857
+Roll Numbers (Zone - Location): 3111006359 (LL - 08B), 3111006365 (LL - 08C), 3111014020 (G01 - Default)
+Allocation Number (Before changing Zone - Location): 000000000013585
+New Zone - Location: LL - 05A
+Allocation Number (After changing Zone - Location): 000000000013586
+Solution: Zone Location JSP should throw an error if the element or container element is already allocated on a sales document.!
+From: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt; 
+Sent: Tuesday, August 1, 2023 8:47 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: Open Points 2023 
+Open Points_2023.xlsx &lt;https://skapsindia-my.sharepoint.com/:x:/r/personal/lalitp_skapsindia_com/Documents/6_Open%20Points/Open%20Points_2023.xlsx?d=w8c41f4f7d2284dcc9f7c14055b93bed5&amp;csf=1&amp;web=1&amp;e=3YjKoY&gt; 
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45148.63701649306</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=c39481a8-bd98-4906-9d15-fd911d669436&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://go.microsoft.com/fwlink/?LinkID=857493&gt; . 	
+Recycle bin &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=c39481a8-bd98-4906-9d15-fd911d669436&gt; 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://go.microsoft.com/fwlink/?LinkID=521839&gt;  | Notification Settings &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?p=22&gt; . 	
+ &lt;https://centralindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=I8ih9lprl0eHiV0hs5HpKA&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45148.66115439815</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Holiday - Independence Day 15th August</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please note below working/ closure of plants on;
+15 August – Tuesday, Independence Day.
+Moraiya –  closed. 
+Mundra U1 Wovens – closed on 15th August against working on Sunday 13th  August.
+Mundra U2 Nonwoven- working   
+Mundra U2 Fiberline – working
+Anjani Composite operations: 
+Kitting- Preform working and core closed.
+PET –  closed
+Fiberglass : working
+Anya: Woven - closed on 15th August against working on Sunday 13th  August, Hydrotex &amp; stitching- closed.
+Savli: working.
+Chennai- closed.
+Staff holiday.
+If any changes/ questions, please let me know or discuss.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45148.6662831713</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Intercom Number Latest Sheet Update.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rohan Goswami</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=9ACF9A26421F4BF9811EBB92811F9105-06F19447-0C</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear all,
+PFA for Updated Intercom Number,
+Updated Numbers and Names are In Yellow
+Regards,
+Rohan Goswami
+BE ONE BE SKAPS BE SMART
+Cell -091-6352606029
+Email : rohan.goswami@skapsindia.com &lt;mailto:rohan.goswami@skapsindia.com&gt; 
+SKAPS INDUSTRIES INDIA PVT LIMITED
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45148.68299247685</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RE: Intercom Number Latest Sheet Update.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rohan Goswami</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=9ACF9A26421F4BF9811EBB92811F9105-06F19447-0C</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorry for Inconvenience,
+Some numbers were not Updated in Previous sheet
+So I revised this Mail
+From: Rohan Goswami &lt;rohan.goswami@skapsindia.com&gt; 
+Sent: 10 August 2023 03:59 PM
+To: Rohan Goswami &lt;rohan.goswami@skapsindia.com&gt;
+Subject: Intercom Number Latest Sheet Update.
+Dear all,
+PFA for Updated Intercom Number,
+Updated Numbers and Names are In Yellow
+Regards,
+Rohan Goswami
+BE ONE BE SKAPS BE SMART
+Cell -091-6352606029
+Email : rohan.goswami@skapsindia.com &lt;mailto:rohan.goswami@skapsindia.com&gt; 
+SKAPS INDUSTRIES INDIA PVT LIMITED
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45149.62534056713</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>FW: RM_CONSUMPTION DETAILS REPORT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Regards,
+Usha Shetty
+From: Rasesh Pankhaniya &lt;rasesh.pankhaniya@skapsindia.com&gt; 
+Sent: 11 August 2023 14:46
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Cc: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Anup Patel &lt;anup.patel@skapsindia.com&gt;
+Subject: RM_CONSUMPTION DETAILS REPORT
+Hello ushaben,
+As per our discussion file attached FYR..
+report need only monthly base by auto mail,( @Anup Patel &lt;mailto:anup.patel@skapsindia.com&gt;  , @Rasesh Pankhaniya &lt;mailto:rasesh.pankhaniya@skapsindia.com&gt; )
+if need any more information, please let me know.
+Regards,
+rasesh.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45149.55754793982</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sales Return Training</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Hitesh maurya</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=4D28B65AAF6E477C9B85A4A6EC66B9CB-HITESH.MAUR</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please join with us.
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_NjRkNmViMmEtMjY0Ni00NjcwLWEzYmYtMWMxZTk0ZTZhNGUy%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%226d09e553-0ce1-4226-9a77-f7a02fcb2b47%22%7d&gt;  
+Meeting ID: 432 738 912 931 
+Passcode: rSwpyq 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=6d09e553-0ce1-4226-9a77-f7a02fcb2b47&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_NjRkNmViMmEtMjY0Ni00NjcwLWEzYmYtMWMxZTk0ZTZhNGUy@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45152.40630589121</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Hitesh maurya</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=4D28B65AAF6E477C9B85A4A6EC66B9CB-HITESH.MAUR</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+Please find attached here with Sales Return Training document.
+Training Date: 11th August 2023
+Topics Covered: Sales Claim to Credit Memo (With Material Return).
+Attendees: PO Team  (Aashni – AO)
+Thanks,
+Hitesh Maurya
+From: Usha Shetty &lt;usha.shetty@skapsindia.com&gt; 
+Sent: 08 August 2023 11:23
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;
+Subject: RE: Weekly Training by IT
+Hello,
+Please find attached here with Sales Module Training document.
+Training Date: 04th August 2023
+Topics Covered: Sales Order to Invoice Creation.
+Attendees: Shipping Team Mundra
+Regards,
+Usha Shetty
+From: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt; 
+Sent: 28 July 2023 13:46
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello all,
+Please find the attached Doc about the training given on 28th of July for the Moraiya, Savli and AO SCM
+Topics Included : Creating Or Copy Product.
+Thanks &amp; Regards
+Lalit Prajapati
+Mo. : +91 7069050687
+Skype id :- live:lalitvprajapati38
+WebSite: www.skaps.com &lt;http://www.skaps.com/&gt; 
+Intercome :- 1279
+From: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt; 
+Sent: Thursday, July 27, 2023 09:51 AM
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 21th of July for the U1 &amp; U2 Plant.
+Topics Included : Creating EQB and GB for Default Parameters.
+Regards,
+Vrushali Ghoghalia
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: 13 July 2023 12:50
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45152.39532924769</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>FW: Mis match in both report.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Regards,
+Usha Shetty
+From: Navin Prajapati &lt;fgknittingproduction@skapsindia.com&gt; 
+Sent: 11 August 2023 17:24
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: Mis match in both report.
+In Both report meter &amp; weight mismatch value Highlighted with fill RED box.
+Thanks,
+Pratik Kamriya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45149.92339143519</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RE: Sales Return Training</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Hitesh maurya</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=4D28B65AAF6E477C9B85A4A6EC66B9CB-HITESH.MAUR</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+Please find attached manual of Sales Return process.
+Thanks,
+Hitesh Maurya
+-----Original Appointment-----
+From: Hitesh maurya 
+Sent: 11 August 2023 13:23
+To: Mukesh Bhagat; Ashok kumar; Akash shah; Keyur Pandya; Karan Patel; Harshad Jadav; Hitesh Rawat; Manish Verma; Vrushali Ghoghalia; Usha Shetty
+Subject: Sales Return Training
+When: 11 August 2023 21:30-22:00 (UTC+05:30) Chennai, Kolkata, Mumbai, New Delhi.
+Where: Microsoft Teams Meeting
+Please join with us.
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_NjRkNmViMmEtMjY0Ni00NjcwLWEzYmYtMWMxZTk0ZTZhNGUy%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%226d09e553-0ce1-4226-9a77-f7a02fcb2b47%22%7d&gt;  
+Meeting ID: 432 738 912 931 
+Passcode: rSwpyq 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=6d09e553-0ce1-4226-9a77-f7a02fcb2b47&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_NjRkNmViMmEtMjY0Ni00NjcwLWEzYmYtMWMxZTk0ZTZhNGUy@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45152.57532427083</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Shraddha Sharma</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=930EF8D29E074ACDA13E810E0E9DC5DD-SHRADDHA</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello All,
+I will not be available from 16/08/2023 to 18/08/2023 due to personal reason.
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45152.70194393519</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RE: Mis match in both report.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please check and confirm.
+Regards,
+Vrushali Ghoghalia
+From: Usha Shetty &lt;usha.shetty@skapsindia.com&gt; 
+Sent: 14 August 2023 09:29
+To: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: FW: Mis match in both report.
+Regards,
+Usha Shetty
+From: Navin Prajapati &lt;fgknittingproduction@skapsindia.com &lt;mailto:fgknittingproduction@skapsindia.com&gt; &gt; 
+Sent: 11 August 2023 17:24
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;
+Subject: Mis match in both report.
+In Both report meter &amp; weight mismatch value Highlighted with fill RED box.
+Thanks,
+Pratik Kamriya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45154.69092127315</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RE: Open Points 2023 </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi,
+We have made the changes applicable on all Zone location transfer JSPs\Handheld.
+Thanks &amp; Regards,
+Hitesh
+From: Hitesh Rawat 
+Sent: 09 August 2023 18:18
+To: Harsh Shah &lt;harsh.shah@skaps.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;
+Cc: Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;
+Subject: RE: Open Points 2023 
+Hello Harsh,
+Changes applicable on ‘LNR : Finished Goods Transfer’.
+Regards,
+Hitesh
+From: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt; 
+Sent: 09 August 2023 18:00
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: RE: Open Points 2023 
+Good evening Hiteshbhai,
+Could you please place the necessary changes to LNR jsp transfer process.?
+As we have been facing most of those issue on LNR business, it will make more sense to check on the most troubled points. With these changes done on LNR transfer jsp process, we can ask the end users to check and confirm.
+FYR, the previously attached example was for LNR business.
+Please let us know once these changes are moved to LNR transfer jsp process and will let the ends users know for testing.
+Let me know if you need more information on this from my side.
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: Wednesday, August 9, 2023 6:54 AM
+To: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Shraddha &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: RE: Open Points 2023 
+Hello Harsh,
+We’ve made necessary changes, so that validation message appears for allocated rolls.
+At Present, the validation message will appear for 2 Handheld processes only.
+1.	Onion Pallet Zone-Location Transfer
+2.	Onion Rolls Zone-Location Transfer
+The changes are on live.
+Can you please check and confirm these processes ?
+For testing purpose if you want the changes on other handheld process, let us know that too.
+Once confirmed, we’ll apply the changes on all Handheld processes.
+Thanks &amp; Regards,
+Hitesh
+From: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt; 
+Sent: 02 August 2023 04:15
+To: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: RE: Open Points 2023 
+Please close point# 21, works as expected. (I have not checked whether I have rights to edit the file, but I would recommend 1 person to maintain it for consistency).
+Please split point# 30 for company 10 and 30 respectively. Issue for company 10 is still under observation while below is the issue described for company 30.
+Point# 30: Duplicate allocation on Sales Document upon changing Zone and Location.
+Please use below details to recreate the issue.
+Description of the issue: When any elements are allocated to a sales document (PT) and then Zone and Location are changed, those rolls are allocated again on that sales document. Please see the 1st and 2nd PT attachments for the difference in the total values. The BOL print outs do not show any discrepancies. Additionally, the shipping transactions also goes through perfectly.
+The only issue here is, because of the duplicate allocation showing on the PT, it is confusing the loader whether they have scanned additional material on the PT.
+Sales Order: 31C2300394
+Sales Order Line: 30
+Product: 60-HD-11-BLK-BLK-GRI-STD-24.00
+Release Number: 000000000007663
+PT Number: 301312300857
+Roll Numbers (Zone - Location): 3111006359 (LL - 08B), 3111006365 (LL - 08C), 3111014020 (G01 - Default)
+Allocation Number (Before changing Zone - Location): 000000000013585
+New Zone - Location: LL - 05A
+Allocation Number (After changing Zone - Location): 000000000013586
+Solution: Zone Location JSP should throw an error if the element or container element is already allocated on a sales document.!
+From: Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt; 
+Sent: Tuesday, August 1, 2023 8:47 AM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Hitesh &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Pallavi Padole &lt;pallavi.padole@skaps.com &lt;mailto:pallavi.padole@skaps.com&gt; &gt;
+Subject: Open Points 2023 
+Open Points_2023.xlsx &lt;https://skapsindia-my.sharepoint.com/:x:/r/personal/lalitp_skapsindia_com/Documents/6_Open%20Points/Open%20Points_2023.xlsx?d=w8c41f4f7d2284dcc9f7c14055b93bed5&amp;csf=1&amp;web=1&amp;e=3YjKoY&gt; 
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45155.40262533565</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>RE: RM_CONSUMPTION DETAILS REPORT</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manish is working on it, will update asap. 
+Regards,
+Usha Shetty
+From: Rasesh Pankhaniya &lt;rasesh.pankhaniya@skapsindia.com&gt; 
+Sent: 17 August 2023 9:38
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Cc: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Anup Patel &lt;anup.patel@skapsindia.com&gt;
+Subject: RE: RM_CONSUMPTION DETAILS REPORT
+Hello ushaben,
+Any update on this??
+If any, please let me know.
+Regards,
+Rasesh.
+From: Rasesh Pankhaniya 
+Sent: 11 August 2023 14:46
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;
+Cc: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Anup Patel &lt;anup.patel@skapsindia.com &lt;mailto:anup.patel@skapsindia.com&gt; &gt;
+Subject: RM_CONSUMPTION DETAILS REPORT
+Hello ushaben,
+As per our discussion file attached FYR..
+report need only monthly base by auto mail,( @Anup Patel &lt;mailto:anup.patel@skapsindia.com&gt;  , @Rasesh Pankhaniya &lt;mailto:rasesh.pankhaniya@skapsindia.com&gt; )
+if need any more information, please let me know.
+Regards,
+rasesh.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45155.57932101852</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Rikesh sent a message</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rikesh Mistry in Teams</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>noreply@email.teams.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>done ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ 
+Hi,	 
+Your teammates are trying to reach you in Microsoft Teams &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-0&gt; .	 
+	Rikesh sent a message in chat &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-14&gt; 	 
+done
+	&lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-3&gt; 
+  Reply in Teams  &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-6&gt; 	
+Install Microsoft Teams now	 
+&lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-4&gt; 
+    &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-8&gt; 	  &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-2&gt; 	     &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-15&gt; 	   iOS &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-16&gt; 	     &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-13&gt; 	 
+	&lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-5&gt; 
+   &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-12&gt; 	  &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-11&gt; 	     &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-7&gt; 	 Android &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-9&gt; 	    &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-10&gt; 	 
+This email was sent from an unmonitored mailbox. Update your email preferences in Teams. Activity &gt; Settings (Gear Icon) &gt; Notifications.	 
+© 2023 Microsoft Corporation, One Microsoft Way, Redmond WA 98052-7329
+Read our privacy policy &lt;http://go.microsoft.com/fwlink/p/?LinkID=512132&gt;  	
+ &lt;https://urlshortener.teams.microsoft.com/8DB9EFADB89B82C-3-1&gt; 	
+eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCIsIng1YyI6Ik1JSUhPRENDQmlDZ0F3SUJBZ0lUZndHMVVLVmwybjA0NGxxSmtRQUVBYlZRcFRBTkJna3Foa2lHOXcwQkFRc0ZBREJFTVJNd0VRWUtDWkltaVpQeUxHUUJHUllEUjBKTU1STXdFUVlLQ1pJbWlaUHlMR1FCR1JZRFFVMUZNUmd3RmdZRFZRUURFdzlCVFVVZ1NXNW1jbUVnUTBFZ01ESXdIaGNOTWpNd056RXhNVEUwTURJeVdoY05NalF3TnpBMU1URTBNREl5V2pBc01Tb3dLQVlEVlFRREV5RmhZM1JwYjI1aFlteGxMbkJ5YjJRdVpXMWhhV3d1WVhwamJHbGxiblF1YlhNd2dnRWlNQTBHQ1NxR1NJYjNEUUVCQVFVQUE0SUJEd0F3Z2dFS0FvSUJBUUROVllDUXFQall0QktzS3RvYjB1a0FlSGlveEhvQWYzZStiWEVaWkJzejlYN0lvUkVWdmZtL2RoaVV5Q2VUOVB2KzMwbFFOVVl0M1BBakVzN2F5dm93OVpjWCt0Nml0VmJGUjZRMUdHdEZKazA5Y3ZMSnhlWHZQTFlmcWJpN3gwVkFQS0lGb2JseGp4ZSt4QkI1QWxsbmI3V1Q2NGNVeU9UaEdPeVZBcE52T2pSeU9IRFBrNis2ckpsVy9ad1Btc0loUHVvZzN0bWhqTmplZmw4L3c5T1B0dkFiWGFyTG5jM3JINlNpVUduNmkvNUVKRmI3dXVpMnlQOURCK2pZTDJjYWtxS3c5Tk5mbXA1NTMrSFM5RkRka1VJc2RpVFI3VVBUSVlSMHpMaE44NUNKYUFXZ1dVN1VtWTgvNitZbWhpd0t5ZTdiTFFtaFFvVE1WUHk2L3orTkFnTUJBQUdqZ2dRNU1JSUVOVEFuQmdrckJnRUVBWUkzRlFvRUdqQVlNQW9HQ0NzR0FRVUZCd01CTUFvR0NDc0dBUVVGQndNQ01EMEdDU3NHQVFRQmdqY1ZCd1F3TUM0R0ppc0dBUVFCZ2pjVkNJYVE0dzJFMWJSNGhQR0xQb1diM1JiT25SS0JZSUwxOWl1RDh0RWdBZ0ZrQWdFS01JSUIyZ1lJS3dZQkJRVUhBUUVFZ2dITU1JSUJ5REJtQmdnckJnRUZCUWN3QW9aYWFIUjBjRG92TDJOeWJDNXRhV055YjNOdlpuUXVZMjl0TDNCcmFXbHVabkpoTDBObGNuUnpMMEpNTWxCTFNVbE9WRU5CTURFdVFVMUZMa2RDVEY5QlRVVWxNakJKYm1aeVlTVXlNRU5CSlRJd01ESW9OQ2t1WTNKME1GWUdDQ3NHQVFVRkJ6QUNoa3BvZEhSd09pOHZZM0pzTVM1aGJXVXVaMkpzTDJGcFlTOUNUREpRUzBsSlRsUkRRVEF4TGtGTlJTNUhRa3hmUVUxRkpUSXdTVzVtY21FbE1qQkRRU1V5TURBeUtEUXBMbU55ZERCV0JnZ3JCZ0VGQlFjd0FvWkthSFIwY0RvdkwyTnliREl1WVcxbExtZGliQzloYVdFdlFrd3lVRXRKU1U1VVEwRXdNUzVCVFVVdVIwSk1YMEZOUlNVeU1FbHVabkpoSlRJd1EwRWxNakF3TWlnMEtTNWpjblF3VmdZSUt3WUJCUVVITUFLR1NtaDBkSEE2THk5amNtd3pMbUZ0WlM1blltd3ZZV2xoTDBKTU1sQkxTVWxPVkVOQk1ERXVRVTFGTGtkQ1RGOUJUVVVsTWpCSmJtWnlZU1V5TUVOQkpUSXdNRElvTkNrdVkzSjBNRllHQ0NzR0FRVUZCekFDaGtwb2RIUndPaTh2WTNKc05DNWhiV1V1WjJKc0wyRnBZUzlDVERKUVMwbEpUbFJEUVRBeExrRk5SUzVIUWt4ZlFVMUZKVEl3U1c1bWNtRWxNakJEUVNVeU1EQXlLRFFwTG1OeWREQWRCZ05WSFE0RUZnUVU4WkYzemJvcUppZm5nVW03dmZqdWVpK3dWRUV3RGdZRFZSMFBBUUgvQkFRREFnV2dNQ3dHQTFVZEVRUWxNQ09DSVdGamRHbHZibUZpYkdVdWNISnZaQzVsYldGcGJDNWhlbU5zYVdWdWRDNXRjekNDQVRVR0ExVWRId1NDQVN3d2dnRW9NSUlCSktDQ0FTQ2dnZ0VjaGtKb2RIUndPaTh2WTNKc0xtMXBZM0p2YzI5bWRDNWpiMjB2Y0d0cGFXNW1jbUV2UTFKTUwwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXd4TG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXd5TG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXd6TG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXcwTG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNtd3dGd1lEVlIwZ0JCQXdEakFNQmdvckJnRUVBWUkzZXdFQk1COEdBMVVkSXdRWU1CYUFGSzU1d210ZEpZZ1RCdllIQ2NPWGZIdVhqeDFWTUIwR0ExVWRKUVFXTUJRR0NDc0dBUVVGQndNQkJnZ3JCZ0VGQlFjREFqQU5CZ2txaGtpRzl3MEJBUXNGQUFPQ0FRRUFNd1dLNlI3cFZCMmRoRHZLMWVWVm1rUUQrU2JHbDRjUjlwLzUycnRLUEg4RGdsSkNLcWxDOFlRT2p2S3hvZldoT0NRakp3dmtuWXZ6Q29kQUlsb0xOOWs4QVZwQmdIdmNDNWR2Y3N3cGtuZHdya2Rqd0V2ZDR5dzVGYlMvWXZYZG1jOU9MYnFrenBLaldIVW41c01BVEZGcG5JcVFob2xBSnRIbk9ZdVQvSXJHaVU1dWNXd0FicjRHaytCNDlCZjMvNEFUVXM4anpWSnVYUW41blVJb0hIeksrOHZXeUdhdjllZWJ5Zm1EQnBNY0tPL0JRTklOSkFFR2dQZm5iNjdobS82UjRjRE1IY1FrYm1udG9JME9SRWJ6dVZ3UXdrSUJ2WEppcEZIZXRodDdxZkV6d3BQdUdDQTNieWV5KzA4blZvUUFjQWJWTmNYZUtROXVHSXdQcXc9PSJ9.eyJzZW5kZXIiOiJub3JlcGx5QGVtYWlsLnRlYW1zLm1pY3Jvc29mdC5jb20iLCJvcmlnaW5hdG9yIjoiODAxNzdlMTYtNGQ2MC00NDA5LWIwOWMtNDllZDg3M2UwOTM2IiwicmVjaXBpZW50c1NlcmlhbGl6ZWQiOiJbXCJtYW5pc2gudmVybWFAc2thcHNpbmRpYS5jb21cIl0iLCJhZGFwdGl2ZUNhcmRTZXJpYWxpemVkIjoie1widHlwZVwiOlwiQWRhcHRpdmVDYXJkXCIsXCJoaWRlT3JpZ2luYWxCb2R5XCI6dHJ1ZSxcInJ0bFwiOmZhbHNlLFwidmVyc2lvblwiOlwiMS4wXCIsXCJwYWRkaW5nXCI6XCJub25lXCIsXCJ0aGVtZVwiOlwibXN0ZWFtc1wiLFwiYm9keVwiOlt7XCJ0ZXh0XCI6XCJMb2FkaW5nIHRoZSBsYXRlc3QgbWVzc2FnZXMuIElmIHlvdSBkb24ndCBzZWUgdGhlbSBpbiA1IHNlY29uZHMsIGNsaWNrIG9uICoqR28gdG8gY29udmVyc2F0aW9uKiogdG8gdmlldyBpbiBUZWFtcy5cIixcIndyYXBcIjp0cnVlLFwidHlwZVwiOlwiVGV4dEJsb2NrXCJ9LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwic3R5bGVcIjpcInRlYW1zSGVhZGVyXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb2x1bW5TZXRcIixcImNvbHVtbnNcIjpbe1widHlwZVwiOlwiQ29sdW1uXCIsXCJ3aWR0aFwiOlwic3RyZXRjaFwiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiVGV4dEJsb2NrXCIsXCJjb2xvclwiOlwid2hpdGVcIixcInNpemVcIjpcImxhcmdlXCIsXCJ3ZWlnaHRcIjpcImJvbGRlclwiLFwidGV4dFwiOlwiTWljcm9zb2Z0IFRlYW1zXCJ9XSxcInZlcnRpY2FsQ29udGVudEFsaWdubWVudFwiOlwiY2VudGVyXCJ9LHtcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcImF1dG9cIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkltYWdlXCIsXCJzaXplXCI6XCJzbWFsbFwiLFwidXJsXCI6XCJjaWQ6YWN0aW9uYWJsZV9sb2dvXCJ9XX1dfV19LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwiaXNWaXNpYmxlXCI6ZmFsc2UsXCJpZFwiOlwiYmFubmVyLXBsYWNlaG9sZGVyXCJ9LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwiaWRcIjpcImNvbnRlbnQtY29udGFpbmVyXCIsXCJzcGFjaW5nXCI6XCJub25lXCIsXCJwYWRkaW5nXCI6XCJub25lXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb250YWluZXJcIixcInBhZGRpbmdcIjp7XCJsZWZ0XCI6XCJkZWZhdWx0XCIsXCJyaWdodFwiOlwiZGVmYXVsdFwiLFwidG9wXCI6XCJkZWZhdWx0XCIsXCJib3R0b21cIjpcIm5vbmVcIn0sXCJpdGVtc1wiOlt7XCJpZFwiOlwiZ3JlZXRpbmdcIixcInNpemVcIjpcImxhcmdlXCIsXCJ0ZXh0XCI6XCJIaSwgTWFuaXNoXCIsXCJ3ZWlnaHRcIjpcImJvbGRlclwiLFwid3JhcFwiOnRydWUsXCJ0eXBlXCI6XCJUZXh0QmxvY2tcIn0se1wiaWRcIjpcInN1bW1hcnlMaW5rXCIsXCJ0ZXh0XCI6XCJZb3VyIHRlYW1tYXRlcyBhcmUgdHJ5aW5nIHRvIHJlYWNoIHlvdSBpbiBbTWljcm9zb2Z0IFRlYW1zXShodHRwczovL3RlYW1zLm1pY3Jvc29mdC5jb20vbC9jaGF0LzE5OjFmM2FmNjdhLTgyNzQtNGMxYS05OTQzLThkNDY1YjdmYzFhZV84NDkwNDlmYy0yNjQ3LTRiZTYtODFlNy01MGFkZThlOTgyOTBAdW5xLmdibC5zcGFjZXMvY29udmVyc2F0aW9ucz90ZW5hbnRJZD00MjlkZjk4YS1kNGZkLTQ4YTQtOGIyMC1mMjUxOGE1MzU3ZmYpXCIsXCJ3cmFwXCI6dHJ1ZSxcInR5cGVcIjpcIlRleHRCbG9ja1wifV19LHtcImlkXCI6XCJtZXNzYWdlLWl0ZW1zXCIsXCJzcGFjaW5nXCI6XCJzbWFsbFwiLFwidHlwZVwiOlwiQ29udGFpbmVyXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb250YWluZXJcIixcInNwYWNpbmdcIjpcIm5vbmVcIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwicGFkZGluZ1wiOntcImxlZnRcIjpcImRlZmF1bHRcIixcInJpZ2h0XCI6XCJkZWZhdWx0XCIsXCJ0b3BcIjpcImRlZmF1bHRcIixcImJvdHRvbVwiOlwic21hbGxcIn0sXCJpdGVtc1wiOlt7XCJpZFwiOlwibWVzc2FnZS1pdGVtLWxhYmVsXCIsXCJ0eXBlXCI6XCJUZXh0QmxvY2tcIixcIndlaWdodFwiOlwiYm9sZGVyXCIsXCJ0ZXh0XCI6XCJSaWtlc2ggc2VudCBhIG1lc3NhZ2UgaW4gY2hhdFwiLFwid3JhcFwiOnRydWUsXCJzcGFjaW5nXCI6XCJsYXJnZVwifV19LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwicGFkZGluZ1wiOlwibm9uZVwiLFwic3R5bGVcIjpcInRlYW1zQWNjZW50XCIsXCJzcGFjaW5nXCI6XCJzbWFsbFwiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiQ29sdW1uU2V0XCIsXCJwYWRkaW5nXCI6e1wibGVmdFwiOlwiZGVmYXVsdFwiLFwicmlnaHRcIjpcImRlZmF1bHRcIixcInRvcFwiOlwic21hbGxcIixcImJvdHRvbVwiOlwic21hbGxcIn0sXCJjb2x1bW5zXCI6W3tcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcIjMycHhcIixcIml0ZW1zXCI6W3tcImlkXCI6XCJtZXNzYWdlLWl0ZW0tcHJvZmlsZVwiLFwidHlwZVwiOlwiSW1hZ2VcIixcInN0eWxlXCI6XCJwZXJzb25cIixcInVybFwiOlwiY2lkOkIzRTQ4NjZGNTQ2MjRDOUJCNDNEM0E1OUExOTZBMjY0XCIsXCJ3aWR0aFwiOlwiMzJweFwifV19LHtcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcInN0cmV0Y2hcIixcIml0ZW1zXCI6W3tcImlkXCI6XCJtZXNzYWdlLWl0ZW0tc291cmNlLXVzZXJcIixcInRleHRcIjpcIlJpa2VzaFwiLFwid2VpZ2h0XCI6XCJib2xkZXJcIixcInR5cGVcIjpcIlRleHRCbG9ja1wifSx7XCJpZFwiOlwibWVzc2FnZS1pdGVtLXByZXZpZXdcIixcInR5cGVcIjpcIlRleHRCbG9ja1wiLFwiY29sb3JcIjpcImxpZ2h0XCIsXCJ0ZXh0XCI6XCJkb25lXCIsXCJ3cmFwXCI6dHJ1ZSxcInNwYWNpbmdcIjpcIm5vbmVcIn1dfV19XX0se1widHlwZVwiOlwiQ29udGFpbmVyXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb2x1bW5TZXRcIixcImNvbHVtbnNcIjpbe1widHlwZVwiOlwiQ29sdW1uXCIsXCJ3aWR0aFwiOlwic3RyZXRjaFwiLFwicGFkZGluZ1wiOntcImxlZnRcIjpcImRlZmF1bHRcIixcInJpZ2h0XCI6XCJkZWZhdWx0XCJ9LFwiaXRlbXNcIjpbe1widHlwZVwiOlwiQWN0aW9uU2V0XCIsXCJhY3Rpb25zXCI6W3tcImlkXCI6XCJtZXNzYWdlLWl0ZW0tZ290by1jb252ZXJzYXRpb25cIixcInR5cGVcIjpcIkFjdGlvbi5PcGVuVXJsXCIsXCJ1cmxcIjpcImh0dHBzOi8vdGVhbXMubWljcm9zb2Z0LmNvbS9sL2NoYXQvMTk6MWYzYWY2N2EtODI3NC00YzFhLTk5NDMtOGQ0NjViN2ZjMWFlXzg0OTA0OWZjLTI2NDctNGJlNi04MWU3LTUwYWRlOGU5ODI5MEB1bnEuZ2JsLnNwYWNlcy9jb252ZXJzYXRpb25zP3RlbmFudElkPTQyOWRmOThhLWQ0ZmQtNDhhNC04YjIwLWYyNTE4YTUzNTdmZiZsbT1kZWVwbGluayZsbXNyYz1lbWFpbCZlbWx0aWQ9NTZiMzEwNGUtZjFlYi00NTNhLWE3Y2EtMGI1ZjBmOWUzNmU1JmVtbHR5cGU9TmV3X0FjdGl2aXRpZXMmbGlua3R5cGU9b3BlblNreXBlVGVhbXMmY21waWQ9QWN0aW9uYWJsZU1pc3NlZEFjdGl2aXR5XCIsXCJ0aXRsZVwiOlwiR28gdG8gY29udmVyc2F0aW9uXCJ9XX1dfV19XX1dfV19XX0se1widHlwZVwiOlwiQ29sdW1uU2V0XCIsXCJjb2x1bW5zXCI6W3tcInBhZGRpbmdcIjp7XCJsZWZ0XCI6XCJkZWZhdWx0XCIsXCJyaWdodFwiOlwiZGVmYXVsdFwiLFwidG9wXCI6XCJkZWZhdWx0XCIsXCJib3R0b21cIjpcImRlZmF1bHRcIn0sXCJ0eXBlXCI6XCJDb2x1bW5cIixcIndpZHRoXCI6XCJzdHJldGNoXCIsXCJzdHlsZVwiOlwiZW1waGFzaXNcIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkNvbHVtblNldFwiLFwic3BhY2luZ1wiOlwibGFyZ2VcIixcInNlcGFyYXRvclwiOnRydWUsXCJjb2x1bW5zXCI6W3tcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcInN0cmV0Y2hcIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIlRleHRCbG9ja1wiLFwid2VpZ2h0XCI6XCJib2xkZXJcIixcInRleHRcIjpcIkluc3RhbGwgTWljcm9zb2Z0IFRlYW1zIG5vd1wifSx7XCJ0eXBlXCI6XCJDb2x1bW5TZXRcIixcImNvbHVtbnNcIjpbe1widHlwZVwiOlwiQ29sdW1uXCIsXCJ3aWR0aFwiOlwiYXV0b1wiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiSW1hZ2VcIixcInVybFwiOlwiY2lkOmFjdGlvbmFibGVfYXBwbGVcIixcIndpZHRoXCI6XCI3MHB4XCJ9XSxcInNlbGVjdEFjdGlvblwiOntcInR5cGVcIjpcIkFjdGlvbi5PcGVuVXJsXCIsXCJ1cmxcIjpcImh0dHBzOi8vaXR1bmVzLmFwcGxlLmNvbS9hcHAvbWljcm9zb2Z0LXRlYW1zL2lkMTExMzE1MzcwNlwiLFwidGl0bGVcIjpcImlPU1wifX0se1widHlwZVwiOlwiQ29sdW1uXCIsXCJ3aWR0aFwiOlwiYXV0b1wiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiSW1hZ2VcIixcInVybFwiOlwiY2lkOmFjdGlvbmFibGVfYW5kcm9pZFwiLFwid2lkdGhcIjpcIjg4cHhcIn1dLFwic2VsZWN0QWN0aW9uXCI6e1widHlwZVwiOlwiQWN0aW9uLk9wZW5VcmxcIixcInVybFwiOlwiaHR0cHM6Ly9wbGF5Lmdvb2dsZS5jb20vc3RvcmUvYXBwcy9kZXRhaWxzP2lkPWNvbS5taWNyb3NvZnQudGVhbXNcIixcInRpdGxlXCI6XCJBbmRyb2lkXCJ9fV19LHtcInR5cGVcIjpcIlRleHRCbG9ja1wiLFwic2l6ZVwiOlwic21hbGxcIixcImlzU3VidGxlXCI6dHJ1ZSxcInRleHRcIjpcIlRoaXMgZW1haWwgd2FzIHNlbnQgZnJvbSBhbiB1bm1vbml0b3JlZCBtYWlsYm94LiBVcGRhdGUgeW91ciBlbWFpbCBwcmVmZXJlbmNlcyBpbiBUZWFtcy4gQWN0aXZpdHkgPiBTZXR0aW5ncyAoR2VhciBJY29uKSA-IE5vdGlmaWNhdGlvbnMuXCIsXCJ3cmFwXCI6dHJ1ZX0se1widHlwZVwiOlwiVGV4dEJsb2NrXCIsXCJzaXplXCI6XCJzbWFsbFwiLFwiaXNTdWJ0bGVcIjp0cnVlLFwidGV4dFwiOlwiwqkgMjAyMyBNaWNyb3NvZnQgQ29ycG9yYXRpb24sIE9uZSBNaWNyb3NvZnQgV2F5LCBSZWRtb25kIFdBIDk4MDUyLTczMjlcIixcIndyYXBcIjp0cnVlfSx7XCJ0eXBlXCI6XCJUZXh0QmxvY2tcIixcInNpemVcIjpcInNtYWxsXCIsXCJpc1N1YnRsZVwiOnRydWUsXCJ0ZXh0XCI6XCJSZWFkIG91ciBbcHJpdmFjeSBwb2xpY3ldKGh0dHBzOi8vZ28ubWljcm9zb2Z0LmNvbS9md2xpbmsvcC8_bGlua2lkPTg1Nzg3NSlcIixcIndyYXBcIjp0cnVlLFwic3BhY2luZ1wiOlwibm9uZVwifSx7XCJ0eXBlXCI6XCJJbWFnZVwiLFwidXJsXCI6XCJjaWQ6YWN0aW9uYWJsZV9taWNyb3NvZnRfbG9nb1wifV19XX1dfV19XSxcImF1dG9JbnZva2VBY3Rpb25cIjp7XCJpZFwiOlwiYXV0by1pbnZva2UtYWN0aW9uXCIsXCJtZXRob2RcIjpcIlBPU1RcIixcInVybFwiOlwiaHR0cHM6Ly9hcGFjMDEucHVibGljLm10LnRlYW1zLmludGVybmFsLm9mZmljZS5jb20vYmV0YS9hY3Rpb25hYmxlTWVzc2FnZS9hY3Rpdml0eS9pbml0XCIsXCJib2R5XCI6XCJ7XFxcImxvY2FsZVxcXCI6XFxcImVuLXVzXFxcIixcXFwiZGVsYXlcXFwiOjU4LFxcXCJhY3Rpdml0aWVzXFxcIjpbe1xcXCJ0eXBlXFxcIjpcXFwiQ2hhdFxcXCIsXFxcInN1YnR5cGVcXFwiOlxcXCJUZWFtc1xcXCIsXFxcIm1lc3NhZ2VJZFxcXCI6MTY5MjI1NzY2MTAwOSxcXFwic291cmNlVGhyZWFkSWRcXFwiOlxcXCIxOToxZjNhZjY3YS04Mjc0LTRjMWEtOTk0My04ZDQ2NWI3ZmMxYWVfODQ5MDQ5ZmMtMjY0Ny00YmU2LTgxZTctNTBhZGU4ZTk4MjkwQHVucS5nYmwuc3BhY2VzXFxcIixcXFwidGFyZ2V0VGhyZWFkSWRcXFwiOlxcXCJcXFwiLFxcXCJ0YXJnZXROYW1lXFxcIjpcXFwiXFxcIn1dfVwiLFwidHlwZVwiOlwiQWN0aW9uLkh0dHBcIn0sXCJhdXRvSW52b2tlT3B0aW9uc1wiOntcInNob3dDYXJkT25GYWlsdXJlXCI6dHJ1ZX19IiwiaWF0IjoxNjkyMjYwNjQ1fQ.KGMCGiRxZrfUngXWlNxJNcgxZx1CuS4WFsIUM3XUcN_j1pjPgxBdbXW9taSDrqhJtK2K7YM497ZUdJJzu1LSN_B-kwpDYZOelvFUr5QrF0JWAi4tGjEoGcR-9O59g0CF-XA85b35rqU0fuMkgWLNYWcHLrodGw8vfibSNv-pk7NA5kUEptEUpHCFTOW5lIDrGLKAyadxCMtp9fvLldqe4uXDThdUFaclqw6u-8ye9hdAN2Fx3cL9uHsQU6IMfTXCFry3h_2pdVNJEgGNZkJYjRUOTBXFWRd7ugnxjJqbvDh1F10pr2wWjLZ9Lme01_-mgW0u6HrjQJbx0uMaCBsUdQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45155.99634392361</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Aware about spam Email</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Dear All,
+This is for your information, If you have received any email as per below screenshot then please delete email ASAP.
+This is a spam email.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45156.44671221065</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>USA NOW QA Login Migration with AD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Dear Team,
+This is for your information, Next week we are planning to migrate USA NOW QA login with Active Directory.
+So, please prepare the login list and other necessary information.
+Deep,
+I will call you, we have to create group and user for this authentication.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45159.11382990741</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Your digest email</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Discover trends in your work habits
+An in-depth look at your work patterns in the last four weeks
+Explore your insights
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_f55f8d5b-fe8a-4472-9790-7c49ce3b0ecf&gt; 	
+27 days without quiet hours interruptions 
+Days with no significant collaboration outside your working hours
+1% Collaboration time 
+spent in meetings, emails, chats, and calls weekly
+How connected are you throughout the day
+A breakdown of your email, chat and call activity throughout the day, from data over the last four weeks.
+30 
+24 
+18 
+12 
+6 
+0 
+4 AM – 8 AM 
+8 AM – 12 PM 
+12 PM – 4 PM 
+4 PM – 8 PM 
+ 	Emails sent 
+ 	Emails read 
+ 	Chats and calls 
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_84f3a211-9cd8-4220-9d6d-1620a1b1af79&amp;FocusOn=LoFiTimes&gt; 	
+From Headspace | 
+ 	90 mins 
+Tune out distractions with Focus music 
+Try this concentration-boosting track from Headspace. 
+Start listening &lt;https://insights.viva.office.com/#/PersonalApp/Home/Headspace/?Source=MonthlyDigest_84f3a211-9cd8-4220-9d6d-1620a1b1af79&amp;FocusOn=LoFiTimes&gt; 	
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_e8c20658-63de-4ee4-8734-9853a5129b40&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_be9a0c9f-67f0-4229-9a9d-f74a8f6cf582&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_71032645-0006-43e7-8d15-9aace3dfd439&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45156.76572717592</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Re: USA NOW QA Login Migration with AD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Deep Patel</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>deep.patel@skaps.com</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Okay. 
+Deep patel
+________________________________
+From: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Sent: Friday, August 18, 2023 1:13:14 AM
+To: Ravi Shah &lt;ravi.shah@skaps.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;; Usha &lt;usha.shetty@skapsindia.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Shraddha &lt;shraddha@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Deep Patel &lt;deep.patel@skaps.com&gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh &lt;hitesh.rawat@skapsindia.com&gt;; it.mundra@skapsindia.com &lt;it.mundra@skapsindia.com&gt;
+Subject: USA NOW QA Login Migration with AD 
+Dear Team,
+This is for your information, Next week we are planning to migrate USA NOW QA login with Active Directory.
+So, please prepare the login list and other necessary information.
+Deep,
+I will call you, we have to create group and user for this authentication.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45159.39053805556</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>skaps LOGO</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Vadan Rajput</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5F3D19E90DC747538AE0C63A475BB5A2-VADAN.RAJPU</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+“BE SKAPS”
+Thanks &amp; Regards
+Vadan Rajput
+Contact No.9687661182
+Skaps Industries India Pvt Ltd.[MUNDRA SEZ DIV.]
+Mundra, Gujarat, India, Pin. 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45159.57539451389</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>RE: Weekly Training by IT</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Dipak Chelani</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5FC804E13C5A46B0956DE0AF686CEFC7-DIPAK.CHELA</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+PFA document regarding Power BI Reports Training.
+Training Date: 18th August 2023
+Topics Covered: How to Use + Reset Filters, Export + Share + Bookmark a report, Drill Up/down Function
+Thanks &amp; Regards,
+Dipak Chelani
+From: Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt; 
+Sent: 14 August 2023 09:45 AM
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Subject: RE: Weekly Training by IT
+Hello,
+Please find attached here with Sales Return Training document.
+Training Date: 11th August 2023
+Topics Covered: Sales Claim to Credit Memo (With Material Return).
+Attendees: PO Team  (Aashni – AO)
+Thanks,
+Hitesh Maurya
+From: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt; 
+Sent: 08 August 2023 11:23
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello,
+Please find attached here with Sales Module Training document.
+Training Date: 04th August 2023
+Topics Covered: Sales Order to Invoice Creation.
+Attendees: Shipping Team Mundra
+Regards,
+Usha Shetty
+From: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt; 
+Sent: 28 July 2023 13:46
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Cc: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello all,
+Please find the attached Doc about the training given on 28th of July for the Moraiya, Savli and AO SCM
+Topics Included : Creating Or Copy Product.
+Thanks &amp; Regards
+Lalit Prajapati
+Mo. : +91 7069050687
+Skype id :- live:lalitvprajapati38
+WebSite: www.skaps.com &lt;http://www.skaps.com/&gt; 
+Intercome :- 1279
+From: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt; 
+Sent: Thursday, July 27, 2023 09:51 AM
+To: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 21th of July for the U1 &amp; U2 Plant.
+Topics Included : Creating EQB and GB for Default Parameters.
+Regards,
+Vrushali Ghoghalia
+From: Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt; 
+Sent: 13 July 2023 12:50
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: Weekly Training by IT
+Hello , 
+Please find the attached Doc about the training given on 13th of July for the PET Plant (Floor People).
+Topics Included : PET Production Flow and Check in Balance and STI.
+Regards
+Parevi Damani
++91-7984449185
+From: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt; 
+Sent: 07 July 2023 14:19
+To: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com &lt;mailto:dipak.chelani@skapsindia.com&gt; &gt;; Sachin Patel &lt;sachin.patel@skapsindia.com &lt;mailto:sachin.patel@skapsindia.com&gt; &gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com &lt;mailto:hitesh.maurya@skapsindia.com&gt; &gt;
+Subject: Weekly Training by IT
+Dear Team,
+Please find attached sample document.
+All who are involved as trainer for respected subject, Make sure to create such document a the end of each training.
+Would appreciate if training material\point for user is also included.
+Sachin,
+Check if there are some points, that your team can train to other departments.
+We can make a separate schedule for that.
+Thanks &amp; Regards,
+Hitesh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>45159.65045553241</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Regarding Leave</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Dipak Chelani</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5FC804E13C5A46B0956DE0AF686CEFC7-DIPAK.CHELA</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello All,
+I will be taking leave from 24/08/2023 to 29/08/2023 due to personal reason.
+Thanks &amp; Regards,
+Dipak Chelani
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>45160.50389571759</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Parvat sent a message</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Parvat  Maliwad in Teams</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>noreply@email.teams.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20000326 ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ 
+Hi,	 
+Your teammates are trying to reach you in Microsoft Teams &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-0&gt; .	 
+	Parvat sent a message in chat &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-14&gt; 	 
+20000326
+	&lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-2&gt; 
+  Reply in Teams  &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-6&gt; 	
+Install Microsoft Teams now	 
+&lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-4&gt; 
+    &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-3&gt; 	  &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-5&gt; 	     &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-7&gt; 	   iOS &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-9&gt; 	     &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-8&gt; 	 
+	&lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-10&gt; 
+   &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-11&gt; 	  &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-13&gt; 	     &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-16&gt; 	 Android &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-15&gt; 	    &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-12&gt; 	 
+This email was sent from an unmonitored mailbox. Update your email preferences in Teams. Activity &gt; Settings (Gear Icon) &gt; Notifications.	 
+© 2023 Microsoft Corporation, One Microsoft Way, Redmond WA 98052-7329
+Read our privacy policy &lt;http://go.microsoft.com/fwlink/p/?LinkID=512132&gt;  	
+ &lt;https://urlshortener.teams.microsoft.com/8DBA2D9C5D44404-3-1&gt; 	
+eyJhbGciOiJSUzI1NiIsInR5cCI6IkpXVCIsIng1YyI6Ik1JSUhIekNDQmdlZ0F3SUJBZ0lUZndFVzZBTHN0MDkvbmhGa0xnQUVBUmJvQWpBTkJna3Foa2lHOXcwQkFRc0ZBREJFTVJNd0VRWUtDWkltaVpQeUxHUUJHUllEUjBKTU1STXdFUVlLQ1pJbWlaUHlMR1FCR1JZRFFVMUZNUmd3RmdZRFZRUURFdzlCVFVVZ1NXNW1jbUVnUTBFZ01ESXdIaGNOTWpNd016QTVNRGd3TURFNVdoY05NalF3TXpBek1EZ3dNREU1V2pBc01Tb3dLQVlEVlFRREV5RmhZM1JwYjI1aFlteGxMbkJ5YjJRdVpXMWhhV3d1WVhwamJHbGxiblF1YlhNd2dnRWlNQTBHQ1NxR1NJYjNEUUVCQVFVQUE0SUJEd0F3Z2dFS0FvSUJBUUNvWXd5aUVJd04wVjZaVENDdWxVN1VaWFVTZCtFUHFSYWtrZ3p6UnkxVlVmcDFmVXR1RFdDd3NUTSthQ0RRNGtMbzBGMHFVeTNENWJoa09rYytrbnJCUE14a2plZjRYUDlVSWlUTmxyT2NPT1VkNUhIT294TUlzNjhxakpHRjhlUE1mcS9oWHY1eE5nWVpFRm5oclRTNGloVGwrRkIvYTY1NEwrVDAyQm44RU4zK1JMZGxZTWUyak02VDZ5ZFl2bmg5RFRrQjVCMTF2V2JFd1RqWGFLbVBLTmxxZDd5emQ3aFlFNk14akdhU3hKZWZpandJMU9DRXFvelUyTjZUL3JMeEdRbEtSZHA5N0phK3Z1aENCOTJiM05GWnEwNVdXV005eHpoN3lZcW53VkRPNFRWVWdyT3BHVUgxSmQ3enFuZDFaekZIbGthdVRnL081SDlXUm02VkFnTUJBQUdqZ2dRZ01JSUVIREFuQmdrckJnRUVBWUkzRlFvRUdqQVlNQW9HQ0NzR0FRVUZCd01CTUFvR0NDc0dBUVVGQndNQ01EMEdDU3NHQVFRQmdqY1ZCd1F3TUM0R0ppc0dBUVFCZ2pjVkNJYVE0dzJFMWJSNGhQR0xQb1diM1JiT25SS0JZSUwxOWl1RDh0RWdBZ0ZrQWdFS01JSUIyZ1lJS3dZQkJRVUhBUUVFZ2dITU1JSUJ5REJtQmdnckJnRUZCUWN3QW9aYWFIUjBjRG92TDJOeWJDNXRhV055YjNOdlpuUXVZMjl0TDNCcmFXbHVabkpoTDBObGNuUnpMMEpNTWxCTFNVbE9WRU5CTURFdVFVMUZMa2RDVEY5QlRVVWxNakJKYm1aeVlTVXlNRU5CSlRJd01ESW9OQ2t1WTNKME1GWUdDQ3NHQVFVRkJ6QUNoa3BvZEhSd09pOHZZM0pzTVM1aGJXVXVaMkpzTDJGcFlTOUNUREpRUzBsSlRsUkRRVEF4TGtGTlJTNUhRa3hmUVUxRkpUSXdTVzVtY21FbE1qQkRRU1V5TURBeUtEUXBMbU55ZERCV0JnZ3JCZ0VGQlFjd0FvWkthSFIwY0RvdkwyTnliREl1WVcxbExtZGliQzloYVdFdlFrd3lVRXRKU1U1VVEwRXdNUzVCVFVVdVIwSk1YMEZOUlNVeU1FbHVabkpoSlRJd1EwRWxNakF3TWlnMEtTNWpjblF3VmdZSUt3WUJCUVVITUFLR1NtaDBkSEE2THk5amNtd3pMbUZ0WlM1blltd3ZZV2xoTDBKTU1sQkxTVWxPVkVOQk1ERXVRVTFGTGtkQ1RGOUJUVVVsTWpCSmJtWnlZU1V5TUVOQkpUSXdNRElvTkNrdVkzSjBNRllHQ0NzR0FRVUZCekFDaGtwb2RIUndPaTh2WTNKc05DNWhiV1V1WjJKc0wyRnBZUzlDVERKUVMwbEpUbFJEUVRBeExrRk5SUzVIUWt4ZlFVMUZKVEl3U1c1bWNtRWxNakJEUVNVeU1EQXlLRFFwTG1OeWREQWRCZ05WSFE0RUZnUVVGcFJucFdhVVljdGJqNlJ4MTVNUjd1bVBqcWt3RGdZRFZSMFBBUUgvQkFRREFnV2dNQ3dHQTFVZEVRUWxNQ09DSVdGamRHbHZibUZpYkdVdWNISnZaQzVsYldGcGJDNWhlbU5zYVdWdWRDNXRjekNDQVRVR0ExVWRId1NDQVN3d2dnRW9NSUlCSktDQ0FTQ2dnZ0VjaGtKb2RIUndPaTh2WTNKc0xtMXBZM0p2YzI5bWRDNWpiMjB2Y0d0cGFXNW1jbUV2UTFKTUwwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXd4TG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXd5TG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXd6TG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNteUdOR2gwZEhBNkx5OWpjbXcwTG1GdFpTNW5ZbXd2WTNKc0wwRk5SU1V5TUVsdVpuSmhKVEl3UTBFbE1qQXdNaWcwS1M1amNtd3dId1lEVlIwakJCZ3dGb0FVcm5uQ2ExMGxpQk1HOWdjSnc1ZDhlNWVQSFZVd0hRWURWUjBsQkJZd0ZBWUlLd1lCQlFVSEF3RUdDQ3NHQVFVRkJ3TUNNQTBHQ1NxR1NJYjNEUUVCQ3dVQUE0SUJBUUNrSlpLbnE5NWdaL2dUelcrRG5TTlRhVTNwSFh6c2tUdS8zS1Y2ME0wSTRPRS8xWE5LVHMzK3hBNGxLOTAxZFpJbUo3NElUTk5MQnpScHE4VlZYQWlSQXkwOVFSRVRWWWZmdzRaZ1dUbm1iZFVTWVJqTG80SCtRditOeVBTSE1PVVdDcnZoNkNBN3JPQ3dBY21WRENIeFh2cEVkbDhrQ2NWQ3BhTlFpR25ZS3F5NG9Ra1JSWmc4eFFQWUVkeTZWRko5eUtFOG9jblN0Mlp5eW9rbjN4WGdYdW5YM1VpcVdCenVWWDd5OWg2SjlVdHBTNjR5elZ0SmdkTlhuTEZKL2J2QnJqZy9hM29RQnl0NUdNanVvTnQ3Wm8wZEVLTG1yeG8zZFoycVZSbE4wckhaWTR4emR4WlBMOUF3YmlXbEY0ejNoWGV6MmJnRGNFWlI4SGlicWh4TiJ9.eyJzZW5kZXIiOiJub3JlcGx5QGVtYWlsLnRlYW1zLm1pY3Jvc29mdC5jb20iLCJvcmlnaW5hdG9yIjoiODAxNzdlMTYtNGQ2MC00NDA5LWIwOWMtNDllZDg3M2UwOTM2IiwicmVjaXBpZW50c1NlcmlhbGl6ZWQiOiJbXCJtYW5pc2gudmVybWFAc2thcHNpbmRpYS5jb21cIl0iLCJhZGFwdGl2ZUNhcmRTZXJpYWxpemVkIjoie1widHlwZVwiOlwiQWRhcHRpdmVDYXJkXCIsXCJoaWRlT3JpZ2luYWxCb2R5XCI6dHJ1ZSxcInJ0bFwiOmZhbHNlLFwidmVyc2lvblwiOlwiMS4wXCIsXCJwYWRkaW5nXCI6XCJub25lXCIsXCJ0aGVtZVwiOlwibXN0ZWFtc1wiLFwiYm9keVwiOlt7XCJ0ZXh0XCI6XCJMb2FkaW5nIHRoZSBsYXRlc3QgbWVzc2FnZXMuIElmIHlvdSBkb24ndCBzZWUgdGhlbSBpbiA1IHNlY29uZHMsIGNsaWNrIG9uICoqR28gdG8gY29udmVyc2F0aW9uKiogdG8gdmlldyBpbiBUZWFtcy5cIixcIndyYXBcIjp0cnVlLFwidHlwZVwiOlwiVGV4dEJsb2NrXCJ9LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwic3R5bGVcIjpcInRlYW1zSGVhZGVyXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb2x1bW5TZXRcIixcImNvbHVtbnNcIjpbe1widHlwZVwiOlwiQ29sdW1uXCIsXCJ3aWR0aFwiOlwic3RyZXRjaFwiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiVGV4dEJsb2NrXCIsXCJjb2xvclwiOlwid2hpdGVcIixcInNpemVcIjpcImxhcmdlXCIsXCJ3ZWlnaHRcIjpcImJvbGRlclwiLFwidGV4dFwiOlwiTWljcm9zb2Z0IFRlYW1zXCJ9XSxcInZlcnRpY2FsQ29udGVudEFsaWdubWVudFwiOlwiY2VudGVyXCJ9LHtcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcImF1dG9cIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkltYWdlXCIsXCJzaXplXCI6XCJzbWFsbFwiLFwidXJsXCI6XCJjaWQ6YWN0aW9uYWJsZV9sb2dvXCJ9XX1dfV19LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwiaXNWaXNpYmxlXCI6ZmFsc2UsXCJpZFwiOlwiYmFubmVyLXBsYWNlaG9sZGVyXCJ9LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwiaWRcIjpcImNvbnRlbnQtY29udGFpbmVyXCIsXCJzcGFjaW5nXCI6XCJub25lXCIsXCJwYWRkaW5nXCI6XCJub25lXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb250YWluZXJcIixcInBhZGRpbmdcIjp7XCJsZWZ0XCI6XCJkZWZhdWx0XCIsXCJyaWdodFwiOlwiZGVmYXVsdFwiLFwidG9wXCI6XCJkZWZhdWx0XCIsXCJib3R0b21cIjpcIm5vbmVcIn0sXCJpdGVtc1wiOlt7XCJpZFwiOlwiZ3JlZXRpbmdcIixcInNpemVcIjpcImxhcmdlXCIsXCJ0ZXh0XCI6XCJIaSwgTWFuaXNoXCIsXCJ3ZWlnaHRcIjpcImJvbGRlclwiLFwid3JhcFwiOnRydWUsXCJ0eXBlXCI6XCJUZXh0QmxvY2tcIn0se1wiaWRcIjpcInN1bW1hcnlMaW5rXCIsXCJ0ZXh0XCI6XCJZb3VyIHRlYW1tYXRlcyBhcmUgdHJ5aW5nIHRvIHJlYWNoIHlvdSBpbiBbTWljcm9zb2Z0IFRlYW1zXShodHRwczovL3RlYW1zLm1pY3Jvc29mdC5jb20vbC9jaGF0LzE5Ojg0OTA0OWZjLTI2NDctNGJlNi04MWU3LTUwYWRlOGU5ODI5MF9mYjEyZTQ3ZC1lNjVhLTQzMmYtOGFhZC01MDU5NjdmYjFmYTJAdW5xLmdibC5zcGFjZXMvY29udmVyc2F0aW9ucz90ZW5hbnRJZD00MjlkZjk4YS1kNGZkLTQ4YTQtOGIyMC1mMjUxOGE1MzU3ZmYpXCIsXCJ3cmFwXCI6dHJ1ZSxcInR5cGVcIjpcIlRleHRCbG9ja1wifV19LHtcImlkXCI6XCJtZXNzYWdlLWl0ZW1zXCIsXCJzcGFjaW5nXCI6XCJzbWFsbFwiLFwidHlwZVwiOlwiQ29udGFpbmVyXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb250YWluZXJcIixcInNwYWNpbmdcIjpcIm5vbmVcIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwicGFkZGluZ1wiOntcImxlZnRcIjpcImRlZmF1bHRcIixcInJpZ2h0XCI6XCJkZWZhdWx0XCIsXCJ0b3BcIjpcImRlZmF1bHRcIixcImJvdHRvbVwiOlwic21hbGxcIn0sXCJpdGVtc1wiOlt7XCJpZFwiOlwibWVzc2FnZS1pdGVtLWxhYmVsXCIsXCJ0eXBlXCI6XCJUZXh0QmxvY2tcIixcIndlaWdodFwiOlwiYm9sZGVyXCIsXCJ0ZXh0XCI6XCJQYXJ2YXQgc2VudCBhIG1lc3NhZ2UgaW4gY2hhdFwiLFwid3JhcFwiOnRydWUsXCJzcGFjaW5nXCI6XCJsYXJnZVwifV19LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwicGFkZGluZ1wiOlwibm9uZVwiLFwic3R5bGVcIjpcInRlYW1zQWNjZW50XCIsXCJzcGFjaW5nXCI6XCJzbWFsbFwiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiQ29sdW1uU2V0XCIsXCJwYWRkaW5nXCI6e1wibGVmdFwiOlwiZGVmYXVsdFwiLFwicmlnaHRcIjpcImRlZmF1bHRcIixcInRvcFwiOlwic21hbGxcIixcImJvdHRvbVwiOlwic21hbGxcIn0sXCJjb2x1bW5zXCI6W3tcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcIjMycHhcIixcIml0ZW1zXCI6W3tcImlkXCI6XCJtZXNzYWdlLWl0ZW0tcHJvZmlsZVwiLFwidHlwZVwiOlwiSW1hZ2VcIixcInN0eWxlXCI6XCJwZXJzb25cIixcInVybFwiOlwiY2lkOjdFQ0E2RDhBRTNFODQ3OTBBQ0FBQTQzMkNCNTk2OTZEXCIsXCJ3aWR0aFwiOlwiMzJweFwifV19LHtcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcInN0cmV0Y2hcIixcIml0ZW1zXCI6W3tcImlkXCI6XCJtZXNzYWdlLWl0ZW0tc291cmNlLXVzZXJcIixcInRleHRcIjpcIlBhcnZhdFwiLFwid2VpZ2h0XCI6XCJib2xkZXJcIixcInR5cGVcIjpcIlRleHRCbG9ja1wifSx7XCJpZFwiOlwibWVzc2FnZS1pdGVtLXByZXZpZXdcIixcInR5cGVcIjpcIlRleHRCbG9ja1wiLFwiY29sb3JcIjpcImxpZ2h0XCIsXCJ0ZXh0XCI6XCIyMDAwMDMyNlwiLFwid3JhcFwiOnRydWUsXCJzcGFjaW5nXCI6XCJub25lXCJ9XX1dfV19LHtcInR5cGVcIjpcIkNvbnRhaW5lclwiLFwiaXRlbXNcIjpbe1widHlwZVwiOlwiQ29sdW1uU2V0XCIsXCJjb2x1bW5zXCI6W3tcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcInN0cmV0Y2hcIixcInBhZGRpbmdcIjp7XCJsZWZ0XCI6XCJkZWZhdWx0XCIsXCJyaWdodFwiOlwiZGVmYXVsdFwifSxcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkFjdGlvblNldFwiLFwiYWN0aW9uc1wiOlt7XCJpZFwiOlwibWVzc2FnZS1pdGVtLWdvdG8tY29udmVyc2F0aW9uXCIsXCJ0eXBlXCI6XCJBY3Rpb24uT3BlblVybFwiLFwidXJsXCI6XCJodHRwczovL3RlYW1zLm1pY3Jvc29mdC5jb20vbC9jaGF0LzE5Ojg0OTA0OWZjLTI2NDctNGJlNi04MWU3LTUwYWRlOGU5ODI5MF9mYjEyZTQ3ZC1lNjVhLTQzMmYtOGFhZC01MDU5NjdmYjFmYTJAdW5xLmdibC5zcGFjZXMvY29udmVyc2F0aW9ucz90ZW5hbnRJZD00MjlkZjk4YS1kNGZkLTQ4YTQtOGIyMC1mMjUxOGE1MzU3ZmYmbG09ZGVlcGxpbmsmbG1zcmM9ZW1haWwmZW1sdGlkPWViOThhYTRiLThhZDQtNGRhYi1hZWQ1LTkwZjhlNWE0ZDNmZSZlbWx0eXBlPU5ld19BY3Rpdml0aWVzJmxpbmt0eXBlPW9wZW5Ta3lwZVRlYW1zJmNtcGlkPUFjdGlvbmFibGVNaXNzZWRBY3Rpdml0eVwiLFwidGl0bGVcIjpcIkdvIHRvIGNvbnZlcnNhdGlvblwifV19XX1dfV19XX1dfV19LHtcInR5cGVcIjpcIkNvbHVtblNldFwiLFwiY29sdW1uc1wiOlt7XCJwYWRkaW5nXCI6e1wibGVmdFwiOlwiZGVmYXVsdFwiLFwicmlnaHRcIjpcImRlZmF1bHRcIixcInRvcFwiOlwiZGVmYXVsdFwiLFwiYm90dG9tXCI6XCJkZWZhdWx0XCJ9LFwidHlwZVwiOlwiQ29sdW1uXCIsXCJ3aWR0aFwiOlwic3RyZXRjaFwiLFwic3R5bGVcIjpcImVtcGhhc2lzXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJDb2x1bW5TZXRcIixcInNwYWNpbmdcIjpcImxhcmdlXCIsXCJzZXBhcmF0b3JcIjp0cnVlLFwiY29sdW1uc1wiOlt7XCJ0eXBlXCI6XCJDb2x1bW5cIixcIndpZHRoXCI6XCJzdHJldGNoXCIsXCJpdGVtc1wiOlt7XCJ0eXBlXCI6XCJUZXh0QmxvY2tcIixcIndlaWdodFwiOlwiYm9sZGVyXCIsXCJ0ZXh0XCI6XCJJbnN0YWxsIE1pY3Jvc29mdCBUZWFtcyBub3dcIn0se1widHlwZVwiOlwiQ29sdW1uU2V0XCIsXCJjb2x1bW5zXCI6W3tcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcImF1dG9cIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkltYWdlXCIsXCJ1cmxcIjpcImNpZDphY3Rpb25hYmxlX2FwcGxlXCIsXCJ3aWR0aFwiOlwiNzBweFwifV0sXCJzZWxlY3RBY3Rpb25cIjp7XCJ0eXBlXCI6XCJBY3Rpb24uT3BlblVybFwiLFwidXJsXCI6XCJodHRwczovL2l0dW5lcy5hcHBsZS5jb20vYXBwL21pY3Jvc29mdC10ZWFtcy9pZDExMTMxNTM3MDZcIixcInRpdGxlXCI6XCJpT1NcIn19LHtcInR5cGVcIjpcIkNvbHVtblwiLFwid2lkdGhcIjpcImF1dG9cIixcIml0ZW1zXCI6W3tcInR5cGVcIjpcIkltYWdlXCIsXCJ1cmxcIjpcImNpZDphY3Rpb25hYmxlX2FuZHJvaWRcIixcIndpZHRoXCI6XCI4OHB4XCJ9XSxcInNlbGVjdEFjdGlvblwiOntcInR5cGVcIjpcIkFjdGlvbi5PcGVuVXJsXCIsXCJ1cmxcIjpcImh0dHBzOi8vcGxheS5nb29nbGUuY29tL3N0b3JlL2FwcHMvZGV0YWlscz9pZD1jb20ubWljcm9zb2Z0LnRlYW1zXCIsXCJ0aXRsZVwiOlwiQW5kcm9pZFwifX1dfSx7XCJ0eXBlXCI6XCJUZXh0QmxvY2tcIixcInNpemVcIjpcInNtYWxsXCIsXCJpc1N1YnRsZVwiOnRydWUsXCJ0ZXh0XCI6XCJUaGlzIGVtYWlsIHdhcyBzZW50IGZyb20gYW4gdW5tb25pdG9yZWQgbWFpbGJveC4gVXBkYXRlIHlvdXIgZW1haWwgcHJlZmVyZW5jZXMgaW4gVGVhbXMuIEFjdGl2aXR5ID4gU2V0dGluZ3MgKEdlYXIgSWNvbikgPiBOb3RpZmljYXRpb25zLlwiLFwid3JhcFwiOnRydWV9LHtcInR5cGVcIjpcIlRleHRCbG9ja1wiLFwic2l6ZVwiOlwic21hbGxcIixcImlzU3VidGxlXCI6dHJ1ZSxcInRleHRcIjpcIsKpIDIwMjMgTWljcm9zb2Z0IENvcnBvcmF0aW9uLCBPbmUgTWljcm9zb2Z0IFdheSwgUmVkbW9uZCBXQSA5ODA1Mi03MzI5XCIsXCJ3cmFwXCI6dHJ1ZX0se1widHlwZVwiOlwiVGV4dEJsb2NrXCIsXCJzaXplXCI6XCJzbWFsbFwiLFwiaXNTdWJ0bGVcIjp0cnVlLFwidGV4dFwiOlwiUmVhZCBvdXIgW3ByaXZhY3kgcG9saWN5XShodHRwczovL2dvLm1pY3Jvc29mdC5jb20vZndsaW5rL3AvP2xpbmtpZD04NTc4NzUpXCIsXCJ3cmFwXCI6dHJ1ZSxcInNwYWNpbmdcIjpcIm5vbmVcIn0se1widHlwZVwiOlwiSW1hZ2VcIixcInVybFwiOlwiY2lkOmFjdGlvbmFibGVfbWljcm9zb2Z0X2xvZ29cIn1dfV19XX1dfV0sXCJhdXRvSW52b2tlQWN0aW9uXCI6e1wiaWRcIjpcImF1dG8taW52b2tlLWFjdGlvblwiLFwibWV0aG9kXCI6XCJQT1NUXCIsXCJ1cmxcIjpcImh0dHBzOi8vYXBhYzAxLnB1YmxpYy5tdC50ZWFtcy5pbnRlcm5hbC5vZmZpY2UuY29tL2JldGEvYWN0aW9uYWJsZU1lc3NhZ2UvYWN0aXZpdHkvaW5pdFwiLFwiYm9keVwiOlwie1xcXCJsb2NhbGVcXFwiOlxcXCJlbi11c1xcXCIsXFxcImRlbGF5XFxcIjo1OCxcXFwiYWN0aXZpdGllc1xcXCI6W3tcXFwidHlwZVxcXCI6XFxcIkNoYXRcXFwiLFxcXCJzdWJ0eXBlXFxcIjpcXFwiVGVhbXNcXFwiLFxcXCJtZXNzYWdlSWRcXFwiOjE2OTI2ODI1MjM3MzIsXFxcInNvdXJjZVRocmVhZElkXFxcIjpcXFwiMTk6ODQ5MDQ5ZmMtMjY0Ny00YmU2LTgxZTctNTBhZGU4ZTk4MjkwX2ZiMTJlNDdkLWU2NWEtNDMyZi04YWFkLTUwNTk2N2ZiMWZhMkB1bnEuZ2JsLnNwYWNlc1xcXCIsXFxcInRhcmdldFRocmVhZElkXFxcIjpcXFwiXFxcIixcXFwidGFyZ2V0TmFtZVxcXCI6XFxcIlxcXCJ9XX1cIixcInR5cGVcIjpcIkFjdGlvbi5IdHRwXCJ9LFwiYXV0b0ludm9rZU9wdGlvbnNcIjp7XCJzaG93Q2FyZE9uRmFpbHVyZVwiOnRydWV9fSIsImlhdCI6MTY5MjY4NjEyNn0.k4IyfnTZYhoG2zV7desRfBOL7GWENOB5CbtfGfv_BZXsl2mA2VoTvfsGFY47DKYqzEjFddH4C04JtpPyK5DrdK-xGy5F6MEwk1IAri1eFTS2DNlajIrRvxnFkOYipGO5o2ya-r5CFw30qzdT0U6hC7NtRUI-8GrXBAik3RZ7Ya7gEuUfZJEIdqqxdc5mZpzS15iCRdawxxLa6BjjlF7S7H2pQPtmk6DlQdBGxhGD-buFOq471RV-dCrQGATfPThmh3ZCykQDUDojJ5dcjpkh9JPMRghjrraoz9Qx6iPWnu2t4LHp1qGR55RVYZsaej-r1iCBby_rCE9CYbDqz-HVWw</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>45160.65844991898</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=08edcd37-b7b2-421d-aaab-4b87da5f6294&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://go.microsoft.com/fwlink/?LinkID=857493&gt; . 	
+Recycle bin &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=08edcd37-b7b2-421d-aaab-4b87da5f6294&gt; 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://go.microsoft.com/fwlink/?LinkID=521839&gt;  | Notification Settings &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?p=22&gt; . 	
+ &lt;https://southindiar-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=oEHulGESTkGm6rsL-74gDQ&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45161.07498392361</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Functionality implement - Printing through the phone </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Shashwat Chauhan</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>shashwat.chauhan@skaps.com</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Dipakbhai and Manishbhai,
+Hope you are doing well. 
+Today , We have tested our SKAPS – Athens phone’s connecting with the Network printer and printing through it , And we are successfully able to print the document from the phone . 
+As per requirements we can add the print button at the top right corner of the page that contains the all the information with QR code . I found the relevant video on the YouTube , https://www.youtube.com/watch?v=497riGWbhsQ . You can review it for getting the better Idea. 
+If you have any questions regarding testing, please let me know.
+Thanks and Regards,
+Shashwat Chauhan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>45160.92934393518</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>RE: Welcoming Shashwat to Our Team!</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Nayan Vyas</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>nayan.vyas@skaps.com</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Welcome Shashwat!! 
+From: Ravi Shah &lt;ravi.shah@skaps.com&gt; 
+Sent: Tuesday, August 22, 2023 12:40 PM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh &lt;hitesh.rawat@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Usha &lt;usha.shetty@skapsindia.com&gt;; Shraddha &lt;shraddha@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Sachin &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Deep Patel &lt;deep.patel@skaps.com&gt;; Sunil Sinha &lt;sunilsinha@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;
+Cc: Shashwat Chauhan &lt;shashwat.chauhan@skaps.com&gt;
+Subject: Welcoming Shashwat to Our Team!
+Please welcome Shashwat to the team.
+Feel free to reach out and say hello!
+Looking forward to great things ahead.
+Best,
+ &lt;https://skaps.com/&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>45160.92366048611</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Welcoming Shashwat to Our Team!</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ravi Shah</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ravi.shah@skaps.com</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please welcome Shashwat to the team.
+Feel free to reach out and say hello!
+Looking forward to great things ahead.
+Best,
+ &lt;https://skaps.com/&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>45161.40710905092</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>RE: RM_CONSUMPTION DETAILS REPORT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+We cannot make this report in NOW as it will put too much load into system. However we can this in Power BI.
+Below is the Power BI report for Fiber Glass RM Consumption:
+https://app.powerbi.com/groups/2f1348e1-6448-4eff-aa9d-3bd6c18600ee/reports/1a7c5ce9-0783-4e6f-84d7-4c487487d2b3/ReportSection4979906cc60a1281f6c4?experience=power-bi
+Please check and let me know. 
+Regards,
+Usha Shetty
+From: Rasesh Pankhaniya &lt;rasesh.pankhaniya@skapsindia.com&gt; 
+Sent: 17 August 2023 9:38
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Cc: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Anup Patel &lt;anup.patel@skapsindia.com&gt;
+Subject: RE: RM_CONSUMPTION DETAILS REPORT
+Hello ushaben,
+Any update on this??
+If any, please let me know.
+Regards,
+Rasesh.
+From: Rasesh Pankhaniya 
+Sent: 11 August 2023 14:46
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;
+Cc: Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Anup Patel &lt;anup.patel@skapsindia.com &lt;mailto:anup.patel@skapsindia.com&gt; &gt;
+Subject: RM_CONSUMPTION DETAILS REPORT
+Hello ushaben,
+As per our discussion file attached FYR..
+report need only monthly base by auto mail,( @Anup Patel &lt;mailto:anup.patel@skapsindia.com&gt;  , @Rasesh Pankhaniya &lt;mailto:rasesh.pankhaniya@skapsindia.com&gt; )
+if need any more information, please let me know.
+Regards,
+rasesh.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>45161.41737023148</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>FW: stop off entry work start.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Regards,
+Usha Shetty
+From: Mitesh Patel &lt;mitesh.patel@skapsindia.com&gt; 
+Sent: 22 August 2023 15:09
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com&gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com&gt;; Divy Thacker &lt;prd.pet@skapsindia.com&gt;; Pet Operator &lt;pet.operator@skapsindia.com&gt;; PET Maintenance &lt;engineering.pet@skapsindia.com&gt;
+Subject: stop off entry work start.
+Usha ben,
+Please Kindy find attachment of stop off entry work start.
+Thanks,
+Mitesh Patel
+Mo: +91 9925314356
+Mo: +91 9427627430
+Skaps industries india pvt ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>45161.44251385417</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Re: Welcoming Shashwat to Our Team!</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Hitesh Rawat</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=EB0AB82F944948AEAAE8D79AA761B0A0-HITESH.RAWA</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Shashwat,
+Welcome aboard !!!
+Regards
+________________________________
+From: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;
+Sent: Tuesday, August 22, 2023 10:18 PM
+To: Ravi Shah &lt;ravi.shah@skaps.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Sachin Patel &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Deep Patel &lt;deep.patel@skaps.com&gt;; Sunil Sinha &lt;sunilsinha@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;
+Cc: Shashwat Chauhan &lt;shashwat.chauhan@skaps.com&gt;
+Subject: RE: Welcoming Shashwat to Our Team! 
+Welcome Shashwat!! 
+From: Ravi Shah &lt;ravi.shah@skaps.com&gt; 
+Sent: Tuesday, August 22, 2023 12:40 PM
+To: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh &lt;hitesh.rawat@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Usha &lt;usha.shetty@skapsindia.com&gt;; Shraddha &lt;shraddha@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Pallavi Padole &lt;pallavi.padole@skaps.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Sachin &lt;sachin.patel@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Deep Patel &lt;deep.patel@skaps.com&gt;; Sunil Sinha &lt;sunilsinha@skaps.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;
+Cc: Shashwat Chauhan &lt;shashwat.chauhan@skaps.com&gt;
+Subject: Welcoming Shashwat to Our Team!
+Please welcome Shashwat to the team.
+Feel free to reach out and say hello!
+Looking forward to great things ahead.
+Best,
+ &lt;https://skaps.com/&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>45161.49956796296</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Security Anjani</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=E49FB0E433C74CCEAF1A9C4F21D5A103-SECURITY.AN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Thanks &amp; Regards 
+Lekhraj Gurjar
+Anjani Udyog Pvt.Ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45161.60305246527</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Security Anjani</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=E49FB0E433C74CCEAF1A9C4F21D5A103-SECURITY.AN</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Thanks &amp; Regards 
+Lekhraj Gurjar
+Anjani Udyog Pvt.Ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>45161.6066534838</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Contractor Attendance Sheet</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Security Anjani</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=E49FB0E433C74CCEAF1A9C4F21D5A103-SECURITY.AN</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Thanks &amp; Regards 
+Lekhraj Gurjar
+Anjani Udyog Pvt.Ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>45162.68343151621</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Re: USA NOW QA Login Migration with AD</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=181E14ED797344DD886C0D0FA7C1C97B-SACHIN.PATE</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Dear Team,
+We have postponed this migration this week due to CAMS commerce work.
+We will do next week.
+Regards, 
+Sachin Patel
+________________________________
+From: Sachin Patel
+Sent: Friday, August 18, 2023 10:43
+To: Ravi Shah &lt;ravi.shah@skaps.com&gt;; Nirja Shah &lt;nirja.shah@skaps.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;; pallavi.padole@skaps.com &lt;pallavi.padole@skaps.com&gt;; Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Hitesh maurya &lt;hitesh.maurya@skapsindia.com&gt;; Dipak Chelani &lt;dipak.chelani@skapsindia.com&gt;; Deep Patel &lt;deep.patel@skaps.com&gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Lilaji Rathod &lt;it.mundra@skapsindia.com&gt;
+Subject: USA NOW QA Login Migration with AD 
+Dear Team,
+This is for your information, Next week we are planning to migrate USA NOW QA login with Active Directory.
+So, please prepare the login list and other necessary information.
+Deep,
+I will call you, we have to create group and user for this authentication.
+Regards, 
+Sachin Patel</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>45162.75276484954</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Training for Vendor/Customer creations</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Shraddha Sharma</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=930EF8D29E074ACDA13E810E0E9DC5DD-SHRADDHA</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello All, 
+Training is conducted and also your questions are welcome for vendor/customer creation through NOW. If anybody left in this meeting please forward
+Regards
+Shraddha
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_MDUxMjY4ZWUtYTQ3ZS00MTQ5LWE4NGItOWM5ZDAzZjMwZDZm%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%2211258d11-1e6d-4a1a-967b-a8bd05881141%22%7d&gt;  
+Meeting ID: 417 032 392 203 
+Passcode: 9w3oqC 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=11258d11-1e6d-4a1a-967b-a8bd05881141&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_MDUxMjY4ZWUtYTQ3ZS00MTQ5LWE4NGItOWM5ZDAzZjMwZDZm@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>45163.4002215162</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>RE: Congratulations !! SKAPS First Wind Blade</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FYI 
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+________________________________
+From: Vibhuti Patel
+Sent: Wednesday, August 23, 2023 5:22 PM
+To: Ramsinh Jadav &lt;ramsinh@skapsindia.com &lt;mailto:ramsinh@skapsindia.com&gt; &gt;; Rashmin Devmurari &lt;r.devmurari@skaps.com &lt;mailto:r.devmurari@skaps.com&gt; &gt;; Tejas Mashruwala &lt;tejas@skaps.com &lt;mailto:tejas@skaps.com&gt; &gt;; Faizan Ansari &lt;faizan.ansari@skapsindia.com &lt;mailto:faizan.ansari@skapsindia.com&gt; &gt;; Design Kitting &lt;designkitting@skapsindia.com &lt;mailto:designkitting@skapsindia.com&gt; &gt;; Design Kitting1 &lt;designkitting1@skapsindia.com &lt;mailto:designkitting1@skapsindia.com&gt; &gt;; Jaykishan Dudiya &lt;jaykishan.dudiya@skapsindia.com &lt;mailto:jaykishan.dudiya@skapsindia.com&gt; &gt;; Sujit Nimavat &lt;sujit.nimavat@skapsindia.com &lt;mailto:sujit.nimavat@skapsindia.com&gt; &gt;; Om Joshi &lt;om.joshi@skapsindia.com &lt;mailto:om.joshi@skapsindia.com&gt; &gt;; Roshani Gupta &lt;roshani@skapsindia.com &lt;mailto:roshani@skapsindia.com&gt; &gt;; Rohit Jadav &lt;corekitmnt@skapsindia.com &lt;mailto:corekitmnt@skapsindia.com&gt; &gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com &lt;mailto:sanket.gajjar@skapsindia.com&gt; &gt;; Mitesh Patel &lt;mitesh.patel@skapsindia.com &lt;mailto:mitesh.patel@skapsindia.com&gt; &gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com &lt;mailto:m.prajapati@skapsindia.com&gt; &gt;; Ashish Bharadwa &lt;ashish@skapsindia.com &lt;mailto:ashish@skapsindia.com&gt; &gt;; Anup Patel &lt;anup.patel@skapsindia.com &lt;mailto:anup.patel@skapsindia.com&gt; &gt;; Yogesh Parmar &lt;yogesh.parmar@skapsindia.com &lt;mailto:yogesh.parmar@skapsindia.com&gt; &gt;; Rasesh Pankhaniya &lt;rasesh.pankhaniya@skapsindia.com &lt;mailto:rasesh.pankhaniya@skapsindia.com&gt; &gt;; Tanmay Vyas &lt;tanmay@skaps.com &lt;mailto:tanmay@skaps.com&gt; &gt;; Mahendra Rajput &lt;mahendra@skapsindia.com &lt;mailto:mahendra@skapsindia.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Glass Kit Production &lt;glasskitprd@skapsindia.com &lt;mailto:glasskitprd@skapsindia.com&gt; &gt;; Core Kit Production &lt;corekitprd@skapsindia.com &lt;mailto:corekitprd@skapsindia.com&gt; &gt;; Ramesh Rohit &lt;ramesh.rohit@skapsindia.com &lt;mailto:ramesh.rohit@skapsindia.com&gt; &gt;; Kishan Makani &lt;kishan.makani@skapsindia.com &lt;mailto:kishan.makani@skapsindia.com&gt; &gt;; Rajendra Prajapati &lt;rajendra.prajapati@skapsindia.com &lt;mailto:rajendra.prajapati@skapsindia.com&gt; &gt;; Sandeep Choudhary &lt;lab.kitting@skapsindia.com &lt;mailto:lab.kitting@skapsindia.com&gt; &gt;; Harsh Khimani &lt;harsh.khimani@skapsindia.com &lt;mailto:harsh.khimani@skapsindia.com&gt; &gt;; Kit Materials &lt;materials.kit@skapsindia.com &lt;mailto:materials.kit@skapsindia.com&gt; &gt;
+Cc: perry vyas &lt;perry@skaps.com &lt;mailto:perry@skaps.com&gt; &gt;; Sumer &lt;sumersingh@skaps.com &lt;mailto:sumersingh@skaps.com&gt; &gt;; Nisarg Vyas &lt;nisarg@skaps.com &lt;mailto:nisarg@skaps.com&gt; &gt;; Amit Thakkar &lt;amit.thakkar@skaps.com &lt;mailto:amit.thakkar@skaps.com&gt; &gt;; Vijay Patel &lt;vijay.patel@skapsindia.com &lt;mailto:vijay.patel@skapsindia.com&gt; &gt;; Haresh Patel &lt;haresh.patel@skapsindia.com &lt;mailto:haresh.patel@skapsindia.com&gt; &gt;; Don Featherly &lt;dfeatherly@skaps.com &lt;mailto:dfeatherly@skaps.com&gt; &gt;; Scott Mauney &lt;scott@skaps.com &lt;mailto:scott@skaps.com&gt; &gt;
+Subject: Congratulations !! SKAPS First Wind Blade 
+Dear Team,
+Congratulations to everyone on your hard work and dedication towards making of Adani's first wind blade from all SKAPS materials (fiberglass, kitting, PET and designing).
+We saw you guys working hard for this accomplishment. This amazing accomplishment is one step closer to our journey and many to come. Good to see you guys pushing your limits and overcome all the obstacles to make this success happen!!
+Congratulations and proud moment for all of us! 
+Be One &amp; Connect, Be SKAPS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>45163.69310329861</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Training Doc</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Shraddha Sharma</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=930EF8D29E074ACDA13E810E0E9DC5DD-SHRADDHA</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+Please find attached document here with Business_Order Partner Creation
+Training Date: 25th August, 2023
+Topics Covered: Business/Order Partner Creation for both IND/USA
+Attendees: AO_Ashni End Users
+Regards
+Shraddha
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>45163.75577802083</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=75dde3b4-be7b-43b2-8a63-eef105a3756c&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://go.microsoft.com/fwlink/?LinkID=857493&gt; . 	
+Recycle bin &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=75dde3b4-be7b-43b2-8a63-eef105a3756c&gt; 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://go.microsoft.com/fwlink/?LinkID=521839&gt;  | Notification Settings &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?p=22&gt; . 	
+ &lt;https://japanwestr-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=AfFdrMplFk-B72eb7PmYgw&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>45167.61307355324</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Microsoft 365 security: You have messages in quarantine</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		
+	 &lt;https://products.office.com&gt; 
+Review These Messages	 
+1 messages are being held for you to review as of 8/29/2023 9:11:18 AM (UTC). 	
+Review them within 30 days of the received date by going to the Quarantine page &lt;https://security.microsoft.com/quarantine&gt;  in the Security Center. 	
+Prevented spam messages 	
+Sender: 	enrollment@icicilombard.services 	 	  	 
+Subject: 	Welcome to ICICILombard 	 	  	 
+Date: 	8/29/2023 7:48:13 AM 	 	  	 
+Review Message &lt;https://security.microsoft.com/quarantine?id=8c280ef6-e0d4-4add-26ce-08dba8644c1d\db9b4b23-c6f1-399e-8530-02581e7766a2&amp;recipientAddress=%40ENC%40pH46nEZk%2F3jvx8EyaW8vC%2BRzOTa7wCukxgDFQboi7wBqsLw8OrvWP5tTWHP%2F1ayGcBbwPoOPoyCPzGkw8LcVT8JAVDf02hRdZUlnSNq0%2B%2Fw%3D&gt; 		Release &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/releasespam/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/8c280ef6-e0d4-4add-26ce-08dba8644c1d?token=ItSkUZWKwwK87VD0AgU7EQHgnFCKtfxs8KgFwjunUp0%3d&gt; 		Block Sender &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/modifysender/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/8c280ef6-e0d4-4add-26ce-08dba8644c1d/sender/%40ENC%40o9vllk3EbT4jux8Xk1kkqYcineuQ_QxX5tTiAoyf7YHLHwZQoCfRNhI3TAd-TfNfpPWJy4zWOCxtXHjRcZOtxyDmurLLMSfq1UQlOQG7iBjM4FqbTpj6PkBQqPgdWW_N/allowed/False?token=76DDFQLJtpM9N1%2biYcwT4Uva5dC%2bZTUg5Uu4Bw2lUQc%3d&gt; 	
+© 2023 Microsoft Corporation. All rights reserved. 	
+Privacy Statement &lt;https://go.microsoft.com/fwlink/p/?LinkID=138500&gt;  	
+Acceptable Use Policy &lt;https://go.microsoft.com/fwlink/p/?LinkID=79398&gt;  	
+	</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>45166.96959578704</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Raksha Bandhan Holiday !!</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear all,
+This is to inform you that staff (Plants working ) will have holiday on Wednesday, August 30th 2023 for Raksha Bandhan.
+May you and your sister/ brother are blessed with a deeper, stronger bond of love…. Happy Rakhi!!
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45168.61367319444</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Microsoft 365 security: You have messages in quarantine</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		
+	 &lt;https://products.office.com&gt; 
+Review These Messages	 
+1 messages are being held for you to review as of 8/30/2023 9:12:11 AM (UTC). 	
+Review them within 30 days of the received date by going to the Quarantine page &lt;https://security.microsoft.com/quarantine&gt;  in the Security Center. 	
+Prevented spam messages 	
+Sender: 	enrollment@icicilombard.services 	 	  	 
+Subject: 	ICICILombard Welcome Mailer - ILTakeCare Mobile App 	 	  	 
+Date: 	8/30/2023 6:01:22 AM 	 	  	 
+Review Message &lt;https://security.microsoft.com/quarantine?id=e5f6d68e-c96d-4e67-2df4-08dba91e899a\8032853b-2745-6810-255a-6a351a91a84a&amp;recipientAddress=%40ENC%40qpCQMEnkLewQnjiw6a7hHBl5fZOz%2BWuVnOSIT4gYRFaxQ3sw7XmtD9sEB%2Br8YMuDcYbApe08H3hwHxjv6nzfYSzw4%2FsEF6DdmkhvUWRB7W8%3D&gt; 		Release &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/releasespam/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/e5f6d68e-c96d-4e67-2df4-08dba91e899a?token=%2bJZKCtoU2WRRNImrso45ZxUOKgd4VoBHaB4%2b%2bmFLmuI%3d&gt; 		Block Sender &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/modifysender/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/e5f6d68e-c96d-4e67-2df4-08dba91e899a/sender/%40ENC%40IFuY7sI836HKVNYWUsNWYavbMRvmFTtDCAyZv8KeptRv5zNH4Hx-18reiI3-lliIHn7DhhUnr2nI7RgRBljEy7L7GGb2D5HyoVxA1zQ7B9vqZpfpukZLHn4bIZI7if2s/allowed/False?token=fgoT9yfoAQtavigUigc5eUbAfHsFw4pA1jyqhHABloQ%3d&gt; 	
+© 2023 Microsoft Corporation. All rights reserved. 	
+Privacy Statement &lt;https://go.microsoft.com/fwlink/p/?LinkID=138500&gt;  	
+Acceptable Use Policy &lt;https://go.microsoft.com/fwlink/p/?LinkID=79398&gt;  	
+	</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>45169.77896958333</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Microsoft 365 security: You have messages in quarantine</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		
+	 &lt;https://products.office.com&gt; 
+Review These Messages	 
+1 messages are being held for you to review as of 8/31/2023 1:10:07 PM (UTC). 	
+Review them within 30 days of the received date by going to the Quarantine page &lt;https://security.microsoft.com/quarantine&gt;  in the Security Center. 	
+Prevented spam messages 	
+Sender: 	enrollment@icicilombard.services 	 	  	 
+Subject: 	ICICILombard Health Claim Process 	 	  	 
+Date: 	8/31/2023 6:01:33 AM 	 	  	 
+Review Message &lt;https://security.microsoft.com/quarantine?id=380d1764-e121-4737-9b73-08dba9e7baac\d72e110d-c2a7-d0f8-c267-eaa59a425132&amp;recipientAddress=%40ENC%40X%2BIwmnUftsWQAUD49o8eRxjtrqAYtTuznByqSpN6e0mdSpbYElXbTxB52lpBaI18ce5wnXzrhqafBNFwxtWlvZTKIwl%2Fo5txXxed8tbk%2B00%3D&gt; 		Release &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/releasespam/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/380d1764-e121-4737-9b73-08dba9e7baac?token=iqWmumwl9wEIrW4lMeEaYaB5B9Uej8%2bOt%2blpigqe4%2fk%3d&gt; 		Block Sender &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/modifysender/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/380d1764-e121-4737-9b73-08dba9e7baac/sender/%40ENC%406kjxmJdAUFc7IYAnjxMVv-eJJMG33nFQ70n9Hlx7umIG3p8jNpNn1MBXbaC9GgtX6WvYPM798EK0KDuQ8pVPUZKV7NZFmYZl0V0yOtACJVwX8AgmJ9hPWTsP2kO6iDq4/allowed/False?token=KVzeh%2bp5BDTXcjkh28M06gOiaw7YlaZ4wloStWK8Tog%3d&gt; 	
+© 2023 Microsoft Corporation. All rights reserved. 	
+Privacy Statement &lt;https://go.microsoft.com/fwlink/p/?LinkID=138500&gt;  	
+Acceptable Use Policy &lt;https://go.microsoft.com/fwlink/p/?LinkID=79398&gt;  	
+	</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>45170.56564626157</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Heads up! We noticed that you recently deleted a large number of files from your OneDrive</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SharePoint Online</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>no-reply@sharepointonline.com</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi, We noticed that you recently deleted a large number of files from your OneDrive. 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Files are permanently removed from the online recycle bin 93 days after they're deleted 	
+Hi Manish Verma, 
+We noticed that you recently deleted a large number of files from your OneDrive. 
+When files are deleted, they're stored in your recycle bin and can be restored within 93 days. After 93 days, deleted files are gone forever. 
+If you want to restore these files, go to the recycle bin. &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=5f18c952-a575-490e-922c-bf1748480f4c&gt;  Select what you want to restore, and click the Restore button. 
+Ignore this mail if you meant to get rid of these files. 
+Learn more about deleting and restoring files &lt;https://go.microsoft.com/fwlink/?LinkID=857493&gt; . 	
+Recycle bin &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?view=5&amp;activityId=5f18c952-a575-490e-922c-bf1748480f4c&gt; 	
+ &lt;https://go.microsoft.com/fwlink/?LinkID=271181&gt; 	
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052 USA 	
+You are receiving this email because you have subscribed to OneDrive. 	
+Copyright 2019 Microsoft Corporation. Privacy Statement &lt;https://go.microsoft.com/fwlink/?LinkID=521839&gt;  | Notification Settings &lt;https://skapsindia-my.sharepoint.com/personal/manishv_skapsindia_com/_layouts/15/onedrive.aspx?p=22&gt; . 	
+ &lt;https://japaneastr-notifyp.svc.ms:443/api/v2/tracking/method/View?mi=jPyUw-CSfEOWKac3lUEuRg&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>45171.78728431713</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Microsoft 365 security: You have messages in quarantine</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		
+	 &lt;https://products.office.com&gt; 
+Review These Messages	 
+1 messages are being held for you to review as of 9/2/2023 1:21:37 PM (UTC). 	
+Review them within 30 days of the received date by going to the Quarantine page &lt;https://security.microsoft.com/quarantine&gt;  in the Security Center. 	
+Prevented spam messages 	
+Sender: 	enrollment@icicilombard.services 	 	  	 
+Subject: 	ETC- ILTakeCare App 	 	  	 
+Date: 	9/2/2023 6:01:24 AM 	 	  	 
+Review Message &lt;https://security.microsoft.com/quarantine?id=dcd0ebe0-6a4f-42fa-aaca-08dbab7a09fe\56be683e-8d49-5ec1-5542-76f2be8b8d4a&amp;recipientAddress=%40ENC%40%2B0nsKQd3mOMVB4on6wCt0GXzvPf1YKYwpQ7NMRBQ%2Bsj9eSs0A39FbNfGF3emPQv6AFfI1zenLaJVCJ9iTjxi6v2%2FLZcSmJN5Pj51M8pTSTQ%3D&gt; 		Release &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/releasespam/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/dcd0ebe0-6a4f-42fa-aaca-08dbab7a09fe?token=O5TvSm0MhzXU2ccm1Z8mRLaHwVZt3b7CIOM4T4zA6MM%3d&gt; 		Block Sender &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/modifysender/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/dcd0ebe0-6a4f-42fa-aaca-08dbab7a09fe/sender/%40ENC%40x15LIPGxK2-lAzkP3oShRZleKBBTfOIcxC3zigWR0RjAbxxvqNCEjyU6Y7kOVdxgkgOdNrh07Gw9zE9rxVmowYiC8smaPqVF1OONYbp6tkSV0uLygA7tV8G_LXuUK05H/allowed/False?token=4sx%2bQXidMBm7TlTw%2bpaDIZYPTlgoDUBUeBJgRAybYYs%3d&gt; 	
+© 2023 Microsoft Corporation. All rights reserved. 	
+Privacy Statement &lt;https://go.microsoft.com/fwlink/p/?LinkID=138500&gt;  	
+Acceptable Use Policy &lt;https://go.microsoft.com/fwlink/p/?LinkID=79398&gt;  	
+	</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>45170.7808375</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Microsoft 365 security: You have messages in quarantine</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>quarantine@messaging.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		
+	 &lt;https://products.office.com&gt; 
+Review These Messages	 
+1 messages are being held for you to review as of 9/1/2023 1:10:56 PM (UTC). 	
+Review them within 30 days of the received date by going to the Quarantine page &lt;https://security.microsoft.com/quarantine&gt;  in the Security Center. 	
+Prevented spam messages 	
+Sender: 	enrollment@icicilombard.services 	 	  	 
+Subject: 	Cross It - Scan It - Send It 	 	  	 
+Date: 	9/1/2023 6:01:03 AM 	 	  	 
+Review Message &lt;https://security.microsoft.com/quarantine?id=6f53db8d-3b0d-454f-8de4-08dbaab0d2e8\443ae710-1a80-9484-cadf-493e4c86be8c&amp;recipientAddress=%40ENC%40Z0%2BncEGZEVicNRTXJDNGybAeJvvecY0G%2BDMndVkbRYDm5LHR9OMoZk2erYKndvcadU1ql5hmiEBxnVmv11Q01c9wNvVoqUHCfG1RNMbPuSA%3D&gt; 		Release &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/releasespam/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/6f53db8d-3b0d-454f-8de4-08dbaab0d2e8?token=%2bx4Ya8QM%2bffLqyf0FFCEt%2feOaDI7YduRlb3i8j%2fDk1k%3d&gt; 		Block Sender &lt;https://ind01-quarantine.dataservice.protection.outlook.com/spamdigestesn/spamdigest.svc/modifysender/orgs/429df98a-d4fd-48a4-8b20-f2518a5357ff/users/manish.verma@skapsindia.com/mail/6f53db8d-3b0d-454f-8de4-08dbaab0d2e8/sender/%40ENC%40MiV8o5DTmILIEN9B-bxcpja-QAMD__h-mjsnxJCGqH5GI5tErBRcsSIb_Y-qWugbOeQBbt-71eIINxUJg0LNQt_eGJ-gFUtjUQb1eLDPTAbDPncdpmOYXxVu1zZcC1XE/allowed/False?token=1tNy3N30YHCXhP7LrrDnARyg7wNX6Rnsjz6g311XPJU%3d&gt; 	
+© 2023 Microsoft Corporation. All rights reserved. 	
+Privacy Statement &lt;https://go.microsoft.com/fwlink/p/?LinkID=138500&gt;  	
+Acceptable Use Policy &lt;https://go.microsoft.com/fwlink/p/?LinkID=79398&gt;  	
+	</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>45174.07851408565</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Your digest email</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Microsoft Viva</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>viva-noreply@microsoft.com</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private to you &lt;https://go.microsoft.com/fwlink/?linkid=2104226&gt; 
+Hi, Manish Verma,
+Discover trends in your work habits
+An in-depth look at your work patterns in the last four weeks
+Explore your insights
+ &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_0ccd01d9-0054-4c2d-9985-28a720a3b684&gt; 	
+27 days without quiet hours interruptions 
+Days with no significant collaboration outside your working hours
+1% Collaboration time 
+spent in meetings, emails, chats, and calls weekly
+How connected are you throughout the day
+A breakdown of your email, chat and call activity throughout the day, from data over the last four weeks.
+30 
+24 
+18 
+12 
+6 
+0 
+4 AM – 8 AM 
+8 AM – 12 PM 
+12 PM – 4 PM 
+4 PM – 8 PM 
+8 PM – 12 AM 
+ 	Emails sent 
+ 	Emails read 
+ 	Chats and calls 
+ &lt;https://insights.viva.office.com/#/PersonalApp/BetterUp/?Source=MonthlyDigest_f54afe67-b5ec-4e24-90d1-48a08dc61daf&amp;FocusOn=Episode2&gt; 	
+From BetterUp | 
+ 	1 min 
+Discover Aurora James's key to unlocking your leadership potential 
+Passion is contagious. Owning your passion as a leader can help you inspire and influence others to achieve a shared goal. 
+Watch video &lt;https://insights.viva.office.com/#/PersonalApp/BetterUp/?Source=MonthlyDigest_f54afe67-b5ec-4e24-90d1-48a08dc61daf&amp;FocusOn=Episode2&gt; 	
+Take a deeper look
+Focus 
+99% Time available to focus in a typical week
+Network 
+5 Active collaborators you emailed, met, or chatted with at least a few times
+Learn more &lt;https://insights.viva.office.com/#/PersonalApp/Home/?Source=MonthlyDigest_dd1ffae5-b0fa-4697-90fd-5547440daa38&gt; 
+Send feedback &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_6fc539fd-b5be-4c74-be7d-3d1972f4ba64&amp;Feature=EmailFeedback&gt;  to Microsoft 
+Microsoft Corporation
+One Microsoft Way, Redmond, WA 98052, USA
+Settings &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/WorkWeekSettings/?Source=MonthlyDigest_7d3aa742-33df-4504-bc59-18304c2655ed&gt;      Privacy Statement &lt;https://privacy.microsoft.com/en-us/privacystatement&gt;      Unsubscribe &lt;https://insights.viva.office.com/#/PersonalApp/AppSettings/PrivacySettings/?Source=MonthlyDigest_40f1a119-f32f-465b-8004-54eb14ad0650&amp;Feature=EmailUnsubscribeFeedback&gt;  
+This email is intended for manish.verma@skapsindia.com
+For people in Canada
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager &lt;http://go.microsoft.com/fwlink/?LinkId=2149885&gt; .
+Microsoft Canada Inc.
+1950 Meadowvale Blvd.
+Mississauga, ON L5N 8L9 Canada 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>45174.42734054398</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>RE: stop off entry work start.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Mitesh Bhai,
+As per our discussion here I attached a screenshot of ‘Stop off Entry’ which have you done Yesterday and if testing is done for your side, then we will move to Live in this week.
+Please revert back to Us.
+Regards,
+Vrushali Ghoghalia
+From: Usha Shetty &lt;usha.shetty@skapsindia.com&gt; 
+Sent: 23 August 2023 10:01
+To: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Subject: FW: stop off entry work start.
+Regards,
+Usha Shetty
+From: Mitesh Patel &lt;mitesh.patel@skapsindia.com &lt;mailto:mitesh.patel@skapsindia.com&gt; &gt; 
+Sent: 22 August 2023 15:09
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com &lt;mailto:sanket.gajjar@skapsindia.com&gt; &gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com &lt;mailto:m.prajapati@skapsindia.com&gt; &gt;; Divy Thacker &lt;prd.pet@skapsindia.com &lt;mailto:prd.pet@skapsindia.com&gt; &gt;; Pet Operator &lt;pet.operator@skapsindia.com &lt;mailto:pet.operator@skapsindia.com&gt; &gt;; PET Maintenance &lt;engineering.pet@skapsindia.com &lt;mailto:engineering.pet@skapsindia.com&gt; &gt;
+Subject: stop off entry work start.
+Usha ben,
+Please Kindy find attachment of stop off entry work start.
+Thanks,
+Mitesh Patel
+Mo: +91 9925314356
+Mo: +91 9427627430
+Skaps industries india pvt ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>45174.47160703703</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Holiday - Janmastami 07 September</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=F790DE9F3698434BA5601C80EE79AD98-RAVIRAJ.JAD</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please note below working/ closure of plants on;
+07 September – Thursday, Janmastami.
+Mundra U1 Wovens – closed on 07 and (08 September closed against working on Sunday 10th  September).
+Mundra U2 Nonwoven- working.   
+Mundra U2 Fiberline – working.
+Anjani operations: 
+Kitting- working with minimum manpower.
+PET –  working.
+Fiberglass : working.
+Anya: Woven, Hydrotex &amp; stitching - closed on 07 and (08 September closed against working on Sunday 10th  September).
+Staff holiday.
+If any changes/ questions, please let me know or discuss.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>45174.69503357639</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>RE: stop off entry work start.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Mitesh Patel</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=AD852C1C89D54699842044FA4BEBA4AB-MITESH.PATE</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+We have checked the results and we are ok with it.
+When we will be able to go live?
+Thanks,
+Mitesh Patel
+Mo: +91 9925314356
+Mo: +91 9427627430
+Skaps industries india pvt ltd
+From: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com&gt; 
+Sent: 05 September 2023 16:07
+To: Mitesh Patel &lt;mitesh.patel@skapsindia.com&gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com&gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com&gt;; Divy Thacker &lt;prd.pet@skapsindia.com&gt;; Pet Operator &lt;pet.operator@skapsindia.com&gt;; PET Maintenance &lt;engineering.pet@skapsindia.com&gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Parevi Damani &lt;parevi.damani@skapsindia.com&gt;
+Subject: RE: stop off entry work start.
+Hello,
+Process name:  Production Progress
+Work center to filter ‘PT1EXTR1’
+Please find attached excel for stop off result.
+Regards,
+Vrushali Ghoghalia
+From: Vrushali Ghoghalia 
+Sent: 05 September 2023 10:15
+To: Mitesh Patel &lt;mitesh.patel@skapsindia.com &lt;mailto:mitesh.patel@skapsindia.com&gt; &gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com &lt;mailto:sanket.gajjar@skapsindia.com&gt; &gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com &lt;mailto:m.prajapati@skapsindia.com&gt; &gt;; Divy Thacker &lt;prd.pet@skapsindia.com &lt;mailto:prd.pet@skapsindia.com&gt; &gt;; Pet Operator &lt;pet.operator@skapsindia.com &lt;mailto:pet.operator@skapsindia.com&gt; &gt;; PET Maintenance &lt;engineering.pet@skapsindia.com &lt;mailto:engineering.pet@skapsindia.com&gt; &gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;
+Subject: RE: stop off entry work start.
+Hello Mitesh Bhai,
+As per our discussion here I attached a screenshot of ‘Stop off Entry’ which have you done Yesterday and if testing is done for your side, then we will move to Live in this week.
+Please revert back to Us.
+Regards,
+Vrushali Ghoghalia
+From: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt; 
+Sent: 23 August 2023 10:01
+To: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: FW: stop off entry work start.
+Regards,
+Usha Shetty
+From: Mitesh Patel &lt;mitesh.patel@skapsindia.com &lt;mailto:mitesh.patel@skapsindia.com&gt; &gt; 
+Sent: 22 August 2023 15:09
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com &lt;mailto:sanket.gajjar@skapsindia.com&gt; &gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com &lt;mailto:m.prajapati@skapsindia.com&gt; &gt;; Divy Thacker &lt;prd.pet@skapsindia.com &lt;mailto:prd.pet@skapsindia.com&gt; &gt;; Pet Operator &lt;pet.operator@skapsindia.com &lt;mailto:pet.operator@skapsindia.com&gt; &gt;; PET Maintenance &lt;engineering.pet@skapsindia.com &lt;mailto:engineering.pet@skapsindia.com&gt; &gt;
+Subject: stop off entry work start.
+Usha ben,
+Please Kindy find attachment of stop off entry work start.
+Thanks,
+Mitesh Patel
+Mo: +91 9925314356
+Mo: +91 9427627430
+Skaps industries india pvt ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>45174.67170518519</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>RE: stop off entry work start.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=12C3E919CF464AF6ADE4D3B5AF5276A7-VRUSHALI.GH</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+Process name:  Production Progress
+Work center to filter ‘PT1EXTR1’
+Please find attached excel for stop off result.
+Regards,
+Vrushali Ghoghalia
+From: Vrushali Ghoghalia 
+Sent: 05 September 2023 10:15
+To: Mitesh Patel &lt;mitesh.patel@skapsindia.com&gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com&gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com&gt;; Divy Thacker &lt;prd.pet@skapsindia.com&gt;; Pet Operator &lt;pet.operator@skapsindia.com&gt;; PET Maintenance &lt;engineering.pet@skapsindia.com&gt;
+Cc: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;; Manish Verma &lt;manish.verma@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;
+Subject: RE: stop off entry work start.
+Hello Mitesh Bhai,
+As per our discussion here I attached a screenshot of ‘Stop off Entry’ which have you done Yesterday and if testing is done for your side, then we will move to Live in this week.
+Please revert back to Us.
+Regards,
+Vrushali Ghoghalia
+From: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt; 
+Sent: 23 August 2023 10:01
+To: Vrushali Ghoghalia &lt;vrushali.ghoghalia@skapsindia.com &lt;mailto:vrushali.ghoghalia@skapsindia.com&gt; &gt;; Manish Verma &lt;manish.verma@skapsindia.com &lt;mailto:manish.verma@skapsindia.com&gt; &gt;
+Subject: FW: stop off entry work start.
+Regards,
+Usha Shetty
+From: Mitesh Patel &lt;mitesh.patel@skapsindia.com &lt;mailto:mitesh.patel@skapsindia.com&gt; &gt; 
+Sent: 22 August 2023 15:09
+To: Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Cc: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Sanket Gajjar &lt;sanket.gajjar@skapsindia.com &lt;mailto:sanket.gajjar@skapsindia.com&gt; &gt;; Mukesh Prajapati &lt;m.prajapati@skapsindia.com &lt;mailto:m.prajapati@skapsindia.com&gt; &gt;; Divy Thacker &lt;prd.pet@skapsindia.com &lt;mailto:prd.pet@skapsindia.com&gt; &gt;; Pet Operator &lt;pet.operator@skapsindia.com &lt;mailto:pet.operator@skapsindia.com&gt; &gt;; PET Maintenance &lt;engineering.pet@skapsindia.com &lt;mailto:engineering.pet@skapsindia.com&gt; &gt;
+Subject: stop off entry work start.
+Usha ben,
+Please Kindy find attachment of stop off entry work start.
+Thanks,
+Mitesh Patel
+Mo: +91 9925314356
+Mo: +91 9427627430
+Skaps industries india pvt ltd
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>45174.63874741898</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Discussion Regarding Interactive Forms</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Dipak Chelani</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=5FC804E13C5A46B0956DE0AF686CEFC7-DIPAK.CHELA</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+________________________________________________________________________________ 
+Microsoft Teams meeting 
+Join on your computer, mobile app or room device 
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_ZjU2NzU4YmQtN2RlOS00YzcwLTgyMGQtNmQyYmEwOWJkMzEx%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%225ee6eafa-85d7-42f2-9469-d250b07ff257%22%7d&gt;  
+Meeting ID: 474 417 728 838 
+Passcode: 4DqRpt 
+Download Teams &lt;https://www.microsoft.com/en-us/microsoft-teams/download-app&gt;  | Join on the web &lt;https://www.microsoft.com/microsoft-teams/join-a-meeting&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=5ee6eafa-85d7-42f2-9469-d250b07ff257&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_ZjU2NzU4YmQtN2RlOS00YzcwLTgyMGQtNmQyYmEwOWJkMzEx@thread.v2&amp;messageId=0&amp;language=en-US&gt;  
+________________________________________________________________________________ 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>45174.71295990741</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>FW: Datatex Restart</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=3820A0C319C14FD8A95C114D4CF019EF-USHA.SHETTY</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FYI.
+Regards,
+Usha Shetty
+From: Usha Shetty 
+Sent: 22 August 2023 11:10
+To: Nirja Shah &lt;nirja.shah@skaps.com&gt;; Ravi Shah &lt;ravi.shah@skaps.com&gt;; Harsh Shah &lt;harsh.shah@skaps.com&gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com&gt;; Shraddha Sharma &lt;shraddha@skapsindia.com&gt;; Hitesh Rawat &lt;hitesh.rawat@skapsindia.com&gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com&gt;
+Subject: RE: Datatex Restart
+Hello,
+To enable to i-net log tracing in NOW: 
+                https://docs.inetsoftware.de/reporting/help/system-logging to enable the i-net log. 
+                com.dat.now.bas.action.NOWReportsCrystalClear8 use this to enable ABSLogEditor to enable the trace from NOW side.
+Note: You need set this after every restart. 
+Regards,
+Usha Shetty
+From: Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt; 
+Sent: 22 August 2023 2:34
+To: Hitesh Rawat &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Usha Shetty &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Shraddha Sharma &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;; Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;
+Subject: RE: Datatex Restart
+Hello Everyone,
+Adding to this, NOWTEST is also not running since morning.
+Few reports taking more than a minute to run in live:
+1.	DSIShippingDefinitive_303.rpt 
+Thank you,
+Nirja Shah
+From: Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt; 
+Sent: Monday, August 21, 2023 2:53 PM
+To: Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt;; Hitesh &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Shraddha &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Subject: RE: Datatex Restart
+I suspect it has been slowing down a little bit before that, from around the time the Clarksville sales report have been made live.
+I could be wrong, but better to once take a look there as well.
+From: Ravi Shah &lt;ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt; &gt; 
+Sent: Monday, August 21, 2023 2:47 PM
+To: Hitesh &lt;hitesh.rawat@skapsindia.com &lt;mailto:hitesh.rawat@skapsindia.com&gt; &gt;; Lalit Prajapati &lt;lalit.prajapati@skapsindia.com &lt;mailto:lalit.prajapati@skapsindia.com&gt; &gt;
+Cc: Nayan Vyas &lt;nayan.vyas@skaps.com &lt;mailto:nayan.vyas@skaps.com&gt; &gt;; Harsh Shah &lt;harsh.shah@skaps.com &lt;mailto:harsh.shah@skaps.com&gt; &gt;; Nirja Shah &lt;nirja.shah@skaps.com &lt;mailto:nirja.shah@skaps.com&gt; &gt;; Usha &lt;usha.shetty@skapsindia.com &lt;mailto:usha.shetty@skapsindia.com&gt; &gt;; Shraddha &lt;shraddha@skapsindia.com &lt;mailto:shraddha@skapsindia.com&gt; &gt;; Parevi Damani &lt;parevi.damani@skapsindia.com &lt;mailto:parevi.damani@skapsindia.com&gt; &gt;
+Subject: Datatex Restart
+Hiteshbhai/Lalitbhai,
+We have to restart Datatex due to slow response almost every day after the 20 30 merging activity. 
+Can you please check what is causing the slowdown? 
+Best,
+ &lt;https://skaps.com/&gt; 
+Ravi Shah
+Data Analyst
+SKAPS Industries
+335 Athena Dr
+Athens, GA 30601
+Email: ravi.shah@skaps.com &lt;mailto:ravi.shah@skaps.com&gt;  
+Phone: +1 (706) 354-3700 Ext.: 122
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>45176.45308055556</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ICICI Lombard Health E – Cards</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>enrollmentilhc@icicilombard.com</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>enrollmentilhc@icicilombard.com</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">************************This is a system generated mail **********************
+*************************Do not reply to this mail*****************************
+Dear Sir/Madam,
+Greetings from ICICI Lombard's IL-Health Care Services!
+With respect to your Group Mediclaim policy, we take immense pleasure in informing you that ICICI Lombard GIC Ltd will be your Health Insurance Service Partner .ICICI Lombard Health Care is in-house claim settlement team would be servicing Cashless and Reimbursement medical claims for you and your family members covered under the policy.
+Please find E-health cards in the enclosed attachment.
+Our website has some key features including commonly used links. Please find the important links for your reference below:
+• ICICI Lombard Website- Click here &lt;https://www.icicilombard.com&gt; 
+• Claim Process- Click here &lt;https://ilhc.icicilombard.com/claims.html&gt; 
+• Claim Status-Click here &lt;https://ilhc.icicilombard.com/Customer/ClaimStatus&gt; 
+• Documents Required-Click here &lt;https://ilhc.icicilombard.com//documents-required.html&gt; 
+• Health Cards- Click here &lt;https://ilhc.icicilombard.com/Customer/iCard&gt; 
+• Claim Form- Click here &lt;https://www.icicilombard.com/docs/default-source/Policy-Wordings-product-Brochure/english-health-claim-form8c0003ff45fd68ff8a0df0055e0d3bfe.pdf?sfvrsn=8&gt; 
+• Cashless Hospitals list- Click here &lt;https://ilhc.icicilombard.com/Customer/GetHospitalList&gt; 
+Please get in touch with our Relationship Manager or write to ihealthcare@icicilombard.com &lt;mailto:ihealthcare@icicilombard.com&gt;  or call us on Toll free No.18002666 for any kind of support/queries related to Endorsements/Claims/Other queries.
+We would like to inform you about health assistance service, which helps in taking informed decision on your healthcare need, services are as follows.
+(a) Doctor Appointment (b) Second Opinion (c) Facilitating Hospitalization (d) Post Hospitalization Care.
+Health Assistance Services Helpline - 040 6627 4205 (8 am to 8 pm from Monday to Saturday)
+Email - healthassistance@icicilombard.com &lt;mailto:healthassistance@icicilombard.com&gt; ,
+Weblink-Click here &lt;https://ilhc.icicilombard.com/Home/healthassistance&gt; 
+Mobile App: Now you can download “IL Takecare” Mobile App from iOS and Play Store to access information related to Health and Wellness needs. Download the app now to verify your personal and family detail's to avoid delays in service at the time of medical urgencies
+Android App Download Link:- https://play.google.com/store/apps/details?id=icici.lombard.ghi&amp;hl=en &lt;https://play.google.com/store/apps/details?id=icici.lombard.ghi&amp;hl=en&gt; 
+iOS App Download Link- https://apps.apple.com/in/app/iltakecare/id1462026635
+&lt;https://apps.apple.com/in/app/iltakecare/id1462026635&gt; 
+On registering you will be eligible for 2 complimentary tele-consultations with the doctor. Grab the offer now.
+Documents Required for Reimbursement Claim*
+• Duly filled Claim form (signed by the Insured) -Total claim amount should be mentioned and part C should be filled for employee Fund transfer policies
+• Cancelled cheque photocopy or ID proof with self attestation for policies with fund transfer to employee account directly.
+• Discharge summary (with details of complaints and the treatment availed)
+• Final Hospital Bill (Cost-wise break-up) along with interim bills
+• Payment Receipts
+• Doctor's consultation papers
+• All investigation reports (E.g. Original Blood report, X-ray, Sonography, CT Scan, MRI, etc.)
+• All pharmacy bills supported by doctor prescriptions
+• Implant sticker / invoice, if used (E.g. lens details in cataract case, stent details in angioplasty)
+• Medico Legal Certificate (MLC) and / or FIR for all accident cases
+• Any other related documents
+Please note all documents should be in Original.
+* This is not an exhaustive list; any other document could be required post assessment of your case.
+*For Queried claims, it is mandatory to submit the required documents within 45 days from the date of query intimation. Non receipt of query response within the mentioned timelines will lead to rejection of the claim, as per the IRDA guidelines
+Warm Regards, 
+Team-ICICI Lombard Healthcare
+**NOTE: This is a system generated mail, please do not reply on this mail id
+(enrollmentilhc@icicilombard.com &lt;mailto:enrollmentilhc@icicilombard.com&gt; )  &lt;http://delivery.icicilombard.com/SMCYEUDARQ?id=131301=dh8ACAZSUgcBHhgZGRBDEUMUGBZBQUQYERQREhFBQhAZQxAZFUNBFxBCGBkZEEMRQwREWwAPDUtZGkdXQwwDcEoIUUlGCg9TWQMWWlZdHwBVDQwGU1ZTDgMABQYHVlIDRQtETUVZThhUB1RQT1URSE1dW18CCAhXXFZQQFVPAV9UTGN0djokYnQjamgGWQdNFQc=&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>45180.78625674768</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SKAPS IT Team</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Lalit Prajapati</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>/O=EXCHANGELABS/OU=EXCHANGE ADMINISTRATIVE GROUP (FYDIBOHF23SPDLT)/CN=RECIPIENTS/CN=C8FBD5D6E16045B4ABB9201B9AD96AD2-LALIT.PRAJA</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello all,
+This meeting regarding Daily Work Update.
+Regards
+SKAPS IT TEAM
+________________________________________________________________________________
+Microsoft Teams meeting
+Join on your computer or mobile app
+Click here to join the meeting &lt;https://teams.microsoft.com/l/meetup-join/19%3ameeting_NDkyNTYxYTItZGQxYi00YmUxLWFmOTMtZWQ4NWE0MGMzNDQz%40thread.v2/0?context=%7b%22Tid%22%3a%22429df98a-d4fd-48a4-8b20-f2518a5357ff%22%2c%22Oid%22%3a%228eaa9841-50e9-45d3-9945-9f82c3f38070%22%7d&gt; 
+Learn More &lt;https://aka.ms/JoinTeamsMeeting&gt;  | Meeting options &lt;https://teams.microsoft.com/meetingOptions/?organizerId=8eaa9841-50e9-45d3-9945-9f82c3f38070&amp;tenantId=429df98a-d4fd-48a4-8b20-f2518a5357ff&amp;threadId=19_meeting_NDkyNTYxYTItZGQxYi00YmUxLWFmOTMtZWQ4NWE0MGMzNDQz@thread.v2&amp;messageId=0&amp;language=en-US&gt; 
+________________________________________________________________________________
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>45182.89817577547</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Your Power Automate trial is ending soon</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Microsoft Power Automate</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PowerAutomate@information.microsoft.com</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Continue streamlining your work | Your Power Automate trial expires soon | We hope you’ve enjoyed using Power Automate.
+Continue streamlining your work | View as a webpage &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db53d&amp;e=cDE9QFljNHd0U3VlbVJONW56cGVRVnhaYTZ6SkZ0WEk4ZjZUS1dpOVRvNHRIZjVYVS12WFpFUGhLbk1lNWcteDdpVVBYYUNTVnI5NThad0JUbTZEYTNaUFBPUElUeFpudzNWZ1lWSmZmV29ZS2lZNEkwd2M&amp;s=2yq0JwvcXUwQedA9JgehRuAytEVcAcxuqj_ed8VcFbE&gt; 
+ &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db53e&gt; 	
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/PowerAutomate_Photo_Hero_SelfServeTrialNurture_660x180?scl=1&amp;fmt=png-alpha&gt; 	
+Your Power Automate trial expires soon 
+We hope you’ve enjoyed using Power Automate. Buy a license today and continue automating time-consuming tasks and increasing your daily productivity with intelligent workflows.
+Choose your plan &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db53f&gt; 	
+Why Power Automate? 
+*	Automate multistep flows — Turn repetitive tasks into automated multistep workflows.
+*	Quickly approve requests — Create, use, and share automated approval workflows to quickly respond to and process requests, from time off and travel plans to documents and sales opportunities. 
+*	Make the most of your data — Connect securely to on-premises data and cloud-based services, to make the most of the data you already have. 
+*	Work securely — Prevent sensitive data from leaving your company using built-in or customized data loss prevention policies.
+Start now ❯ &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db540&gt; 	
+Sign in &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db541&gt;  | Need help? Contact support &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db542&gt;  
+This email was sent from an unmonitored inbox. 
+Privacy Statement &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,193db561&gt;  	
+Microsoft Corporation, One Microsoft Way, Redmond, WA 98052 
+ &lt;https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/Microsoft@2x%20Light%20Theme?scl=1&amp;fmt=png-alpha&gt; 	
+ &lt;https://t.information.microsoft.com/r/?id=h8bc02bb,193db4c3,1&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45182.80428047453</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Access removed for all user to create a purchase order directly</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Harsh Shah</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>harsh.shah@skaps.com</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello everyone,
+This is to notify that the access to create a new Purchase Order directly from the purchase order process has been removed for all the users.
+The only way to create a new Purchase Order is through MRM.
+Note: Please log out and log into NOW to check. Please let me know if it still allow you to create a direct Purchase order.
+</t>
         </is>
       </c>
     </row>
